--- a/varianztest.xlsx
+++ b/varianztest.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -837,13 +837,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G200"/>
+  <dimension ref="A1:Q203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="P203" sqref="P203"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>13452</v>
       </c>
@@ -868,8 +870,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C1),D1)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1">
+        <v>15547</v>
+      </c>
+      <c r="J1">
+        <v>14541</v>
+      </c>
+      <c r="K1">
+        <v>1006</v>
+      </c>
+      <c r="L1">
+        <v>1</v>
+      </c>
+      <c r="N1">
+        <v>11065</v>
+      </c>
+      <c r="O1">
+        <v>9884</v>
+      </c>
+      <c r="P1">
+        <v>1181</v>
+      </c>
+      <c r="Q1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>14030</v>
       </c>
@@ -894,8 +920,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C2),D2)</f>
         <v>13845.341202924568</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>14628</v>
+      </c>
+      <c r="J2">
+        <v>13964</v>
+      </c>
+      <c r="K2">
+        <v>664</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>12668</v>
+      </c>
+      <c r="O2">
+        <v>11681</v>
+      </c>
+      <c r="P2">
+        <v>987</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>17496</v>
       </c>
@@ -920,8 +970,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C3),D3)</f>
         <v>2429.8395443023137</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>16371</v>
+      </c>
+      <c r="J3">
+        <v>15636</v>
+      </c>
+      <c r="K3">
+        <v>735</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>13243</v>
+      </c>
+      <c r="O3">
+        <v>13041</v>
+      </c>
+      <c r="P3">
+        <v>202</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>14559</v>
       </c>
@@ -946,8 +1020,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C4),D4)</f>
         <v>1402.2582615660237</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>14575</v>
+      </c>
+      <c r="J4">
+        <v>13879</v>
+      </c>
+      <c r="K4">
+        <v>696</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>8503</v>
+      </c>
+      <c r="O4">
+        <v>8209</v>
+      </c>
+      <c r="P4">
+        <v>294</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>13853</v>
       </c>
@@ -972,8 +1070,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C5),D5)</f>
         <v>1198.6444224219497</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>14760</v>
+      </c>
+      <c r="J5">
+        <v>13753</v>
+      </c>
+      <c r="K5">
+        <v>1007</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>13475</v>
+      </c>
+      <c r="O5">
+        <v>13725</v>
+      </c>
+      <c r="P5">
+        <v>-250</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>15301</v>
       </c>
@@ -998,8 +1120,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C6),D6)</f>
         <v>857.56987089756853</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>14437</v>
+      </c>
+      <c r="J6">
+        <v>13850</v>
+      </c>
+      <c r="K6">
+        <v>587</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>13414</v>
+      </c>
+      <c r="O6">
+        <v>13845</v>
+      </c>
+      <c r="P6">
+        <v>-431</v>
+      </c>
+      <c r="Q6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>13952</v>
       </c>
@@ -1024,8 +1170,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C7),D7)</f>
         <v>823.10525393200135</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>14057</v>
+      </c>
+      <c r="J7">
+        <v>13588</v>
+      </c>
+      <c r="K7">
+        <v>469</v>
+      </c>
+      <c r="L7">
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <v>14443</v>
+      </c>
+      <c r="O7">
+        <v>15729</v>
+      </c>
+      <c r="P7">
+        <v>-1286</v>
+      </c>
+      <c r="Q7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>15565</v>
       </c>
@@ -1050,8 +1220,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C8),D8)</f>
         <v>714.40038962987967</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>15320</v>
+      </c>
+      <c r="J8">
+        <v>14504</v>
+      </c>
+      <c r="K8">
+        <v>816</v>
+      </c>
+      <c r="L8">
+        <v>8</v>
+      </c>
+      <c r="N8">
+        <v>11021</v>
+      </c>
+      <c r="O8">
+        <v>10221</v>
+      </c>
+      <c r="P8">
+        <v>800</v>
+      </c>
+      <c r="Q8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11699</v>
       </c>
@@ -1076,8 +1270,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C9),D9)</f>
         <v>760.86371224384641</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>12184</v>
+      </c>
+      <c r="J9">
+        <v>11743</v>
+      </c>
+      <c r="K9">
+        <v>441</v>
+      </c>
+      <c r="L9">
+        <v>9</v>
+      </c>
+      <c r="N9">
+        <v>13390</v>
+      </c>
+      <c r="O9">
+        <v>12249</v>
+      </c>
+      <c r="P9">
+        <v>1141</v>
+      </c>
+      <c r="Q9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12985</v>
       </c>
@@ -1102,8 +1320,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C10),D10)</f>
         <v>683.37124006880902</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>12946</v>
+      </c>
+      <c r="J10">
+        <v>12149</v>
+      </c>
+      <c r="K10">
+        <v>797</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="N10">
+        <v>15570</v>
+      </c>
+      <c r="O10">
+        <v>14110</v>
+      </c>
+      <c r="P10">
+        <v>1460</v>
+      </c>
+      <c r="Q10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>13246</v>
       </c>
@@ -1128,8 +1370,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C11),D11)</f>
         <v>607.04269532085038</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>13116</v>
+      </c>
+      <c r="J11">
+        <v>12790</v>
+      </c>
+      <c r="K11">
+        <v>326</v>
+      </c>
+      <c r="L11">
+        <v>11</v>
+      </c>
+      <c r="N11">
+        <v>12764</v>
+      </c>
+      <c r="O11">
+        <v>13180</v>
+      </c>
+      <c r="P11">
+        <v>-416</v>
+      </c>
+      <c r="Q11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>16461</v>
       </c>
@@ -1154,8 +1420,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C12),D12)</f>
         <v>657.01007378880706</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>17260</v>
+      </c>
+      <c r="J12">
+        <v>16103</v>
+      </c>
+      <c r="K12">
+        <v>1157</v>
+      </c>
+      <c r="L12">
+        <v>12</v>
+      </c>
+      <c r="N12">
+        <v>14799</v>
+      </c>
+      <c r="O12">
+        <v>15626</v>
+      </c>
+      <c r="P12">
+        <v>-827</v>
+      </c>
+      <c r="Q12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11146</v>
       </c>
@@ -1180,8 +1470,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C13),D13)</f>
         <v>689.73805882359159</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>12162</v>
+      </c>
+      <c r="J13">
+        <v>11534</v>
+      </c>
+      <c r="K13">
+        <v>628</v>
+      </c>
+      <c r="L13">
+        <v>13</v>
+      </c>
+      <c r="N13">
+        <v>12046</v>
+      </c>
+      <c r="O13">
+        <v>12175</v>
+      </c>
+      <c r="P13">
+        <v>-129</v>
+      </c>
+      <c r="Q13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14946</v>
       </c>
@@ -1206,8 +1520,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C14),D14)</f>
         <v>639.85322927103471</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>15350</v>
+      </c>
+      <c r="J14">
+        <v>15151</v>
+      </c>
+      <c r="K14">
+        <v>199</v>
+      </c>
+      <c r="L14">
+        <v>14</v>
+      </c>
+      <c r="N14">
+        <v>13760</v>
+      </c>
+      <c r="O14">
+        <v>12229</v>
+      </c>
+      <c r="P14">
+        <v>1531</v>
+      </c>
+      <c r="Q14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10654</v>
       </c>
@@ -1232,8 +1570,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C15),D15)</f>
         <v>593.19984167143753</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>10491</v>
+      </c>
+      <c r="J15">
+        <v>9495</v>
+      </c>
+      <c r="K15">
+        <v>996</v>
+      </c>
+      <c r="L15">
+        <v>15</v>
+      </c>
+      <c r="N15">
+        <v>14359</v>
+      </c>
+      <c r="O15">
+        <v>13986</v>
+      </c>
+      <c r="P15">
+        <v>373</v>
+      </c>
+      <c r="Q15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13645</v>
       </c>
@@ -1258,8 +1620,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C16),D16)</f>
         <v>560.91478266979721</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>14597</v>
+      </c>
+      <c r="J16">
+        <v>14208</v>
+      </c>
+      <c r="K16">
+        <v>389</v>
+      </c>
+      <c r="L16">
+        <v>16</v>
+      </c>
+      <c r="N16">
+        <v>11558</v>
+      </c>
+      <c r="O16">
+        <v>13497</v>
+      </c>
+      <c r="P16">
+        <v>-1939</v>
+      </c>
+      <c r="Q16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15684</v>
       </c>
@@ -1284,8 +1670,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C17),D17)</f>
         <v>541.26853889099357</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>17087</v>
+      </c>
+      <c r="J17">
+        <v>15827</v>
+      </c>
+      <c r="K17">
+        <v>1260</v>
+      </c>
+      <c r="L17">
+        <v>17</v>
+      </c>
+      <c r="N17">
+        <v>15282</v>
+      </c>
+      <c r="O17">
+        <v>14833</v>
+      </c>
+      <c r="P17">
+        <v>449</v>
+      </c>
+      <c r="Q17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16863</v>
       </c>
@@ -1310,8 +1720,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C18),D18)</f>
         <v>546.94707071977223</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>16741</v>
+      </c>
+      <c r="J18">
+        <v>16433</v>
+      </c>
+      <c r="K18">
+        <v>308</v>
+      </c>
+      <c r="L18">
+        <v>18</v>
+      </c>
+      <c r="N18">
+        <v>18236</v>
+      </c>
+      <c r="O18">
+        <v>18191</v>
+      </c>
+      <c r="P18">
+        <v>45</v>
+      </c>
+      <c r="Q18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13497</v>
       </c>
@@ -1336,8 +1770,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C19),D19)</f>
         <v>517.41712484027346</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>12411</v>
+      </c>
+      <c r="J19">
+        <v>12474</v>
+      </c>
+      <c r="K19">
+        <v>-63</v>
+      </c>
+      <c r="L19">
+        <v>19</v>
+      </c>
+      <c r="N19">
+        <v>13149</v>
+      </c>
+      <c r="O19">
+        <v>13212</v>
+      </c>
+      <c r="P19">
+        <v>-63</v>
+      </c>
+      <c r="Q19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14064</v>
       </c>
@@ -1362,8 +1820,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C20),D20)</f>
         <v>489.68249092070045</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>15358</v>
+      </c>
+      <c r="J20">
+        <v>15047</v>
+      </c>
+      <c r="K20">
+        <v>311</v>
+      </c>
+      <c r="L20">
+        <v>20</v>
+      </c>
+      <c r="N20">
+        <v>12797</v>
+      </c>
+      <c r="O20">
+        <v>12014</v>
+      </c>
+      <c r="P20">
+        <v>783</v>
+      </c>
+      <c r="Q20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15393</v>
       </c>
@@ -1388,8 +1870,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C21),D21)</f>
         <v>507.88843109390626</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>15394</v>
+      </c>
+      <c r="J21">
+        <v>16155</v>
+      </c>
+      <c r="K21">
+        <v>-761</v>
+      </c>
+      <c r="L21">
+        <v>21</v>
+      </c>
+      <c r="N21">
+        <v>10923</v>
+      </c>
+      <c r="O21">
+        <v>10223</v>
+      </c>
+      <c r="P21">
+        <v>700</v>
+      </c>
+      <c r="Q21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>12750</v>
       </c>
@@ -1414,8 +1920,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C22),D22)</f>
         <v>503.36333097239827</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>11759</v>
+      </c>
+      <c r="J22">
+        <v>11264</v>
+      </c>
+      <c r="K22">
+        <v>495</v>
+      </c>
+      <c r="L22">
+        <v>22</v>
+      </c>
+      <c r="N22">
+        <v>14488</v>
+      </c>
+      <c r="O22">
+        <v>13856</v>
+      </c>
+      <c r="P22">
+        <v>632</v>
+      </c>
+      <c r="Q22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11739</v>
       </c>
@@ -1440,8 +1970,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C23),D23)</f>
         <v>483.49599906813836</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>12682</v>
+      </c>
+      <c r="J23">
+        <v>11701</v>
+      </c>
+      <c r="K23">
+        <v>981</v>
+      </c>
+      <c r="L23">
+        <v>23</v>
+      </c>
+      <c r="N23">
+        <v>10061</v>
+      </c>
+      <c r="O23">
+        <v>9223</v>
+      </c>
+      <c r="P23">
+        <v>838</v>
+      </c>
+      <c r="Q23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10925</v>
       </c>
@@ -1466,8 +2020,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C24),D24)</f>
         <v>462.39231748998901</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>11571</v>
+      </c>
+      <c r="J24">
+        <v>11514</v>
+      </c>
+      <c r="K24">
+        <v>57</v>
+      </c>
+      <c r="L24">
+        <v>24</v>
+      </c>
+      <c r="N24">
+        <v>12955</v>
+      </c>
+      <c r="O24">
+        <v>12937</v>
+      </c>
+      <c r="P24">
+        <v>18</v>
+      </c>
+      <c r="Q24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10441</v>
       </c>
@@ -1492,8 +2070,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C25),D25)</f>
         <v>445.95122457494665</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>10494</v>
+      </c>
+      <c r="J25">
+        <v>9643</v>
+      </c>
+      <c r="K25">
+        <v>851</v>
+      </c>
+      <c r="L25">
+        <v>25</v>
+      </c>
+      <c r="N25">
+        <v>16425</v>
+      </c>
+      <c r="O25">
+        <v>17474</v>
+      </c>
+      <c r="P25">
+        <v>-1049</v>
+      </c>
+      <c r="Q25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>15217</v>
       </c>
@@ -1518,8 +2120,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C26),D26)</f>
         <v>440.21678989262318</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>15973</v>
+      </c>
+      <c r="J26">
+        <v>16305</v>
+      </c>
+      <c r="K26">
+        <v>-332</v>
+      </c>
+      <c r="L26">
+        <v>26</v>
+      </c>
+      <c r="N26">
+        <v>15199</v>
+      </c>
+      <c r="O26">
+        <v>12475</v>
+      </c>
+      <c r="P26">
+        <v>2724</v>
+      </c>
+      <c r="Q26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>15758</v>
       </c>
@@ -1544,8 +2170,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C27),D27)</f>
         <v>443.51817595423432</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>15083</v>
+      </c>
+      <c r="J27">
+        <v>15628</v>
+      </c>
+      <c r="K27">
+        <v>-545</v>
+      </c>
+      <c r="L27">
+        <v>27</v>
+      </c>
+      <c r="N27">
+        <v>18162</v>
+      </c>
+      <c r="O27">
+        <v>17018</v>
+      </c>
+      <c r="P27">
+        <v>1144</v>
+      </c>
+      <c r="Q27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>12177</v>
       </c>
@@ -1570,8 +2220,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C28),D28)</f>
         <v>446.39014857911496</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>11342</v>
+      </c>
+      <c r="J28">
+        <v>11231</v>
+      </c>
+      <c r="K28">
+        <v>111</v>
+      </c>
+      <c r="L28">
+        <v>28</v>
+      </c>
+      <c r="N28">
+        <v>7228</v>
+      </c>
+      <c r="O28">
+        <v>4910</v>
+      </c>
+      <c r="P28">
+        <v>2318</v>
+      </c>
+      <c r="Q28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>12317</v>
       </c>
@@ -1596,8 +2270,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C29),D29)</f>
         <v>429.80352104859384</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>12006</v>
+      </c>
+      <c r="J29">
+        <v>10493</v>
+      </c>
+      <c r="K29">
+        <v>1513</v>
+      </c>
+      <c r="L29">
+        <v>29</v>
+      </c>
+      <c r="N29">
+        <v>14023</v>
+      </c>
+      <c r="O29">
+        <v>13865</v>
+      </c>
+      <c r="P29">
+        <v>158</v>
+      </c>
+      <c r="Q29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>11273</v>
       </c>
@@ -1622,8 +2320,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C30),D30)</f>
         <v>415.81635765056893</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>11684</v>
+      </c>
+      <c r="J30">
+        <v>10917</v>
+      </c>
+      <c r="K30">
+        <v>767</v>
+      </c>
+      <c r="L30">
+        <v>30</v>
+      </c>
+      <c r="N30">
+        <v>11692</v>
+      </c>
+      <c r="O30">
+        <v>11281</v>
+      </c>
+      <c r="P30">
+        <v>411</v>
+      </c>
+      <c r="Q30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>17682</v>
       </c>
@@ -1648,8 +2370,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C31),D31)</f>
         <v>401.40704801947084</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>18322</v>
+      </c>
+      <c r="J31">
+        <v>16169</v>
+      </c>
+      <c r="K31">
+        <v>2153</v>
+      </c>
+      <c r="L31">
+        <v>31</v>
+      </c>
+      <c r="N31">
+        <v>8946</v>
+      </c>
+      <c r="O31">
+        <v>7965</v>
+      </c>
+      <c r="P31">
+        <v>981</v>
+      </c>
+      <c r="Q31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>15658</v>
       </c>
@@ -1674,8 +2420,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C32),D32)</f>
         <v>390.14157350421709</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>17440</v>
+      </c>
+      <c r="J32">
+        <v>16684</v>
+      </c>
+      <c r="K32">
+        <v>756</v>
+      </c>
+      <c r="L32">
+        <v>32</v>
+      </c>
+      <c r="N32">
+        <v>13232</v>
+      </c>
+      <c r="O32">
+        <v>13166</v>
+      </c>
+      <c r="P32">
+        <v>66</v>
+      </c>
+      <c r="Q32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>15658</v>
       </c>
@@ -1700,8 +2470,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C33),D33)</f>
         <v>397.80690925923341</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>14772</v>
+      </c>
+      <c r="J33">
+        <v>13304</v>
+      </c>
+      <c r="K33">
+        <v>1468</v>
+      </c>
+      <c r="L33">
+        <v>33</v>
+      </c>
+      <c r="N33">
+        <v>14535</v>
+      </c>
+      <c r="O33">
+        <v>15248</v>
+      </c>
+      <c r="P33">
+        <v>-713</v>
+      </c>
+      <c r="Q33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>12013</v>
       </c>
@@ -1726,8 +2520,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C34),D34)</f>
         <v>393.0279906675492</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>12907</v>
+      </c>
+      <c r="J34">
+        <v>12489</v>
+      </c>
+      <c r="K34">
+        <v>418</v>
+      </c>
+      <c r="L34">
+        <v>34</v>
+      </c>
+      <c r="N34">
+        <v>13714</v>
+      </c>
+      <c r="O34">
+        <v>12757</v>
+      </c>
+      <c r="P34">
+        <v>957</v>
+      </c>
+      <c r="Q34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>14044</v>
       </c>
@@ -1752,8 +2570,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C35),D35)</f>
         <v>381.17039024318683</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <v>14172</v>
+      </c>
+      <c r="J35">
+        <v>13146</v>
+      </c>
+      <c r="K35">
+        <v>1026</v>
+      </c>
+      <c r="L35">
+        <v>35</v>
+      </c>
+      <c r="N35">
+        <v>10416</v>
+      </c>
+      <c r="O35">
+        <v>11458</v>
+      </c>
+      <c r="P35">
+        <v>-1042</v>
+      </c>
+      <c r="Q35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>12903</v>
       </c>
@@ -1778,8 +2620,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C36),D36)</f>
         <v>383.95573829166796</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>14128</v>
+      </c>
+      <c r="J36">
+        <v>14673</v>
+      </c>
+      <c r="K36">
+        <v>-545</v>
+      </c>
+      <c r="L36">
+        <v>36</v>
+      </c>
+      <c r="N36">
+        <v>16334</v>
+      </c>
+      <c r="O36">
+        <v>14876</v>
+      </c>
+      <c r="P36">
+        <v>1458</v>
+      </c>
+      <c r="Q36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>11482</v>
       </c>
@@ -1804,8 +2670,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C37),D37)</f>
         <v>377.990845801825</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>11879</v>
+      </c>
+      <c r="J37">
+        <v>12244</v>
+      </c>
+      <c r="K37">
+        <v>-365</v>
+      </c>
+      <c r="L37">
+        <v>37</v>
+      </c>
+      <c r="N37">
+        <v>11326</v>
+      </c>
+      <c r="O37">
+        <v>10781</v>
+      </c>
+      <c r="P37">
+        <v>545</v>
+      </c>
+      <c r="Q37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>17009</v>
       </c>
@@ -1830,8 +2720,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C38),D38)</f>
         <v>368.01264971620338</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>17339</v>
+      </c>
+      <c r="J38">
+        <v>16726</v>
+      </c>
+      <c r="K38">
+        <v>613</v>
+      </c>
+      <c r="L38">
+        <v>38</v>
+      </c>
+      <c r="N38">
+        <v>12271</v>
+      </c>
+      <c r="O38">
+        <v>10244</v>
+      </c>
+      <c r="P38">
+        <v>2027</v>
+      </c>
+      <c r="Q38">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>17486</v>
       </c>
@@ -1856,8 +2770,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C39),D39)</f>
         <v>360.63089034567253</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>16731</v>
+      </c>
+      <c r="J39">
+        <v>16762</v>
+      </c>
+      <c r="K39">
+        <v>-31</v>
+      </c>
+      <c r="L39">
+        <v>39</v>
+      </c>
+      <c r="N39">
+        <v>12722</v>
+      </c>
+      <c r="O39">
+        <v>10222</v>
+      </c>
+      <c r="P39">
+        <v>2500</v>
+      </c>
+      <c r="Q39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>13974</v>
       </c>
@@ -1882,8 +2820,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C40),D40)</f>
         <v>359.12537003340185</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>12225</v>
+      </c>
+      <c r="J40">
+        <v>11466</v>
+      </c>
+      <c r="K40">
+        <v>759</v>
+      </c>
+      <c r="L40">
+        <v>40</v>
+      </c>
+      <c r="N40">
+        <v>18360</v>
+      </c>
+      <c r="O40">
+        <v>17655</v>
+      </c>
+      <c r="P40">
+        <v>705</v>
+      </c>
+      <c r="Q40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>14441</v>
       </c>
@@ -1908,8 +2870,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C41),D41)</f>
         <v>373.32256410694305</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>14319</v>
+      </c>
+      <c r="J41">
+        <v>13988</v>
+      </c>
+      <c r="K41">
+        <v>331</v>
+      </c>
+      <c r="L41">
+        <v>41</v>
+      </c>
+      <c r="N41">
+        <v>15770</v>
+      </c>
+      <c r="O41">
+        <v>12031</v>
+      </c>
+      <c r="P41">
+        <v>3739</v>
+      </c>
+      <c r="Q41">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>14327</v>
       </c>
@@ -1934,8 +2920,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C42),D42)</f>
         <v>364.80771322783147</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>16182</v>
+      </c>
+      <c r="J42">
+        <v>15909</v>
+      </c>
+      <c r="K42">
+        <v>273</v>
+      </c>
+      <c r="L42">
+        <v>42</v>
+      </c>
+      <c r="N42">
+        <v>13742</v>
+      </c>
+      <c r="O42">
+        <v>11737</v>
+      </c>
+      <c r="P42">
+        <v>2005</v>
+      </c>
+      <c r="Q42">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>18515</v>
       </c>
@@ -1960,8 +2970,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C43),D43)</f>
         <v>357.64402125010929</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>17518</v>
+      </c>
+      <c r="J43">
+        <v>16056</v>
+      </c>
+      <c r="K43">
+        <v>1462</v>
+      </c>
+      <c r="L43">
+        <v>43</v>
+      </c>
+      <c r="N43">
+        <v>8472</v>
+      </c>
+      <c r="O43">
+        <v>9334</v>
+      </c>
+      <c r="P43">
+        <v>-862</v>
+      </c>
+      <c r="Q43">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>12532</v>
       </c>
@@ -1986,8 +3020,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C44),D44)</f>
         <v>352.64324202992651</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <v>12016</v>
+      </c>
+      <c r="J44">
+        <v>12624</v>
+      </c>
+      <c r="K44">
+        <v>-608</v>
+      </c>
+      <c r="L44">
+        <v>44</v>
+      </c>
+      <c r="N44">
+        <v>13862</v>
+      </c>
+      <c r="O44">
+        <v>14061</v>
+      </c>
+      <c r="P44">
+        <v>-199</v>
+      </c>
+      <c r="Q44">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>11752</v>
       </c>
@@ -2012,8 +3070,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C45),D45)</f>
         <v>346.32590335711382</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <v>11786</v>
+      </c>
+      <c r="J45">
+        <v>11836</v>
+      </c>
+      <c r="K45">
+        <v>-50</v>
+      </c>
+      <c r="L45">
+        <v>45</v>
+      </c>
+      <c r="N45">
+        <v>16617</v>
+      </c>
+      <c r="O45">
+        <v>15375</v>
+      </c>
+      <c r="P45">
+        <v>1242</v>
+      </c>
+      <c r="Q45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>11959</v>
       </c>
@@ -2038,8 +3120,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C46),D46)</f>
         <v>338.61510468774333</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <v>11030</v>
+      </c>
+      <c r="J46">
+        <v>10928</v>
+      </c>
+      <c r="K46">
+        <v>102</v>
+      </c>
+      <c r="L46">
+        <v>46</v>
+      </c>
+      <c r="N46">
+        <v>13440</v>
+      </c>
+      <c r="O46">
+        <v>12081</v>
+      </c>
+      <c r="P46">
+        <v>1359</v>
+      </c>
+      <c r="Q46">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>13147</v>
       </c>
@@ -2064,8 +3170,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C47),D47)</f>
         <v>331.90806646393361</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <v>13470</v>
+      </c>
+      <c r="J47">
+        <v>13181</v>
+      </c>
+      <c r="K47">
+        <v>289</v>
+      </c>
+      <c r="L47">
+        <v>47</v>
+      </c>
+      <c r="N47">
+        <v>16182</v>
+      </c>
+      <c r="O47">
+        <v>16498</v>
+      </c>
+      <c r="P47">
+        <v>-316</v>
+      </c>
+      <c r="Q47">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>15060</v>
       </c>
@@ -2090,8 +3220,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C48),D48)</f>
         <v>327.71098186705279</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <v>15526</v>
+      </c>
+      <c r="J48">
+        <v>14900</v>
+      </c>
+      <c r="K48">
+        <v>626</v>
+      </c>
+      <c r="L48">
+        <v>48</v>
+      </c>
+      <c r="N48">
+        <v>13207</v>
+      </c>
+      <c r="O48">
+        <v>10956</v>
+      </c>
+      <c r="P48">
+        <v>2251</v>
+      </c>
+      <c r="Q48">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>15461</v>
       </c>
@@ -2116,8 +3270,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C49),D49)</f>
         <v>320.94304625003213</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <v>14631</v>
+      </c>
+      <c r="J49">
+        <v>15643</v>
+      </c>
+      <c r="K49">
+        <v>-1012</v>
+      </c>
+      <c r="L49">
+        <v>49</v>
+      </c>
+      <c r="N49">
+        <v>11301</v>
+      </c>
+      <c r="O49">
+        <v>11629</v>
+      </c>
+      <c r="P49">
+        <v>-328</v>
+      </c>
+      <c r="Q49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>16416</v>
       </c>
@@ -2142,8 +3320,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C50),D50)</f>
         <v>315.86956153244677</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <v>15626</v>
+      </c>
+      <c r="J50">
+        <v>16784</v>
+      </c>
+      <c r="K50">
+        <v>-1158</v>
+      </c>
+      <c r="L50">
+        <v>50</v>
+      </c>
+      <c r="N50">
+        <v>13405</v>
+      </c>
+      <c r="O50">
+        <v>14062</v>
+      </c>
+      <c r="P50">
+        <v>-657</v>
+      </c>
+      <c r="Q50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>12233</v>
       </c>
@@ -2168,8 +3370,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C51),D51)</f>
         <v>309.49187700670188</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <v>11822</v>
+      </c>
+      <c r="J51">
+        <v>11928</v>
+      </c>
+      <c r="K51">
+        <v>-106</v>
+      </c>
+      <c r="L51">
+        <v>51</v>
+      </c>
+      <c r="N51">
+        <v>15010</v>
+      </c>
+      <c r="O51">
+        <v>14395</v>
+      </c>
+      <c r="P51">
+        <v>615</v>
+      </c>
+      <c r="Q51">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>11476</v>
       </c>
@@ -2194,8 +3420,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C52),D52)</f>
         <v>308.77463869789415</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <v>10698</v>
+      </c>
+      <c r="J52">
+        <v>10406</v>
+      </c>
+      <c r="K52">
+        <v>292</v>
+      </c>
+      <c r="L52">
+        <v>52</v>
+      </c>
+      <c r="N52">
+        <v>14102</v>
+      </c>
+      <c r="O52">
+        <v>13660</v>
+      </c>
+      <c r="P52">
+        <v>442</v>
+      </c>
+      <c r="Q52">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>11110</v>
       </c>
@@ -2220,8 +3470,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C53),D53)</f>
         <v>302.94645724694448</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <v>10945</v>
+      </c>
+      <c r="J53">
+        <v>10358</v>
+      </c>
+      <c r="K53">
+        <v>587</v>
+      </c>
+      <c r="L53">
+        <v>53</v>
+      </c>
+      <c r="N53">
+        <v>11586</v>
+      </c>
+      <c r="O53">
+        <v>12051</v>
+      </c>
+      <c r="P53">
+        <v>-465</v>
+      </c>
+      <c r="Q53">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>11670</v>
       </c>
@@ -2246,8 +3520,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C54),D54)</f>
         <v>299.21847324041369</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <v>11016</v>
+      </c>
+      <c r="J54">
+        <v>12655</v>
+      </c>
+      <c r="K54">
+        <v>-1639</v>
+      </c>
+      <c r="L54">
+        <v>54</v>
+      </c>
+      <c r="N54">
+        <v>11656</v>
+      </c>
+      <c r="O54">
+        <v>12739</v>
+      </c>
+      <c r="P54">
+        <v>-1083</v>
+      </c>
+      <c r="Q54">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>13967</v>
       </c>
@@ -2272,8 +3570,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C55),D55)</f>
         <v>294.25724612264077</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <v>12546</v>
+      </c>
+      <c r="J55">
+        <v>11792</v>
+      </c>
+      <c r="K55">
+        <v>754</v>
+      </c>
+      <c r="L55">
+        <v>55</v>
+      </c>
+      <c r="N55">
+        <v>14092</v>
+      </c>
+      <c r="O55">
+        <v>13106</v>
+      </c>
+      <c r="P55">
+        <v>986</v>
+      </c>
+      <c r="Q55">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>11401</v>
       </c>
@@ -2298,8 +3620,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C56),D56)</f>
         <v>288.79996684635006</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <v>10624</v>
+      </c>
+      <c r="J56">
+        <v>9700</v>
+      </c>
+      <c r="K56">
+        <v>924</v>
+      </c>
+      <c r="L56">
+        <v>56</v>
+      </c>
+      <c r="N56">
+        <v>14094</v>
+      </c>
+      <c r="O56">
+        <v>14005</v>
+      </c>
+      <c r="P56">
+        <v>89</v>
+      </c>
+      <c r="Q56">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>11379</v>
       </c>
@@ -2324,8 +3670,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C57),D57)</f>
         <v>283.73976008260973</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <v>11721</v>
+      </c>
+      <c r="J57">
+        <v>10891</v>
+      </c>
+      <c r="K57">
+        <v>830</v>
+      </c>
+      <c r="L57">
+        <v>57</v>
+      </c>
+      <c r="N57">
+        <v>11652</v>
+      </c>
+      <c r="O57">
+        <v>11465</v>
+      </c>
+      <c r="P57">
+        <v>187</v>
+      </c>
+      <c r="Q57">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>14314</v>
       </c>
@@ -2350,8 +3720,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C58),D58)</f>
         <v>278.90637366598241</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <v>13629</v>
+      </c>
+      <c r="J58">
+        <v>10823</v>
+      </c>
+      <c r="K58">
+        <v>2806</v>
+      </c>
+      <c r="L58">
+        <v>58</v>
+      </c>
+      <c r="N58">
+        <v>10509</v>
+      </c>
+      <c r="O58">
+        <v>8077</v>
+      </c>
+      <c r="P58">
+        <v>2432</v>
+      </c>
+      <c r="Q58">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>17326</v>
       </c>
@@ -2376,8 +3770,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C59),D59)</f>
         <v>279.6260243932478</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <v>17313</v>
+      </c>
+      <c r="J59">
+        <v>17697</v>
+      </c>
+      <c r="K59">
+        <v>-384</v>
+      </c>
+      <c r="L59">
+        <v>59</v>
+      </c>
+      <c r="N59">
+        <v>13922</v>
+      </c>
+      <c r="O59">
+        <v>14198</v>
+      </c>
+      <c r="P59">
+        <v>-276</v>
+      </c>
+      <c r="Q59">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>16228</v>
       </c>
@@ -2402,8 +3820,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C60),D60)</f>
         <v>275.97052211614613</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <v>16331</v>
+      </c>
+      <c r="J60">
+        <v>16679</v>
+      </c>
+      <c r="K60">
+        <v>-348</v>
+      </c>
+      <c r="L60">
+        <v>60</v>
+      </c>
+      <c r="N60">
+        <v>14297</v>
+      </c>
+      <c r="O60">
+        <v>13849</v>
+      </c>
+      <c r="P60">
+        <v>448</v>
+      </c>
+      <c r="Q60">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>14918</v>
       </c>
@@ -2428,8 +3870,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C61),D61)</f>
         <v>271.29589915868138</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <v>14934</v>
+      </c>
+      <c r="J61">
+        <v>14827</v>
+      </c>
+      <c r="K61">
+        <v>107</v>
+      </c>
+      <c r="L61">
+        <v>61</v>
+      </c>
+      <c r="N61">
+        <v>12121</v>
+      </c>
+      <c r="O61">
+        <v>11781</v>
+      </c>
+      <c r="P61">
+        <v>340</v>
+      </c>
+      <c r="Q61">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>9477</v>
       </c>
@@ -2454,8 +3920,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C62),D62)</f>
         <v>266.74647085494553</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <v>9561</v>
+      </c>
+      <c r="J62">
+        <v>8723</v>
+      </c>
+      <c r="K62">
+        <v>838</v>
+      </c>
+      <c r="L62">
+        <v>62</v>
+      </c>
+      <c r="N62">
+        <v>9796</v>
+      </c>
+      <c r="O62">
+        <v>8763</v>
+      </c>
+      <c r="P62">
+        <v>1033</v>
+      </c>
+      <c r="Q62">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>15008</v>
       </c>
@@ -2480,8 +3970,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C63),D63)</f>
         <v>265.93854212241268</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <v>14395</v>
+      </c>
+      <c r="J63">
+        <v>12781</v>
+      </c>
+      <c r="K63">
+        <v>1614</v>
+      </c>
+      <c r="L63">
+        <v>63</v>
+      </c>
+      <c r="N63">
+        <v>14766</v>
+      </c>
+      <c r="O63">
+        <v>12494</v>
+      </c>
+      <c r="P63">
+        <v>2272</v>
+      </c>
+      <c r="Q63">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>15284</v>
       </c>
@@ -2506,8 +4020,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C64),D64)</f>
         <v>263.18568325754569</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <v>14832</v>
+      </c>
+      <c r="J64">
+        <v>13544</v>
+      </c>
+      <c r="K64">
+        <v>1288</v>
+      </c>
+      <c r="L64">
+        <v>64</v>
+      </c>
+      <c r="N64">
+        <v>15066</v>
+      </c>
+      <c r="O64">
+        <v>15212</v>
+      </c>
+      <c r="P64">
+        <v>-146</v>
+      </c>
+      <c r="Q64">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>12353</v>
       </c>
@@ -2532,8 +4070,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C65),D65)</f>
         <v>258.97913472994389</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <v>14101</v>
+      </c>
+      <c r="J65">
+        <v>13305</v>
+      </c>
+      <c r="K65">
+        <v>796</v>
+      </c>
+      <c r="L65">
+        <v>65</v>
+      </c>
+      <c r="N65">
+        <v>8933</v>
+      </c>
+      <c r="O65">
+        <v>9032</v>
+      </c>
+      <c r="P65">
+        <v>-99</v>
+      </c>
+      <c r="Q65">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>13766</v>
       </c>
@@ -2558,8 +4120,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C66),D66)</f>
         <v>256.10091111211301</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <v>14636</v>
+      </c>
+      <c r="J66">
+        <v>13173</v>
+      </c>
+      <c r="K66">
+        <v>1463</v>
+      </c>
+      <c r="L66">
+        <v>66</v>
+      </c>
+      <c r="N66">
+        <v>13886</v>
+      </c>
+      <c r="O66">
+        <v>12913</v>
+      </c>
+      <c r="P66">
+        <v>973</v>
+      </c>
+      <c r="Q66">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>10663</v>
       </c>
@@ -2584,8 +4170,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C67),D67)</f>
         <v>254.13818553657296</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <v>10990</v>
+      </c>
+      <c r="J67">
+        <v>11270</v>
+      </c>
+      <c r="K67">
+        <v>-280</v>
+      </c>
+      <c r="L67">
+        <v>67</v>
+      </c>
+      <c r="N67">
+        <v>17837</v>
+      </c>
+      <c r="O67">
+        <v>15659</v>
+      </c>
+      <c r="P67">
+        <v>2178</v>
+      </c>
+      <c r="Q67">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>15770</v>
       </c>
@@ -2610,8 +4220,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C68),D68)</f>
         <v>250.47128660238417</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <v>14017</v>
+      </c>
+      <c r="J68">
+        <v>14407</v>
+      </c>
+      <c r="K68">
+        <v>-390</v>
+      </c>
+      <c r="L68">
+        <v>68</v>
+      </c>
+      <c r="N68">
+        <v>15011</v>
+      </c>
+      <c r="O68">
+        <v>10913</v>
+      </c>
+      <c r="P68">
+        <v>4098</v>
+      </c>
+      <c r="Q68">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>8676</v>
       </c>
@@ -2636,8 +4270,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C69),D69)</f>
         <v>246.92386171746085</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I69">
+        <v>11636</v>
+      </c>
+      <c r="J69">
+        <v>10877</v>
+      </c>
+      <c r="K69">
+        <v>759</v>
+      </c>
+      <c r="L69">
+        <v>69</v>
+      </c>
+      <c r="N69">
+        <v>10798</v>
+      </c>
+      <c r="O69">
+        <v>11513</v>
+      </c>
+      <c r="P69">
+        <v>-715</v>
+      </c>
+      <c r="Q69">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>16001</v>
       </c>
@@ -2662,8 +4320,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C70),D70)</f>
         <v>243.32342144818563</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <v>15621</v>
+      </c>
+      <c r="J70">
+        <v>14763</v>
+      </c>
+      <c r="K70">
+        <v>858</v>
+      </c>
+      <c r="L70">
+        <v>70</v>
+      </c>
+      <c r="N70">
+        <v>15691</v>
+      </c>
+      <c r="O70">
+        <v>15859</v>
+      </c>
+      <c r="P70">
+        <v>-168</v>
+      </c>
+      <c r="Q70">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>11290</v>
       </c>
@@ -2688,8 +4370,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C71),D71)</f>
         <v>241.17738202221921</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <v>11434</v>
+      </c>
+      <c r="J71">
+        <v>12077</v>
+      </c>
+      <c r="K71">
+        <v>-643</v>
+      </c>
+      <c r="L71">
+        <v>71</v>
+      </c>
+      <c r="N71">
+        <v>16088</v>
+      </c>
+      <c r="O71">
+        <v>14487</v>
+      </c>
+      <c r="P71">
+        <v>1601</v>
+      </c>
+      <c r="Q71">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>10908</v>
       </c>
@@ -2714,8 +4420,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C72),D72)</f>
         <v>237.74649670590398</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I72">
+        <v>10839</v>
+      </c>
+      <c r="J72">
+        <v>9903</v>
+      </c>
+      <c r="K72">
+        <v>936</v>
+      </c>
+      <c r="L72">
+        <v>72</v>
+      </c>
+      <c r="N72">
+        <v>12947</v>
+      </c>
+      <c r="O72">
+        <v>13129</v>
+      </c>
+      <c r="P72">
+        <v>-182</v>
+      </c>
+      <c r="Q72">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>11315</v>
       </c>
@@ -2740,8 +4470,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C73),D73)</f>
         <v>234.37748244439163</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I73">
+        <v>12763</v>
+      </c>
+      <c r="J73">
+        <v>11415</v>
+      </c>
+      <c r="K73">
+        <v>1348</v>
+      </c>
+      <c r="L73">
+        <v>73</v>
+      </c>
+      <c r="N73">
+        <v>9462</v>
+      </c>
+      <c r="O73">
+        <v>8108</v>
+      </c>
+      <c r="P73">
+        <v>1354</v>
+      </c>
+      <c r="Q73">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>12974</v>
       </c>
@@ -2766,8 +4520,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C74),D74)</f>
         <v>231.30520212569266</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I74">
+        <v>13207</v>
+      </c>
+      <c r="J74">
+        <v>13855</v>
+      </c>
+      <c r="K74">
+        <v>-648</v>
+      </c>
+      <c r="L74">
+        <v>74</v>
+      </c>
+      <c r="N74">
+        <v>13712</v>
+      </c>
+      <c r="O74">
+        <v>11241</v>
+      </c>
+      <c r="P74">
+        <v>2471</v>
+      </c>
+      <c r="Q74">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>13771</v>
       </c>
@@ -2792,8 +4570,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C75),D75)</f>
         <v>228.16374990809513</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I75">
+        <v>12147</v>
+      </c>
+      <c r="J75">
+        <v>12008</v>
+      </c>
+      <c r="K75">
+        <v>139</v>
+      </c>
+      <c r="L75">
+        <v>75</v>
+      </c>
+      <c r="N75">
+        <v>13529</v>
+      </c>
+      <c r="O75">
+        <v>13146</v>
+      </c>
+      <c r="P75">
+        <v>383</v>
+      </c>
+      <c r="Q75">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>15347</v>
       </c>
@@ -2818,8 +4620,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C76),D76)</f>
         <v>225.14107513967576</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I76">
+        <v>16002</v>
+      </c>
+      <c r="J76">
+        <v>15090</v>
+      </c>
+      <c r="K76">
+        <v>912</v>
+      </c>
+      <c r="L76">
+        <v>76</v>
+      </c>
+      <c r="N76">
+        <v>13646</v>
+      </c>
+      <c r="O76">
+        <v>15116</v>
+      </c>
+      <c r="P76">
+        <v>-1470</v>
+      </c>
+      <c r="Q76">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>11626</v>
       </c>
@@ -2844,8 +4670,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C77),D77)</f>
         <v>222.12293722726105</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I77">
+        <v>11572</v>
+      </c>
+      <c r="J77">
+        <v>11500</v>
+      </c>
+      <c r="K77">
+        <v>72</v>
+      </c>
+      <c r="L77">
+        <v>77</v>
+      </c>
+      <c r="N77">
+        <v>15963</v>
+      </c>
+      <c r="O77">
+        <v>14593</v>
+      </c>
+      <c r="P77">
+        <v>1370</v>
+      </c>
+      <c r="Q77">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>12578</v>
       </c>
@@ -2870,8 +4720,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C78),D78)</f>
         <v>223.24046596297944</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I78">
+        <v>11815</v>
+      </c>
+      <c r="J78">
+        <v>10996</v>
+      </c>
+      <c r="K78">
+        <v>819</v>
+      </c>
+      <c r="L78">
+        <v>78</v>
+      </c>
+      <c r="N78">
+        <v>14540</v>
+      </c>
+      <c r="O78">
+        <v>12623</v>
+      </c>
+      <c r="P78">
+        <v>1917</v>
+      </c>
+      <c r="Q78">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>11009</v>
       </c>
@@ -2896,8 +4770,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C79),D79)</f>
         <v>222.78519993843918</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I79">
+        <v>12040</v>
+      </c>
+      <c r="J79">
+        <v>10319</v>
+      </c>
+      <c r="K79">
+        <v>1721</v>
+      </c>
+      <c r="L79">
+        <v>79</v>
+      </c>
+      <c r="N79">
+        <v>12058</v>
+      </c>
+      <c r="O79">
+        <v>13436</v>
+      </c>
+      <c r="P79">
+        <v>-1378</v>
+      </c>
+      <c r="Q79">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>17682</v>
       </c>
@@ -2922,8 +4820,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C80),D80)</f>
         <v>220.8976476968237</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I80">
+        <v>16991</v>
+      </c>
+      <c r="J80">
+        <v>16642</v>
+      </c>
+      <c r="K80">
+        <v>349</v>
+      </c>
+      <c r="L80">
+        <v>80</v>
+      </c>
+      <c r="N80">
+        <v>11912</v>
+      </c>
+      <c r="O80">
+        <v>12101</v>
+      </c>
+      <c r="P80">
+        <v>-189</v>
+      </c>
+      <c r="Q80">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>11955</v>
       </c>
@@ -2948,8 +4870,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C81),D81)</f>
         <v>218.30578512993981</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <v>12838</v>
+      </c>
+      <c r="J81">
+        <v>13295</v>
+      </c>
+      <c r="K81">
+        <v>-457</v>
+      </c>
+      <c r="L81">
+        <v>81</v>
+      </c>
+      <c r="N81">
+        <v>13499</v>
+      </c>
+      <c r="O81">
+        <v>11148</v>
+      </c>
+      <c r="P81">
+        <v>2351</v>
+      </c>
+      <c r="Q81">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>14256</v>
       </c>
@@ -2974,8 +4920,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C82),D82)</f>
         <v>215.56232416064017</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <v>13334</v>
+      </c>
+      <c r="J82">
+        <v>12723</v>
+      </c>
+      <c r="K82">
+        <v>611</v>
+      </c>
+      <c r="L82">
+        <v>82</v>
+      </c>
+      <c r="N82">
+        <v>13040</v>
+      </c>
+      <c r="O82">
+        <v>12052</v>
+      </c>
+      <c r="P82">
+        <v>988</v>
+      </c>
+      <c r="Q82">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>15566</v>
       </c>
@@ -3000,8 +4970,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C83),D83)</f>
         <v>213.65777026914162</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <v>13780</v>
+      </c>
+      <c r="J83">
+        <v>13127</v>
+      </c>
+      <c r="K83">
+        <v>653</v>
+      </c>
+      <c r="L83">
+        <v>83</v>
+      </c>
+      <c r="N83">
+        <v>12206</v>
+      </c>
+      <c r="O83">
+        <v>12352</v>
+      </c>
+      <c r="P83">
+        <v>-146</v>
+      </c>
+      <c r="Q83">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>12827</v>
       </c>
@@ -3026,8 +5020,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C84),D84)</f>
         <v>212.21221261310421</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <v>13469</v>
+      </c>
+      <c r="J84">
+        <v>12654</v>
+      </c>
+      <c r="K84">
+        <v>815</v>
+      </c>
+      <c r="L84">
+        <v>84</v>
+      </c>
+      <c r="N84">
+        <v>14832</v>
+      </c>
+      <c r="O84">
+        <v>15376</v>
+      </c>
+      <c r="P84">
+        <v>-544</v>
+      </c>
+      <c r="Q84">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>17286</v>
       </c>
@@ -3052,8 +5070,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C85),D85)</f>
         <v>209.69890017232888</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <v>16806</v>
+      </c>
+      <c r="J85">
+        <v>16002</v>
+      </c>
+      <c r="K85">
+        <v>804</v>
+      </c>
+      <c r="L85">
+        <v>85</v>
+      </c>
+      <c r="N85">
+        <v>16248</v>
+      </c>
+      <c r="O85">
+        <v>15459</v>
+      </c>
+      <c r="P85">
+        <v>789</v>
+      </c>
+      <c r="Q85">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>13539</v>
       </c>
@@ -3078,8 +5120,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C86),D86)</f>
         <v>207.98894018890041</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <v>13042</v>
+      </c>
+      <c r="J86">
+        <v>13285</v>
+      </c>
+      <c r="K86">
+        <v>-243</v>
+      </c>
+      <c r="L86">
+        <v>86</v>
+      </c>
+      <c r="N86">
+        <v>13987</v>
+      </c>
+      <c r="O86">
+        <v>14073</v>
+      </c>
+      <c r="P86">
+        <v>-86</v>
+      </c>
+      <c r="Q86">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>16610</v>
       </c>
@@ -3104,8 +5170,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C87),D87)</f>
         <v>207.60739000409455</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <v>16604</v>
+      </c>
+      <c r="J87">
+        <v>16455</v>
+      </c>
+      <c r="K87">
+        <v>149</v>
+      </c>
+      <c r="L87">
+        <v>87</v>
+      </c>
+      <c r="N87">
+        <v>14320</v>
+      </c>
+      <c r="O87">
+        <v>12628</v>
+      </c>
+      <c r="P87">
+        <v>1692</v>
+      </c>
+      <c r="Q87">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>13519</v>
       </c>
@@ -3130,8 +5220,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C88),D88)</f>
         <v>205.5613105382977</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <v>14766</v>
+      </c>
+      <c r="J88">
+        <v>12610</v>
+      </c>
+      <c r="K88">
+        <v>2156</v>
+      </c>
+      <c r="L88">
+        <v>88</v>
+      </c>
+      <c r="N88">
+        <v>15827</v>
+      </c>
+      <c r="O88">
+        <v>15613</v>
+      </c>
+      <c r="P88">
+        <v>214</v>
+      </c>
+      <c r="Q88">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>12459</v>
       </c>
@@ -3156,8 +5270,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C89),D89)</f>
         <v>203.27190546726945</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <v>11541</v>
+      </c>
+      <c r="J89">
+        <v>11708</v>
+      </c>
+      <c r="K89">
+        <v>-167</v>
+      </c>
+      <c r="L89">
+        <v>89</v>
+      </c>
+      <c r="N89">
+        <v>12888</v>
+      </c>
+      <c r="O89">
+        <v>12155</v>
+      </c>
+      <c r="P89">
+        <v>733</v>
+      </c>
+      <c r="Q89">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>17406</v>
       </c>
@@ -3182,8 +5320,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C90),D90)</f>
         <v>201.71674582901755</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <v>17618</v>
+      </c>
+      <c r="J90">
+        <v>17837</v>
+      </c>
+      <c r="K90">
+        <v>-219</v>
+      </c>
+      <c r="L90">
+        <v>90</v>
+      </c>
+      <c r="N90">
+        <v>13842</v>
+      </c>
+      <c r="O90">
+        <v>12011</v>
+      </c>
+      <c r="P90">
+        <v>1831</v>
+      </c>
+      <c r="Q90">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>13501</v>
       </c>
@@ -3208,8 +5370,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C91),D91)</f>
         <v>199.67284540876122</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I91">
+        <v>11866</v>
+      </c>
+      <c r="J91">
+        <v>10849</v>
+      </c>
+      <c r="K91">
+        <v>1017</v>
+      </c>
+      <c r="L91">
+        <v>91</v>
+      </c>
+      <c r="N91">
+        <v>16537</v>
+      </c>
+      <c r="O91">
+        <v>15806</v>
+      </c>
+      <c r="P91">
+        <v>731</v>
+      </c>
+      <c r="Q91">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>14531</v>
       </c>
@@ -3234,8 +5420,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C92),D92)</f>
         <v>197.92655423171757</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I92">
+        <v>15100</v>
+      </c>
+      <c r="J92">
+        <v>13392</v>
+      </c>
+      <c r="K92">
+        <v>1708</v>
+      </c>
+      <c r="L92">
+        <v>92</v>
+      </c>
+      <c r="N92">
+        <v>12324</v>
+      </c>
+      <c r="O92">
+        <v>12169</v>
+      </c>
+      <c r="P92">
+        <v>155</v>
+      </c>
+      <c r="Q92">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>13382</v>
       </c>
@@ -3260,8 +5470,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C93),D93)</f>
         <v>197.59188211944411</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <v>12554</v>
+      </c>
+      <c r="J93">
+        <v>12757</v>
+      </c>
+      <c r="K93">
+        <v>-203</v>
+      </c>
+      <c r="L93">
+        <v>93</v>
+      </c>
+      <c r="N93">
+        <v>16669</v>
+      </c>
+      <c r="O93">
+        <v>16456</v>
+      </c>
+      <c r="P93">
+        <v>213</v>
+      </c>
+      <c r="Q93">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>10131</v>
       </c>
@@ -3286,8 +5520,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C94),D94)</f>
         <v>196.05806334336532</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I94">
+        <v>11345</v>
+      </c>
+      <c r="J94">
+        <v>11821</v>
+      </c>
+      <c r="K94">
+        <v>-476</v>
+      </c>
+      <c r="L94">
+        <v>94</v>
+      </c>
+      <c r="N94">
+        <v>9697</v>
+      </c>
+      <c r="O94">
+        <v>7104</v>
+      </c>
+      <c r="P94">
+        <v>2593</v>
+      </c>
+      <c r="Q94">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>10697</v>
       </c>
@@ -3312,8 +5570,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C95),D95)</f>
         <v>194.52430070988342</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <v>11243</v>
+      </c>
+      <c r="J95">
+        <v>10012</v>
+      </c>
+      <c r="K95">
+        <v>1231</v>
+      </c>
+      <c r="L95">
+        <v>95</v>
+      </c>
+      <c r="N95">
+        <v>14194</v>
+      </c>
+      <c r="O95">
+        <v>10857</v>
+      </c>
+      <c r="P95">
+        <v>3337</v>
+      </c>
+      <c r="Q95">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>15333</v>
       </c>
@@ -3338,8 +5620,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C96),D96)</f>
         <v>194.83254844286279</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I96">
+        <v>14550</v>
+      </c>
+      <c r="J96">
+        <v>15297</v>
+      </c>
+      <c r="K96">
+        <v>-747</v>
+      </c>
+      <c r="L96">
+        <v>96</v>
+      </c>
+      <c r="N96">
+        <v>15195</v>
+      </c>
+      <c r="O96">
+        <v>13193</v>
+      </c>
+      <c r="P96">
+        <v>2002</v>
+      </c>
+      <c r="Q96">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>14304</v>
       </c>
@@ -3364,8 +5670,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C97),D97)</f>
         <v>193.59281010505725</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I97">
+        <v>14203</v>
+      </c>
+      <c r="J97">
+        <v>13936</v>
+      </c>
+      <c r="K97">
+        <v>267</v>
+      </c>
+      <c r="L97">
+        <v>97</v>
+      </c>
+      <c r="N97">
+        <v>15237</v>
+      </c>
+      <c r="O97">
+        <v>15121</v>
+      </c>
+      <c r="P97">
+        <v>116</v>
+      </c>
+      <c r="Q97">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>16221</v>
       </c>
@@ -3390,8 +5720,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C98),D98)</f>
         <v>191.84997841366621</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I98">
+        <v>14467</v>
+      </c>
+      <c r="J98">
+        <v>15252</v>
+      </c>
+      <c r="K98">
+        <v>-785</v>
+      </c>
+      <c r="L98">
+        <v>98</v>
+      </c>
+      <c r="N98">
+        <v>13597</v>
+      </c>
+      <c r="O98">
+        <v>12914</v>
+      </c>
+      <c r="P98">
+        <v>683</v>
+      </c>
+      <c r="Q98">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>11918</v>
       </c>
@@ -3416,8 +5770,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C99),D99)</f>
         <v>192.68604527731495</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <v>11096</v>
+      </c>
+      <c r="J99">
+        <v>11990</v>
+      </c>
+      <c r="K99">
+        <v>-894</v>
+      </c>
+      <c r="L99">
+        <v>99</v>
+      </c>
+      <c r="N99">
+        <v>6948</v>
+      </c>
+      <c r="O99">
+        <v>6858</v>
+      </c>
+      <c r="P99">
+        <v>90</v>
+      </c>
+      <c r="Q99">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>14283</v>
       </c>
@@ -3442,8 +5820,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C100),D100)</f>
         <v>191.54296368444264</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <v>13218</v>
+      </c>
+      <c r="J100">
+        <v>11570</v>
+      </c>
+      <c r="K100">
+        <v>1648</v>
+      </c>
+      <c r="L100">
+        <v>100</v>
+      </c>
+      <c r="N100">
+        <v>11852</v>
+      </c>
+      <c r="O100">
+        <v>10366</v>
+      </c>
+      <c r="P100">
+        <v>1486</v>
+      </c>
+      <c r="Q100">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>10976</v>
       </c>
@@ -3468,8 +5870,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C101),D101)</f>
         <v>189.64494609606786</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I101">
+        <v>10845</v>
+      </c>
+      <c r="J101">
+        <v>10315</v>
+      </c>
+      <c r="K101">
+        <v>530</v>
+      </c>
+      <c r="L101">
+        <v>101</v>
+      </c>
+      <c r="N101">
+        <v>16686</v>
+      </c>
+      <c r="O101">
+        <v>16416</v>
+      </c>
+      <c r="P101">
+        <v>270</v>
+      </c>
+      <c r="Q101">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>16630</v>
       </c>
@@ -3494,8 +5920,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C102),D102)</f>
         <v>190.52323090144486</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I102">
+        <v>16281</v>
+      </c>
+      <c r="J102">
+        <v>16611</v>
+      </c>
+      <c r="K102">
+        <v>-330</v>
+      </c>
+      <c r="L102">
+        <v>102</v>
+      </c>
+      <c r="N102">
+        <v>10336</v>
+      </c>
+      <c r="O102">
+        <v>10329</v>
+      </c>
+      <c r="P102">
+        <v>7</v>
+      </c>
+      <c r="Q102">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>12912</v>
       </c>
@@ -3520,8 +5970,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C103),D103)</f>
         <v>191.05180336554338</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I103">
+        <v>14842</v>
+      </c>
+      <c r="J103">
+        <v>15376</v>
+      </c>
+      <c r="K103">
+        <v>-534</v>
+      </c>
+      <c r="L103">
+        <v>103</v>
+      </c>
+      <c r="N103">
+        <v>17319</v>
+      </c>
+      <c r="O103">
+        <v>18432</v>
+      </c>
+      <c r="P103">
+        <v>-1113</v>
+      </c>
+      <c r="Q103">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>11692</v>
       </c>
@@ -3546,8 +6020,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C104),D104)</f>
         <v>189.76703804193343</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I104">
+        <v>12095</v>
+      </c>
+      <c r="J104">
+        <v>10339</v>
+      </c>
+      <c r="K104">
+        <v>1756</v>
+      </c>
+      <c r="L104">
+        <v>104</v>
+      </c>
+      <c r="N104">
+        <v>13370</v>
+      </c>
+      <c r="O104">
+        <v>12396</v>
+      </c>
+      <c r="P104">
+        <v>974</v>
+      </c>
+      <c r="Q104">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>12368</v>
       </c>
@@ -3572,8 +6070,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C105),D105)</f>
         <v>188.08272692608267</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I105">
+        <v>12230</v>
+      </c>
+      <c r="J105">
+        <v>12882</v>
+      </c>
+      <c r="K105">
+        <v>-652</v>
+      </c>
+      <c r="L105">
+        <v>105</v>
+      </c>
+      <c r="N105">
+        <v>14862</v>
+      </c>
+      <c r="O105">
+        <v>14333</v>
+      </c>
+      <c r="P105">
+        <v>529</v>
+      </c>
+      <c r="Q105">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>19889</v>
       </c>
@@ -3598,8 +6120,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C106),D106)</f>
         <v>186.46798513504427</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I106">
+        <v>19709</v>
+      </c>
+      <c r="J106">
+        <v>19320</v>
+      </c>
+      <c r="K106">
+        <v>389</v>
+      </c>
+      <c r="L106">
+        <v>106</v>
+      </c>
+      <c r="N106">
+        <v>13357</v>
+      </c>
+      <c r="O106">
+        <v>11339</v>
+      </c>
+      <c r="P106">
+        <v>2018</v>
+      </c>
+      <c r="Q106">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>8937</v>
       </c>
@@ -3624,8 +6170,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C107),D107)</f>
         <v>185.96500033124801</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I107">
+        <v>10309</v>
+      </c>
+      <c r="J107">
+        <v>9222</v>
+      </c>
+      <c r="K107">
+        <v>1087</v>
+      </c>
+      <c r="L107">
+        <v>107</v>
+      </c>
+      <c r="N107">
+        <v>14348</v>
+      </c>
+      <c r="O107">
+        <v>12769</v>
+      </c>
+      <c r="P107">
+        <v>1579</v>
+      </c>
+      <c r="Q107">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>10970</v>
       </c>
@@ -3650,8 +6220,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C108),D108)</f>
         <v>187.44682214683326</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I108">
+        <v>10419</v>
+      </c>
+      <c r="J108">
+        <v>10011</v>
+      </c>
+      <c r="K108">
+        <v>408</v>
+      </c>
+      <c r="L108">
+        <v>108</v>
+      </c>
+      <c r="N108">
+        <v>9154</v>
+      </c>
+      <c r="O108">
+        <v>7185</v>
+      </c>
+      <c r="P108">
+        <v>1969</v>
+      </c>
+      <c r="Q108">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>12132</v>
       </c>
@@ -3676,8 +6270,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C109),D109)</f>
         <v>187.45202300848686</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I109">
+        <v>11586</v>
+      </c>
+      <c r="J109">
+        <v>12065</v>
+      </c>
+      <c r="K109">
+        <v>-479</v>
+      </c>
+      <c r="L109">
+        <v>109</v>
+      </c>
+      <c r="N109">
+        <v>13424</v>
+      </c>
+      <c r="O109">
+        <v>12956</v>
+      </c>
+      <c r="P109">
+        <v>468</v>
+      </c>
+      <c r="Q109">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>10626</v>
       </c>
@@ -3702,8 +6320,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C110),D110)</f>
         <v>187.9035624645731</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I110">
+        <v>8829</v>
+      </c>
+      <c r="J110">
+        <v>8965</v>
+      </c>
+      <c r="K110">
+        <v>-136</v>
+      </c>
+      <c r="L110">
+        <v>110</v>
+      </c>
+      <c r="N110">
+        <v>12864</v>
+      </c>
+      <c r="O110">
+        <v>13587</v>
+      </c>
+      <c r="P110">
+        <v>-723</v>
+      </c>
+      <c r="Q110">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>16973</v>
       </c>
@@ -3728,8 +6370,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C111),D111)</f>
         <v>186.39178517541512</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I111">
+        <v>17789</v>
+      </c>
+      <c r="J111">
+        <v>16518</v>
+      </c>
+      <c r="K111">
+        <v>1271</v>
+      </c>
+      <c r="L111">
+        <v>111</v>
+      </c>
+      <c r="N111">
+        <v>9825</v>
+      </c>
+      <c r="O111">
+        <v>8885</v>
+      </c>
+      <c r="P111">
+        <v>940</v>
+      </c>
+      <c r="Q111">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>14422</v>
       </c>
@@ -3754,8 +6420,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C112),D112)</f>
         <v>185.66341569496655</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I112">
+        <v>13148</v>
+      </c>
+      <c r="J112">
+        <v>11633</v>
+      </c>
+      <c r="K112">
+        <v>1515</v>
+      </c>
+      <c r="L112">
+        <v>112</v>
+      </c>
+      <c r="N112">
+        <v>11757</v>
+      </c>
+      <c r="O112">
+        <v>10623</v>
+      </c>
+      <c r="P112">
+        <v>1134</v>
+      </c>
+      <c r="Q112">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>15882</v>
       </c>
@@ -3780,8 +6470,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C113),D113)</f>
         <v>184.64934640203276</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I113">
+        <v>16178</v>
+      </c>
+      <c r="J113">
+        <v>14684</v>
+      </c>
+      <c r="K113">
+        <v>1494</v>
+      </c>
+      <c r="L113">
+        <v>113</v>
+      </c>
+      <c r="N113">
+        <v>13835</v>
+      </c>
+      <c r="O113">
+        <v>13668</v>
+      </c>
+      <c r="P113">
+        <v>167</v>
+      </c>
+      <c r="Q113">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>18907</v>
       </c>
@@ -3806,8 +6520,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C114),D114)</f>
         <v>183.12672450017399</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I114">
+        <v>18060</v>
+      </c>
+      <c r="J114">
+        <v>17931</v>
+      </c>
+      <c r="K114">
+        <v>129</v>
+      </c>
+      <c r="L114">
+        <v>114</v>
+      </c>
+      <c r="N114">
+        <v>10284</v>
+      </c>
+      <c r="O114">
+        <v>8713</v>
+      </c>
+      <c r="P114">
+        <v>1571</v>
+      </c>
+      <c r="Q114">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>17530</v>
       </c>
@@ -3832,8 +6570,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C115),D115)</f>
         <v>181.96903533952758</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I115">
+        <v>17397</v>
+      </c>
+      <c r="J115">
+        <v>17680</v>
+      </c>
+      <c r="K115">
+        <v>-283</v>
+      </c>
+      <c r="L115">
+        <v>115</v>
+      </c>
+      <c r="N115">
+        <v>14757</v>
+      </c>
+      <c r="O115">
+        <v>14995</v>
+      </c>
+      <c r="P115">
+        <v>-238</v>
+      </c>
+      <c r="Q115">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>15584</v>
       </c>
@@ -3858,8 +6620,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C116),D116)</f>
         <v>181.40718221436885</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I116">
+        <v>15924</v>
+      </c>
+      <c r="J116">
+        <v>15852</v>
+      </c>
+      <c r="K116">
+        <v>72</v>
+      </c>
+      <c r="L116">
+        <v>116</v>
+      </c>
+      <c r="N116">
+        <v>16030</v>
+      </c>
+      <c r="O116">
+        <v>14739</v>
+      </c>
+      <c r="P116">
+        <v>1291</v>
+      </c>
+      <c r="Q116">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>13349</v>
       </c>
@@ -3884,8 +6670,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C117),D117)</f>
         <v>180.97074477513155</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I117">
+        <v>12660</v>
+      </c>
+      <c r="J117">
+        <v>12260</v>
+      </c>
+      <c r="K117">
+        <v>400</v>
+      </c>
+      <c r="L117">
+        <v>117</v>
+      </c>
+      <c r="N117">
+        <v>14438</v>
+      </c>
+      <c r="O117">
+        <v>12865</v>
+      </c>
+      <c r="P117">
+        <v>1573</v>
+      </c>
+      <c r="Q117">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>15383</v>
       </c>
@@ -3910,8 +6720,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C118),D118)</f>
         <v>179.9609535222227</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I118">
+        <v>17334</v>
+      </c>
+      <c r="J118">
+        <v>16984</v>
+      </c>
+      <c r="K118">
+        <v>350</v>
+      </c>
+      <c r="L118">
+        <v>118</v>
+      </c>
+      <c r="N118">
+        <v>14122</v>
+      </c>
+      <c r="O118">
+        <v>14335</v>
+      </c>
+      <c r="P118">
+        <v>-213</v>
+      </c>
+      <c r="Q118">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>10746</v>
       </c>
@@ -3936,8 +6770,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C119),D119)</f>
         <v>178.97132091892658</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I119">
+        <v>9372</v>
+      </c>
+      <c r="J119">
+        <v>9268</v>
+      </c>
+      <c r="K119">
+        <v>104</v>
+      </c>
+      <c r="L119">
+        <v>119</v>
+      </c>
+      <c r="N119">
+        <v>11015</v>
+      </c>
+      <c r="O119">
+        <v>10657</v>
+      </c>
+      <c r="P119">
+        <v>358</v>
+      </c>
+      <c r="Q119">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>12842</v>
       </c>
@@ -3962,8 +6820,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C120),D120)</f>
         <v>177.46262951265754</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I120">
+        <v>12864</v>
+      </c>
+      <c r="J120">
+        <v>12380</v>
+      </c>
+      <c r="K120">
+        <v>484</v>
+      </c>
+      <c r="L120">
+        <v>120</v>
+      </c>
+      <c r="N120">
+        <v>10622</v>
+      </c>
+      <c r="O120">
+        <v>10657</v>
+      </c>
+      <c r="P120">
+        <v>-35</v>
+      </c>
+      <c r="Q120">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>10963</v>
       </c>
@@ -3988,8 +6870,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C121),D121)</f>
         <v>176.51385535666697</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I121">
+        <v>7749</v>
+      </c>
+      <c r="J121">
+        <v>7779</v>
+      </c>
+      <c r="K121">
+        <v>-30</v>
+      </c>
+      <c r="L121">
+        <v>121</v>
+      </c>
+      <c r="N121">
+        <v>12409</v>
+      </c>
+      <c r="O121">
+        <v>11507</v>
+      </c>
+      <c r="P121">
+        <v>902</v>
+      </c>
+      <c r="Q121">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>8345</v>
       </c>
@@ -4014,8 +6920,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C122),D122)</f>
         <v>175.2165154818039</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I122">
+        <v>9136</v>
+      </c>
+      <c r="J122">
+        <v>8436</v>
+      </c>
+      <c r="K122">
+        <v>700</v>
+      </c>
+      <c r="L122">
+        <v>122</v>
+      </c>
+      <c r="N122">
+        <v>14030</v>
+      </c>
+      <c r="O122">
+        <v>13780</v>
+      </c>
+      <c r="P122">
+        <v>250</v>
+      </c>
+      <c r="Q122">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>14968</v>
       </c>
@@ -4040,8 +6970,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C123),D123)</f>
         <v>173.80504393203316</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I123">
+        <v>15258</v>
+      </c>
+      <c r="J123">
+        <v>14750</v>
+      </c>
+      <c r="K123">
+        <v>508</v>
+      </c>
+      <c r="L123">
+        <v>123</v>
+      </c>
+      <c r="N123">
+        <v>14328</v>
+      </c>
+      <c r="O123">
+        <v>14774</v>
+      </c>
+      <c r="P123">
+        <v>-446</v>
+      </c>
+      <c r="Q123">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>13513</v>
       </c>
@@ -4066,8 +7020,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C124),D124)</f>
         <v>174.63957062948128</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I124">
+        <v>14334</v>
+      </c>
+      <c r="J124">
+        <v>14713</v>
+      </c>
+      <c r="K124">
+        <v>-379</v>
+      </c>
+      <c r="L124">
+        <v>124</v>
+      </c>
+      <c r="N124">
+        <v>11406</v>
+      </c>
+      <c r="O124">
+        <v>13628</v>
+      </c>
+      <c r="P124">
+        <v>-2222</v>
+      </c>
+      <c r="Q124">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>3530</v>
       </c>
@@ -4092,8 +7070,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C125),D125)</f>
         <v>182.68324796881191</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I125">
+        <v>6104</v>
+      </c>
+      <c r="J125">
+        <v>4258</v>
+      </c>
+      <c r="K125">
+        <v>1846</v>
+      </c>
+      <c r="L125">
+        <v>125</v>
+      </c>
+      <c r="N125">
+        <v>14257</v>
+      </c>
+      <c r="O125">
+        <v>13884</v>
+      </c>
+      <c r="P125">
+        <v>373</v>
+      </c>
+      <c r="Q125">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>11009</v>
       </c>
@@ -4118,8 +7120,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C126),D126)</f>
         <v>181.47821307085312</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I126">
+        <v>11279</v>
+      </c>
+      <c r="J126">
+        <v>11066</v>
+      </c>
+      <c r="K126">
+        <v>213</v>
+      </c>
+      <c r="L126">
+        <v>126</v>
+      </c>
+      <c r="N126">
+        <v>13785</v>
+      </c>
+      <c r="O126">
+        <v>11112</v>
+      </c>
+      <c r="P126">
+        <v>2673</v>
+      </c>
+      <c r="Q126">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>17535</v>
       </c>
@@ -4144,8 +7170,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C127),D127)</f>
         <v>180.22448623211801</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I127">
+        <v>17709</v>
+      </c>
+      <c r="J127">
+        <v>17146</v>
+      </c>
+      <c r="K127">
+        <v>563</v>
+      </c>
+      <c r="L127">
+        <v>127</v>
+      </c>
+      <c r="N127">
+        <v>14104</v>
+      </c>
+      <c r="O127">
+        <v>14041</v>
+      </c>
+      <c r="P127">
+        <v>63</v>
+      </c>
+      <c r="Q127">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>13083</v>
       </c>
@@ -4170,8 +7220,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C128),D128)</f>
         <v>178.95603782723035</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I128">
+        <v>13442</v>
+      </c>
+      <c r="J128">
+        <v>12598</v>
+      </c>
+      <c r="K128">
+        <v>844</v>
+      </c>
+      <c r="L128">
+        <v>128</v>
+      </c>
+      <c r="N128">
+        <v>15931</v>
+      </c>
+      <c r="O128">
+        <v>14627</v>
+      </c>
+      <c r="P128">
+        <v>1304</v>
+      </c>
+      <c r="Q128">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>13035</v>
       </c>
@@ -4196,8 +7270,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C129),D129)</f>
         <v>177.55806429856349</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I129">
+        <v>13401</v>
+      </c>
+      <c r="J129">
+        <v>13243</v>
+      </c>
+      <c r="K129">
+        <v>158</v>
+      </c>
+      <c r="L129">
+        <v>129</v>
+      </c>
+      <c r="N129">
+        <v>10917</v>
+      </c>
+      <c r="O129">
+        <v>10648</v>
+      </c>
+      <c r="P129">
+        <v>269</v>
+      </c>
+      <c r="Q129">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>13803</v>
       </c>
@@ -4222,8 +7320,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C130),D130)</f>
         <v>181.99542833910863</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I130">
+        <v>14104</v>
+      </c>
+      <c r="J130">
+        <v>13951</v>
+      </c>
+      <c r="K130">
+        <v>153</v>
+      </c>
+      <c r="L130">
+        <v>130</v>
+      </c>
+      <c r="N130">
+        <v>11573</v>
+      </c>
+      <c r="O130">
+        <v>12073</v>
+      </c>
+      <c r="P130">
+        <v>-500</v>
+      </c>
+      <c r="Q130">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>12185</v>
       </c>
@@ -4248,8 +7370,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C131),D131)</f>
         <v>180.84943333654698</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I131">
+        <v>12511</v>
+      </c>
+      <c r="J131">
+        <v>11343</v>
+      </c>
+      <c r="K131">
+        <v>1168</v>
+      </c>
+      <c r="L131">
+        <v>131</v>
+      </c>
+      <c r="N131">
+        <v>15690</v>
+      </c>
+      <c r="O131">
+        <v>14722</v>
+      </c>
+      <c r="P131">
+        <v>968</v>
+      </c>
+      <c r="Q131">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>16040</v>
       </c>
@@ -4274,8 +7420,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C132),D132)</f>
         <v>179.57834552144186</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I132">
+        <v>16485</v>
+      </c>
+      <c r="J132">
+        <v>16307</v>
+      </c>
+      <c r="K132">
+        <v>178</v>
+      </c>
+      <c r="L132">
+        <v>132</v>
+      </c>
+      <c r="N132">
+        <v>8745</v>
+      </c>
+      <c r="O132">
+        <v>9249</v>
+      </c>
+      <c r="P132">
+        <v>-504</v>
+      </c>
+      <c r="Q132">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>13396</v>
       </c>
@@ -4300,8 +7470,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C133),D133)</f>
         <v>178.67756750444545</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I133">
+        <v>13683</v>
+      </c>
+      <c r="J133">
+        <v>12529</v>
+      </c>
+      <c r="K133">
+        <v>1154</v>
+      </c>
+      <c r="L133">
+        <v>133</v>
+      </c>
+      <c r="N133">
+        <v>11377</v>
+      </c>
+      <c r="O133">
+        <v>11124</v>
+      </c>
+      <c r="P133">
+        <v>253</v>
+      </c>
+      <c r="Q133">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>13113</v>
       </c>
@@ -4326,8 +7520,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C134),D134)</f>
         <v>177.55859402078866</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I134">
+        <v>13344</v>
+      </c>
+      <c r="J134">
+        <v>13829</v>
+      </c>
+      <c r="K134">
+        <v>-485</v>
+      </c>
+      <c r="L134">
+        <v>134</v>
+      </c>
+      <c r="N134">
+        <v>17731</v>
+      </c>
+      <c r="O134">
+        <v>16849</v>
+      </c>
+      <c r="P134">
+        <v>882</v>
+      </c>
+      <c r="Q134">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>15196</v>
       </c>
@@ -4352,8 +7570,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C135),D135)</f>
         <v>176.74789901347907</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I135">
+        <v>14390</v>
+      </c>
+      <c r="J135">
+        <v>14448</v>
+      </c>
+      <c r="K135">
+        <v>-58</v>
+      </c>
+      <c r="L135">
+        <v>135</v>
+      </c>
+      <c r="N135">
+        <v>13597</v>
+      </c>
+      <c r="O135">
+        <v>13192</v>
+      </c>
+      <c r="P135">
+        <v>405</v>
+      </c>
+      <c r="Q135">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>9394</v>
       </c>
@@ -4378,8 +7620,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C136),D136)</f>
         <v>175.42924410419525</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I136">
+        <v>11114</v>
+      </c>
+      <c r="J136">
+        <v>11025</v>
+      </c>
+      <c r="K136">
+        <v>89</v>
+      </c>
+      <c r="L136">
+        <v>136</v>
+      </c>
+      <c r="N136">
+        <v>11648</v>
+      </c>
+      <c r="O136">
+        <v>12370</v>
+      </c>
+      <c r="P136">
+        <v>-722</v>
+      </c>
+      <c r="Q136">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>10668</v>
       </c>
@@ -4404,8 +7670,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C137),D137)</f>
         <v>174.24703333697073</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I137">
+        <v>12117</v>
+      </c>
+      <c r="J137">
+        <v>11623</v>
+      </c>
+      <c r="K137">
+        <v>494</v>
+      </c>
+      <c r="L137">
+        <v>137</v>
+      </c>
+      <c r="N137">
+        <v>12242</v>
+      </c>
+      <c r="O137">
+        <v>12425</v>
+      </c>
+      <c r="P137">
+        <v>-183</v>
+      </c>
+      <c r="Q137">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>12950</v>
       </c>
@@ -4430,8 +7720,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C138),D138)</f>
         <v>173.36139019590186</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I138">
+        <v>12734</v>
+      </c>
+      <c r="J138">
+        <v>12716</v>
+      </c>
+      <c r="K138">
+        <v>18</v>
+      </c>
+      <c r="L138">
+        <v>138</v>
+      </c>
+      <c r="N138">
+        <v>11692</v>
+      </c>
+      <c r="O138">
+        <v>11199</v>
+      </c>
+      <c r="P138">
+        <v>493</v>
+      </c>
+      <c r="Q138">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>12343</v>
       </c>
@@ -4456,8 +7770,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C139),D139)</f>
         <v>172.16849153484543</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I139">
+        <v>13845</v>
+      </c>
+      <c r="J139">
+        <v>13221</v>
+      </c>
+      <c r="K139">
+        <v>624</v>
+      </c>
+      <c r="L139">
+        <v>139</v>
+      </c>
+      <c r="N139">
+        <v>4678</v>
+      </c>
+      <c r="O139">
+        <v>6404</v>
+      </c>
+      <c r="P139">
+        <v>-1726</v>
+      </c>
+      <c r="Q139">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>14981</v>
       </c>
@@ -4482,8 +7820,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C140),D140)</f>
         <v>171.00505792746512</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I140">
+        <v>16065</v>
+      </c>
+      <c r="J140">
+        <v>16001</v>
+      </c>
+      <c r="K140">
+        <v>64</v>
+      </c>
+      <c r="L140">
+        <v>140</v>
+      </c>
+      <c r="N140">
+        <v>13699</v>
+      </c>
+      <c r="O140">
+        <v>13172</v>
+      </c>
+      <c r="P140">
+        <v>527</v>
+      </c>
+      <c r="Q140">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>15548</v>
       </c>
@@ -4508,8 +7870,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C141),D141)</f>
         <v>170.11752046149644</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I141">
+        <v>15630</v>
+      </c>
+      <c r="J141">
+        <v>15072</v>
+      </c>
+      <c r="K141">
+        <v>558</v>
+      </c>
+      <c r="L141">
+        <v>141</v>
+      </c>
+      <c r="N141">
+        <v>16929</v>
+      </c>
+      <c r="O141">
+        <v>15258</v>
+      </c>
+      <c r="P141">
+        <v>1671</v>
+      </c>
+      <c r="Q141">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>13054</v>
       </c>
@@ -4534,8 +7920,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C142),D142)</f>
         <v>169.15811679167624</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I142">
+        <v>11578</v>
+      </c>
+      <c r="J142">
+        <v>12078</v>
+      </c>
+      <c r="K142">
+        <v>-500</v>
+      </c>
+      <c r="L142">
+        <v>142</v>
+      </c>
+      <c r="N142">
+        <v>13137</v>
+      </c>
+      <c r="O142">
+        <v>12864</v>
+      </c>
+      <c r="P142">
+        <v>273</v>
+      </c>
+      <c r="Q142">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>13638</v>
       </c>
@@ -4560,8 +7970,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C143),D143)</f>
         <v>168.23404508896124</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I143">
+        <v>14529</v>
+      </c>
+      <c r="J143">
+        <v>13554</v>
+      </c>
+      <c r="K143">
+        <v>975</v>
+      </c>
+      <c r="L143">
+        <v>143</v>
+      </c>
+      <c r="N143">
+        <v>11320</v>
+      </c>
+      <c r="O143">
+        <v>10907</v>
+      </c>
+      <c r="P143">
+        <v>413</v>
+      </c>
+      <c r="Q143">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>14999</v>
       </c>
@@ -4586,8 +8020,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C144),D144)</f>
         <v>167.18337331606241</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I144">
+        <v>14865</v>
+      </c>
+      <c r="J144">
+        <v>15064</v>
+      </c>
+      <c r="K144">
+        <v>-199</v>
+      </c>
+      <c r="L144">
+        <v>144</v>
+      </c>
+      <c r="N144">
+        <v>13259</v>
+      </c>
+      <c r="O144">
+        <v>13344</v>
+      </c>
+      <c r="P144">
+        <v>-85</v>
+      </c>
+      <c r="Q144">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>17091</v>
       </c>
@@ -4612,8 +8070,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C145),D145)</f>
         <v>166.06630750685258</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I145">
+        <v>15542</v>
+      </c>
+      <c r="J145">
+        <v>16321</v>
+      </c>
+      <c r="K145">
+        <v>-779</v>
+      </c>
+      <c r="L145">
+        <v>145</v>
+      </c>
+      <c r="N145">
+        <v>13213</v>
+      </c>
+      <c r="O145">
+        <v>12965</v>
+      </c>
+      <c r="P145">
+        <v>248</v>
+      </c>
+      <c r="Q145">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>16116</v>
       </c>
@@ -4638,8 +8120,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C146),D146)</f>
         <v>164.92983797220361</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I146">
+        <v>16338</v>
+      </c>
+      <c r="J146">
+        <v>16643</v>
+      </c>
+      <c r="K146">
+        <v>-305</v>
+      </c>
+      <c r="L146">
+        <v>146</v>
+      </c>
+      <c r="N146">
+        <v>15536</v>
+      </c>
+      <c r="O146">
+        <v>15122</v>
+      </c>
+      <c r="P146">
+        <v>414</v>
+      </c>
+      <c r="Q146">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>6692</v>
       </c>
@@ -4664,8 +8170,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C147),D147)</f>
         <v>164.32832807565021</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I147">
+        <v>6951</v>
+      </c>
+      <c r="J147">
+        <v>6181</v>
+      </c>
+      <c r="K147">
+        <v>770</v>
+      </c>
+      <c r="L147">
+        <v>147</v>
+      </c>
+      <c r="N147">
+        <v>16894</v>
+      </c>
+      <c r="O147">
+        <v>17287</v>
+      </c>
+      <c r="P147">
+        <v>-393</v>
+      </c>
+      <c r="Q147">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>11274</v>
       </c>
@@ -4690,8 +8220,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C148),D148)</f>
         <v>163.29834334856997</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I148">
+        <v>11264</v>
+      </c>
+      <c r="J148">
+        <v>10250</v>
+      </c>
+      <c r="K148">
+        <v>1014</v>
+      </c>
+      <c r="L148">
+        <v>148</v>
+      </c>
+      <c r="N148">
+        <v>15106</v>
+      </c>
+      <c r="O148">
+        <v>12754</v>
+      </c>
+      <c r="P148">
+        <v>2352</v>
+      </c>
+      <c r="Q148">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>11402</v>
       </c>
@@ -4716,8 +8270,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C149),D149)</f>
         <v>162.20469670032659</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I149">
+        <v>12838</v>
+      </c>
+      <c r="J149">
+        <v>11796</v>
+      </c>
+      <c r="K149">
+        <v>1042</v>
+      </c>
+      <c r="L149">
+        <v>149</v>
+      </c>
+      <c r="N149">
+        <v>14103</v>
+      </c>
+      <c r="O149">
+        <v>12693</v>
+      </c>
+      <c r="P149">
+        <v>1410</v>
+      </c>
+      <c r="Q149">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>17617</v>
       </c>
@@ -4742,8 +8320,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C150),D150)</f>
         <v>161.17350702223155</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I150">
+        <v>16826</v>
+      </c>
+      <c r="J150">
+        <v>17222</v>
+      </c>
+      <c r="K150">
+        <v>-396</v>
+      </c>
+      <c r="L150">
+        <v>150</v>
+      </c>
+      <c r="N150">
+        <v>13988</v>
+      </c>
+      <c r="O150">
+        <v>13859</v>
+      </c>
+      <c r="P150">
+        <v>129</v>
+      </c>
+      <c r="Q150">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>12377</v>
       </c>
@@ -4768,8 +8370,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C151),D151)</f>
         <v>160.10236553974499</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I151">
+        <v>12554</v>
+      </c>
+      <c r="J151">
+        <v>12245</v>
+      </c>
+      <c r="K151">
+        <v>309</v>
+      </c>
+      <c r="L151">
+        <v>151</v>
+      </c>
+      <c r="N151">
+        <v>11679</v>
+      </c>
+      <c r="O151">
+        <v>12374</v>
+      </c>
+      <c r="P151">
+        <v>-695</v>
+      </c>
+      <c r="Q151">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>13030</v>
       </c>
@@ -4794,8 +8420,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C152),D152)</f>
         <v>160.77610887725461</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I152">
+        <v>11586</v>
+      </c>
+      <c r="J152">
+        <v>11167</v>
+      </c>
+      <c r="K152">
+        <v>419</v>
+      </c>
+      <c r="L152">
+        <v>152</v>
+      </c>
+      <c r="N152">
+        <v>4933</v>
+      </c>
+      <c r="O152">
+        <v>5152</v>
+      </c>
+      <c r="P152">
+        <v>-219</v>
+      </c>
+      <c r="Q152">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>10937</v>
       </c>
@@ -4820,8 +8470,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C153),D153)</f>
         <v>160.55361473967847</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I153">
+        <v>10586</v>
+      </c>
+      <c r="J153">
+        <v>8867</v>
+      </c>
+      <c r="K153">
+        <v>1719</v>
+      </c>
+      <c r="L153">
+        <v>153</v>
+      </c>
+      <c r="N153">
+        <v>12498</v>
+      </c>
+      <c r="O153">
+        <v>10641</v>
+      </c>
+      <c r="P153">
+        <v>1857</v>
+      </c>
+      <c r="Q153">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>11180</v>
       </c>
@@ -4846,8 +8520,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C154),D154)</f>
         <v>159.71756909366027</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I154">
+        <v>10929</v>
+      </c>
+      <c r="J154">
+        <v>10949</v>
+      </c>
+      <c r="K154">
+        <v>-20</v>
+      </c>
+      <c r="L154">
+        <v>154</v>
+      </c>
+      <c r="N154">
+        <v>8792</v>
+      </c>
+      <c r="O154">
+        <v>9588</v>
+      </c>
+      <c r="P154">
+        <v>-796</v>
+      </c>
+      <c r="Q154">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>13976</v>
       </c>
@@ -4872,8 +8570,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C155),D155)</f>
         <v>158.71200158537258</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I155">
+        <v>13349</v>
+      </c>
+      <c r="J155">
+        <v>13140</v>
+      </c>
+      <c r="K155">
+        <v>209</v>
+      </c>
+      <c r="L155">
+        <v>155</v>
+      </c>
+      <c r="N155">
+        <v>15928</v>
+      </c>
+      <c r="O155">
+        <v>15034</v>
+      </c>
+      <c r="P155">
+        <v>894</v>
+      </c>
+      <c r="Q155">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>12753</v>
       </c>
@@ -4898,8 +8620,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C156),D156)</f>
         <v>157.99681560643538</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I156">
+        <v>11029</v>
+      </c>
+      <c r="J156">
+        <v>10569</v>
+      </c>
+      <c r="K156">
+        <v>460</v>
+      </c>
+      <c r="L156">
+        <v>156</v>
+      </c>
+      <c r="N156">
+        <v>14430</v>
+      </c>
+      <c r="O156">
+        <v>14146</v>
+      </c>
+      <c r="P156">
+        <v>284</v>
+      </c>
+      <c r="Q156">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>13530</v>
       </c>
@@ -4924,8 +8670,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C157),D157)</f>
         <v>157.03351314964547</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I157">
+        <v>12644</v>
+      </c>
+      <c r="J157">
+        <v>12740</v>
+      </c>
+      <c r="K157">
+        <v>-96</v>
+      </c>
+      <c r="L157">
+        <v>157</v>
+      </c>
+      <c r="N157">
+        <v>13519</v>
+      </c>
+      <c r="O157">
+        <v>12872</v>
+      </c>
+      <c r="P157">
+        <v>647</v>
+      </c>
+      <c r="Q157">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>16951</v>
       </c>
@@ -4950,8 +8720,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C158),D158)</f>
         <v>156.21526249696296</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I158">
+        <v>18029</v>
+      </c>
+      <c r="J158">
+        <v>16532</v>
+      </c>
+      <c r="K158">
+        <v>1497</v>
+      </c>
+      <c r="L158">
+        <v>158</v>
+      </c>
+      <c r="N158">
+        <v>8000</v>
+      </c>
+      <c r="O158">
+        <v>10385</v>
+      </c>
+      <c r="P158">
+        <v>-2385</v>
+      </c>
+      <c r="Q158">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>11461</v>
       </c>
@@ -4976,8 +8770,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C159),D159)</f>
         <v>156.29669978004281</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I159">
+        <v>12404</v>
+      </c>
+      <c r="J159">
+        <v>12426</v>
+      </c>
+      <c r="K159">
+        <v>-22</v>
+      </c>
+      <c r="L159">
+        <v>159</v>
+      </c>
+      <c r="N159">
+        <v>16678</v>
+      </c>
+      <c r="O159">
+        <v>15462</v>
+      </c>
+      <c r="P159">
+        <v>1216</v>
+      </c>
+      <c r="Q159">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>15204</v>
       </c>
@@ -5002,8 +8820,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C160),D160)</f>
         <v>155.65124849321336</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I160">
+        <v>13836</v>
+      </c>
+      <c r="J160">
+        <v>12969</v>
+      </c>
+      <c r="K160">
+        <v>867</v>
+      </c>
+      <c r="L160">
+        <v>160</v>
+      </c>
+      <c r="N160">
+        <v>12005</v>
+      </c>
+      <c r="O160">
+        <v>11922</v>
+      </c>
+      <c r="P160">
+        <v>83</v>
+      </c>
+      <c r="Q160">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>15373</v>
       </c>
@@ -5028,8 +8870,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C161),D161)</f>
         <v>154.78072438185799</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I161">
+        <v>15650</v>
+      </c>
+      <c r="J161">
+        <v>15282</v>
+      </c>
+      <c r="K161">
+        <v>368</v>
+      </c>
+      <c r="L161">
+        <v>161</v>
+      </c>
+      <c r="N161">
+        <v>16556</v>
+      </c>
+      <c r="O161">
+        <v>17045</v>
+      </c>
+      <c r="P161">
+        <v>-489</v>
+      </c>
+      <c r="Q161">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>15225</v>
       </c>
@@ -5054,8 +8920,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C162),D162)</f>
         <v>153.99090196220641</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I162">
+        <v>14235</v>
+      </c>
+      <c r="J162">
+        <v>13739</v>
+      </c>
+      <c r="K162">
+        <v>496</v>
+      </c>
+      <c r="L162">
+        <v>162</v>
+      </c>
+      <c r="N162">
+        <v>15054</v>
+      </c>
+      <c r="O162">
+        <v>14553</v>
+      </c>
+      <c r="P162">
+        <v>501</v>
+      </c>
+      <c r="Q162">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>14321</v>
       </c>
@@ -5080,8 +8970,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C163),D163)</f>
         <v>153.07723512234847</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I163">
+        <v>13926</v>
+      </c>
+      <c r="J163">
+        <v>13623</v>
+      </c>
+      <c r="K163">
+        <v>303</v>
+      </c>
+      <c r="L163">
+        <v>163</v>
+      </c>
+      <c r="N163">
+        <v>12841</v>
+      </c>
+      <c r="O163">
+        <v>13273</v>
+      </c>
+      <c r="P163">
+        <v>-432</v>
+      </c>
+      <c r="Q163">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>15332</v>
       </c>
@@ -5106,8 +9020,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C164),D164)</f>
         <v>152.32626093489407</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I164">
+        <v>15502</v>
+      </c>
+      <c r="J164">
+        <v>16931</v>
+      </c>
+      <c r="K164">
+        <v>-1429</v>
+      </c>
+      <c r="L164">
+        <v>164</v>
+      </c>
+      <c r="N164">
+        <v>14788</v>
+      </c>
+      <c r="O164">
+        <v>14081</v>
+      </c>
+      <c r="P164">
+        <v>707</v>
+      </c>
+      <c r="Q164">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>11999</v>
       </c>
@@ -5132,8 +9070,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C165),D165)</f>
         <v>152.35337794650218</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I165">
+        <v>11149</v>
+      </c>
+      <c r="J165">
+        <v>11740</v>
+      </c>
+      <c r="K165">
+        <v>-591</v>
+      </c>
+      <c r="L165">
+        <v>165</v>
+      </c>
+      <c r="N165">
+        <v>12628</v>
+      </c>
+      <c r="O165">
+        <v>12140</v>
+      </c>
+      <c r="P165">
+        <v>488</v>
+      </c>
+      <c r="Q165">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>14759</v>
       </c>
@@ -5158,8 +9120,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C166),D166)</f>
         <v>152.32876791121618</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I166">
+        <v>15268</v>
+      </c>
+      <c r="J166">
+        <v>13905</v>
+      </c>
+      <c r="K166">
+        <v>1363</v>
+      </c>
+      <c r="L166">
+        <v>166</v>
+      </c>
+      <c r="N166">
+        <v>14895</v>
+      </c>
+      <c r="O166">
+        <v>13333</v>
+      </c>
+      <c r="P166">
+        <v>1562</v>
+      </c>
+      <c r="Q166">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>12996</v>
       </c>
@@ -5184,8 +9170,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C167),D167)</f>
         <v>151.40345105562841</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I167">
+        <v>11277</v>
+      </c>
+      <c r="J167">
+        <v>11202</v>
+      </c>
+      <c r="K167">
+        <v>75</v>
+      </c>
+      <c r="L167">
+        <v>167</v>
+      </c>
+      <c r="N167">
+        <v>9902</v>
+      </c>
+      <c r="O167">
+        <v>9137</v>
+      </c>
+      <c r="P167">
+        <v>765</v>
+      </c>
+      <c r="Q167">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>17416</v>
       </c>
@@ -5210,8 +9220,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C168),D168)</f>
         <v>150.53138197919105</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I168">
+        <v>18010</v>
+      </c>
+      <c r="J168">
+        <v>17486</v>
+      </c>
+      <c r="K168">
+        <v>524</v>
+      </c>
+      <c r="L168">
+        <v>168</v>
+      </c>
+      <c r="N168">
+        <v>10281</v>
+      </c>
+      <c r="O168">
+        <v>8535</v>
+      </c>
+      <c r="P168">
+        <v>1746</v>
+      </c>
+      <c r="Q168">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>17564</v>
       </c>
@@ -5236,8 +9270,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C169),D169)</f>
         <v>149.66927414860098</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I169">
+        <v>18123</v>
+      </c>
+      <c r="J169">
+        <v>18311</v>
+      </c>
+      <c r="K169">
+        <v>-188</v>
+      </c>
+      <c r="L169">
+        <v>169</v>
+      </c>
+      <c r="N169">
+        <v>9193</v>
+      </c>
+      <c r="O169">
+        <v>8244</v>
+      </c>
+      <c r="P169">
+        <v>949</v>
+      </c>
+      <c r="Q169">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>11202</v>
       </c>
@@ -5262,8 +9320,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C170),D170)</f>
         <v>148.77752706481147</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I170">
+        <v>10736</v>
+      </c>
+      <c r="J170">
+        <v>10868</v>
+      </c>
+      <c r="K170">
+        <v>-132</v>
+      </c>
+      <c r="L170">
+        <v>170</v>
+      </c>
+      <c r="N170">
+        <v>15317</v>
+      </c>
+      <c r="O170">
+        <v>13999</v>
+      </c>
+      <c r="P170">
+        <v>1318</v>
+      </c>
+      <c r="Q170">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>15321</v>
       </c>
@@ -5288,8 +9370,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C171),D171)</f>
         <v>148.06338035475767</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I171">
+        <v>16032</v>
+      </c>
+      <c r="J171">
+        <v>15542</v>
+      </c>
+      <c r="K171">
+        <v>490</v>
+      </c>
+      <c r="L171">
+        <v>171</v>
+      </c>
+      <c r="N171">
+        <v>17117</v>
+      </c>
+      <c r="O171">
+        <v>14541</v>
+      </c>
+      <c r="P171">
+        <v>2576</v>
+      </c>
+      <c r="Q171">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>13104</v>
       </c>
@@ -5314,8 +9420,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C172),D172)</f>
         <v>147.84921635459656</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I172">
+        <v>12920</v>
+      </c>
+      <c r="J172">
+        <v>12831</v>
+      </c>
+      <c r="K172">
+        <v>89</v>
+      </c>
+      <c r="L172">
+        <v>172</v>
+      </c>
+      <c r="N172">
+        <v>13915</v>
+      </c>
+      <c r="O172">
+        <v>13605</v>
+      </c>
+      <c r="P172">
+        <v>310</v>
+      </c>
+      <c r="Q172">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>10901</v>
       </c>
@@ -5340,8 +9470,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C173),D173)</f>
         <v>147.78309491335833</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I173">
+        <v>11678</v>
+      </c>
+      <c r="J173">
+        <v>11365</v>
+      </c>
+      <c r="K173">
+        <v>313</v>
+      </c>
+      <c r="L173">
+        <v>173</v>
+      </c>
+      <c r="N173">
+        <v>12919</v>
+      </c>
+      <c r="O173">
+        <v>12385</v>
+      </c>
+      <c r="P173">
+        <v>534</v>
+      </c>
+      <c r="Q173">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>14302</v>
       </c>
@@ -5366,8 +9520,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C174),D174)</f>
         <v>146.92281522396243</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I174">
+        <v>15233</v>
+      </c>
+      <c r="J174">
+        <v>14004</v>
+      </c>
+      <c r="K174">
+        <v>1229</v>
+      </c>
+      <c r="L174">
+        <v>174</v>
+      </c>
+      <c r="N174">
+        <v>16671</v>
+      </c>
+      <c r="O174">
+        <v>16588</v>
+      </c>
+      <c r="P174">
+        <v>83</v>
+      </c>
+      <c r="Q174">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>16082</v>
       </c>
@@ -5392,8 +9570,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C175),D175)</f>
         <v>146.11862651504393</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I175">
+        <v>16073</v>
+      </c>
+      <c r="J175">
+        <v>16030</v>
+      </c>
+      <c r="K175">
+        <v>43</v>
+      </c>
+      <c r="L175">
+        <v>175</v>
+      </c>
+      <c r="N175">
+        <v>15917</v>
+      </c>
+      <c r="O175">
+        <v>14594</v>
+      </c>
+      <c r="P175">
+        <v>1323</v>
+      </c>
+      <c r="Q175">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>15057</v>
       </c>
@@ -5418,8 +9620,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C176),D176)</f>
         <v>145.73112588523651</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I176">
+        <v>14997</v>
+      </c>
+      <c r="J176">
+        <v>15888</v>
+      </c>
+      <c r="K176">
+        <v>-891</v>
+      </c>
+      <c r="L176">
+        <v>176</v>
+      </c>
+      <c r="N176">
+        <v>15336</v>
+      </c>
+      <c r="O176">
+        <v>15039</v>
+      </c>
+      <c r="P176">
+        <v>297</v>
+      </c>
+      <c r="Q176">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>16327</v>
       </c>
@@ -5444,8 +9670,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C177),D177)</f>
         <v>144.89643313408064</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I177">
+        <v>15880</v>
+      </c>
+      <c r="J177">
+        <v>16051</v>
+      </c>
+      <c r="K177">
+        <v>-171</v>
+      </c>
+      <c r="L177">
+        <v>177</v>
+      </c>
+      <c r="N177">
+        <v>13905</v>
+      </c>
+      <c r="O177">
+        <v>11636</v>
+      </c>
+      <c r="P177">
+        <v>2269</v>
+      </c>
+      <c r="Q177">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>14815</v>
       </c>
@@ -5470,8 +9720,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C178),D178)</f>
         <v>144.57541605686967</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I178">
+        <v>15098</v>
+      </c>
+      <c r="J178">
+        <v>14700</v>
+      </c>
+      <c r="K178">
+        <v>398</v>
+      </c>
+      <c r="L178">
+        <v>178</v>
+      </c>
+      <c r="N178">
+        <v>6519</v>
+      </c>
+      <c r="O178">
+        <v>6890</v>
+      </c>
+      <c r="P178">
+        <v>-371</v>
+      </c>
+      <c r="Q178">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>10234</v>
       </c>
@@ -5496,8 +9770,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C179),D179)</f>
         <v>143.75696704337378</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I179">
+        <v>10894</v>
+      </c>
+      <c r="J179">
+        <v>10004</v>
+      </c>
+      <c r="K179">
+        <v>890</v>
+      </c>
+      <c r="L179">
+        <v>179</v>
+      </c>
+      <c r="N179">
+        <v>15816</v>
+      </c>
+      <c r="O179">
+        <v>15695</v>
+      </c>
+      <c r="P179">
+        <v>121</v>
+      </c>
+      <c r="Q179">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>16434</v>
       </c>
@@ -5522,8 +9820,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C180),D180)</f>
         <v>142.95298758102578</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I180">
+        <v>15378</v>
+      </c>
+      <c r="J180">
+        <v>16160</v>
+      </c>
+      <c r="K180">
+        <v>-782</v>
+      </c>
+      <c r="L180">
+        <v>180</v>
+      </c>
+      <c r="N180">
+        <v>14914</v>
+      </c>
+      <c r="O180">
+        <v>14643</v>
+      </c>
+      <c r="P180">
+        <v>271</v>
+      </c>
+      <c r="Q180">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>12199</v>
       </c>
@@ -5548,8 +9870,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C181),D181)</f>
         <v>143.85120696462371</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I181">
+        <v>12173</v>
+      </c>
+      <c r="J181">
+        <v>12000</v>
+      </c>
+      <c r="K181">
+        <v>173</v>
+      </c>
+      <c r="L181">
+        <v>181</v>
+      </c>
+      <c r="N181">
+        <v>11799</v>
+      </c>
+      <c r="O181">
+        <v>11424</v>
+      </c>
+      <c r="P181">
+        <v>375</v>
+      </c>
+      <c r="Q181">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>12398</v>
       </c>
@@ -5574,8 +9920,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C182),D182)</f>
         <v>143.35942092103684</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I182">
+        <v>13514</v>
+      </c>
+      <c r="J182">
+        <v>12693</v>
+      </c>
+      <c r="K182">
+        <v>821</v>
+      </c>
+      <c r="L182">
+        <v>182</v>
+      </c>
+      <c r="N182">
+        <v>14721</v>
+      </c>
+      <c r="O182">
+        <v>14623</v>
+      </c>
+      <c r="P182">
+        <v>98</v>
+      </c>
+      <c r="Q182">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>11772</v>
       </c>
@@ -5600,8 +9970,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C183),D183)</f>
         <v>144.49700155720743</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I183">
+        <v>13679</v>
+      </c>
+      <c r="J183">
+        <v>12429</v>
+      </c>
+      <c r="K183">
+        <v>1250</v>
+      </c>
+      <c r="L183">
+        <v>183</v>
+      </c>
+      <c r="N183">
+        <v>10027</v>
+      </c>
+      <c r="O183">
+        <v>9378</v>
+      </c>
+      <c r="P183">
+        <v>649</v>
+      </c>
+      <c r="Q183">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>14009</v>
       </c>
@@ -5626,8 +10020,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C184),D184)</f>
         <v>145.75684134837857</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I184">
+        <v>14705</v>
+      </c>
+      <c r="J184">
+        <v>14115</v>
+      </c>
+      <c r="K184">
+        <v>590</v>
+      </c>
+      <c r="L184">
+        <v>184</v>
+      </c>
+      <c r="N184">
+        <v>14091</v>
+      </c>
+      <c r="O184">
+        <v>11439</v>
+      </c>
+      <c r="P184">
+        <v>2652</v>
+      </c>
+      <c r="Q184">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>16318</v>
       </c>
@@ -5652,8 +10070,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C185),D185)</f>
         <v>144.99368839745895</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I185">
+        <v>17340</v>
+      </c>
+      <c r="J185">
+        <v>16153</v>
+      </c>
+      <c r="K185">
+        <v>1187</v>
+      </c>
+      <c r="L185">
+        <v>185</v>
+      </c>
+      <c r="N185">
+        <v>7598</v>
+      </c>
+      <c r="O185">
+        <v>7663</v>
+      </c>
+      <c r="P185">
+        <v>-65</v>
+      </c>
+      <c r="Q185">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>11399</v>
       </c>
@@ -5678,8 +10120,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C186),D186)</f>
         <v>144.47198173214423</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I186">
+        <v>10773</v>
+      </c>
+      <c r="J186">
+        <v>10429</v>
+      </c>
+      <c r="K186">
+        <v>344</v>
+      </c>
+      <c r="L186">
+        <v>186</v>
+      </c>
+      <c r="N186">
+        <v>15372</v>
+      </c>
+      <c r="O186">
+        <v>14719</v>
+      </c>
+      <c r="P186">
+        <v>653</v>
+      </c>
+      <c r="Q186">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>8861</v>
       </c>
@@ -5704,8 +10170,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C187),D187)</f>
         <v>143.70554324200185</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I187">
+        <v>9910</v>
+      </c>
+      <c r="J187">
+        <v>9466</v>
+      </c>
+      <c r="K187">
+        <v>444</v>
+      </c>
+      <c r="L187">
+        <v>187</v>
+      </c>
+      <c r="N187">
+        <v>13803</v>
+      </c>
+      <c r="O187">
+        <v>13989</v>
+      </c>
+      <c r="P187">
+        <v>-186</v>
+      </c>
+      <c r="Q187">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>8649</v>
       </c>
@@ -5730,8 +10220,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C188),D188)</f>
         <v>142.93159595626341</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I188">
+        <v>10755</v>
+      </c>
+      <c r="J188">
+        <v>10085</v>
+      </c>
+      <c r="K188">
+        <v>670</v>
+      </c>
+      <c r="L188">
+        <v>188</v>
+      </c>
+      <c r="N188">
+        <v>12930</v>
+      </c>
+      <c r="O188">
+        <v>11262</v>
+      </c>
+      <c r="P188">
+        <v>1668</v>
+      </c>
+      <c r="Q188">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>14892</v>
       </c>
@@ -5756,8 +10270,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C189),D189)</f>
         <v>142.50372375951957</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I189">
+        <v>14956</v>
+      </c>
+      <c r="J189">
+        <v>16205</v>
+      </c>
+      <c r="K189">
+        <v>-1249</v>
+      </c>
+      <c r="L189">
+        <v>189</v>
+      </c>
+      <c r="N189">
+        <v>10027</v>
+      </c>
+      <c r="O189">
+        <v>8615</v>
+      </c>
+      <c r="P189">
+        <v>1412</v>
+      </c>
+      <c r="Q189">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>12612</v>
       </c>
@@ -5782,8 +10320,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C190),D190)</f>
         <v>142.04592400772458</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I190">
+        <v>12841</v>
+      </c>
+      <c r="J190">
+        <v>12415</v>
+      </c>
+      <c r="K190">
+        <v>426</v>
+      </c>
+      <c r="L190">
+        <v>190</v>
+      </c>
+      <c r="N190">
+        <v>15526</v>
+      </c>
+      <c r="O190">
+        <v>16055</v>
+      </c>
+      <c r="P190">
+        <v>-529</v>
+      </c>
+      <c r="Q190">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>9651</v>
       </c>
@@ -5808,8 +10370,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C191),D191)</f>
         <v>141.58744863799683</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I191">
+        <v>10245</v>
+      </c>
+      <c r="J191">
+        <v>8747</v>
+      </c>
+      <c r="K191">
+        <v>1498</v>
+      </c>
+      <c r="L191">
+        <v>191</v>
+      </c>
+      <c r="N191">
+        <v>17500</v>
+      </c>
+      <c r="O191">
+        <v>17373</v>
+      </c>
+      <c r="P191">
+        <v>127</v>
+      </c>
+      <c r="Q191">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>15892</v>
       </c>
@@ -5834,8 +10420,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C192),D192)</f>
         <v>140.96688762759257</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I192">
+        <v>17490</v>
+      </c>
+      <c r="J192">
+        <v>16646</v>
+      </c>
+      <c r="K192">
+        <v>844</v>
+      </c>
+      <c r="L192">
+        <v>192</v>
+      </c>
+      <c r="N192">
+        <v>9941</v>
+      </c>
+      <c r="O192">
+        <v>9795</v>
+      </c>
+      <c r="P192">
+        <v>146</v>
+      </c>
+      <c r="Q192">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>16757</v>
       </c>
@@ -5860,8 +10470,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C193),D193)</f>
         <v>140.24257391126548</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I193">
+        <v>15513</v>
+      </c>
+      <c r="J193">
+        <v>16336</v>
+      </c>
+      <c r="K193">
+        <v>-823</v>
+      </c>
+      <c r="L193">
+        <v>193</v>
+      </c>
+      <c r="N193">
+        <v>9744</v>
+      </c>
+      <c r="O193">
+        <v>9770</v>
+      </c>
+      <c r="P193">
+        <v>-26</v>
+      </c>
+      <c r="Q193">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>14368</v>
       </c>
@@ -5886,8 +10520,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C194),D194)</f>
         <v>140.11798481567979</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I194">
+        <v>14048</v>
+      </c>
+      <c r="J194">
+        <v>14658</v>
+      </c>
+      <c r="K194">
+        <v>-610</v>
+      </c>
+      <c r="L194">
+        <v>194</v>
+      </c>
+      <c r="N194">
+        <v>14405</v>
+      </c>
+      <c r="O194">
+        <v>14071</v>
+      </c>
+      <c r="P194">
+        <v>334</v>
+      </c>
+      <c r="Q194">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>17153</v>
       </c>
@@ -5912,8 +10570,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C195),D195)</f>
         <v>139.53068077541707</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I195">
+        <v>17010</v>
+      </c>
+      <c r="J195">
+        <v>15892</v>
+      </c>
+      <c r="K195">
+        <v>1118</v>
+      </c>
+      <c r="L195">
+        <v>195</v>
+      </c>
+      <c r="N195">
+        <v>13990</v>
+      </c>
+      <c r="O195">
+        <v>14268</v>
+      </c>
+      <c r="P195">
+        <v>-278</v>
+      </c>
+      <c r="Q195">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>12907</v>
       </c>
@@ -5938,8 +10620,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C196),D196)</f>
         <v>139.03923298832419</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I196">
+        <v>12608</v>
+      </c>
+      <c r="J196">
+        <v>12694</v>
+      </c>
+      <c r="K196">
+        <v>-86</v>
+      </c>
+      <c r="L196">
+        <v>196</v>
+      </c>
+      <c r="N196">
+        <v>13784</v>
+      </c>
+      <c r="O196">
+        <v>12578</v>
+      </c>
+      <c r="P196">
+        <v>1206</v>
+      </c>
+      <c r="Q196">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>17722</v>
       </c>
@@ -5964,8 +10670,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C197),D197)</f>
         <v>138.34879182825878</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I197">
+        <v>17591</v>
+      </c>
+      <c r="J197">
+        <v>18150</v>
+      </c>
+      <c r="K197">
+        <v>-559</v>
+      </c>
+      <c r="L197">
+        <v>197</v>
+      </c>
+      <c r="N197">
+        <v>14043</v>
+      </c>
+      <c r="O197">
+        <v>15288</v>
+      </c>
+      <c r="P197">
+        <v>-1245</v>
+      </c>
+      <c r="Q197">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>17052</v>
       </c>
@@ -5990,8 +10720,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C198),D198)</f>
         <v>138.15545898677178</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I198">
+        <v>15515</v>
+      </c>
+      <c r="J198">
+        <v>16702</v>
+      </c>
+      <c r="K198">
+        <v>-1187</v>
+      </c>
+      <c r="L198">
+        <v>198</v>
+      </c>
+      <c r="N198">
+        <v>13411</v>
+      </c>
+      <c r="O198">
+        <v>12471</v>
+      </c>
+      <c r="P198">
+        <v>940</v>
+      </c>
+      <c r="Q198">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>16287</v>
       </c>
@@ -6016,8 +10770,32 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C199),D199)</f>
         <v>137.47553216563176</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I199">
+        <v>16272</v>
+      </c>
+      <c r="J199">
+        <v>15957</v>
+      </c>
+      <c r="K199">
+        <v>315</v>
+      </c>
+      <c r="L199">
+        <v>199</v>
+      </c>
+      <c r="N199">
+        <v>13267</v>
+      </c>
+      <c r="O199">
+        <v>10681</v>
+      </c>
+      <c r="P199">
+        <v>2586</v>
+      </c>
+      <c r="Q199">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>14576</v>
       </c>
@@ -6041,6 +10819,58 @@
       <c r="G200">
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C200),D200)</f>
         <v>138.09260186760443</v>
+      </c>
+      <c r="I200">
+        <v>14946</v>
+      </c>
+      <c r="J200">
+        <v>13997</v>
+      </c>
+      <c r="K200">
+        <v>949</v>
+      </c>
+      <c r="L200">
+        <v>200</v>
+      </c>
+      <c r="N200">
+        <v>17136</v>
+      </c>
+      <c r="O200">
+        <v>17546</v>
+      </c>
+      <c r="P200">
+        <v>-410</v>
+      </c>
+      <c r="Q200">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C202">
+        <f>_xlfn.STDEV.S(C1:C200)</f>
+        <v>750.90517464359823</v>
+      </c>
+      <c r="K202">
+        <f>_xlfn.STDEV.S(K1:K200)</f>
+        <v>736.85344001388876</v>
+      </c>
+      <c r="P202">
+        <f>_xlfn.STDEV.S(P1:P200)</f>
+        <v>1072.7532135870331</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C203">
+        <f>AVERAGE(C1:C200)</f>
+        <v>511.54</v>
+      </c>
+      <c r="K203">
+        <f>AVERAGE(K1:K200)</f>
+        <v>382.23</v>
+      </c>
+      <c r="P203">
+        <f>AVERAGE(P1:P200)</f>
+        <v>566.505</v>
       </c>
     </row>
   </sheetData>

--- a/varianztest.xlsx
+++ b/varianztest.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -837,15 +837,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q203"/>
+  <dimension ref="A1:G200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="P203" sqref="P203"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>13452</v>
       </c>
@@ -870,32 +868,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C1),D1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I1">
-        <v>15547</v>
-      </c>
-      <c r="J1">
-        <v>14541</v>
-      </c>
-      <c r="K1">
-        <v>1006</v>
-      </c>
-      <c r="L1">
-        <v>1</v>
-      </c>
-      <c r="N1">
-        <v>11065</v>
-      </c>
-      <c r="O1">
-        <v>9884</v>
-      </c>
-      <c r="P1">
-        <v>1181</v>
-      </c>
-      <c r="Q1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>14030</v>
       </c>
@@ -920,32 +894,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C2),D2)</f>
         <v>13845.341202924568</v>
       </c>
-      <c r="I2">
-        <v>14628</v>
-      </c>
-      <c r="J2">
-        <v>13964</v>
-      </c>
-      <c r="K2">
-        <v>664</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="N2">
-        <v>12668</v>
-      </c>
-      <c r="O2">
-        <v>11681</v>
-      </c>
-      <c r="P2">
-        <v>987</v>
-      </c>
-      <c r="Q2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>17496</v>
       </c>
@@ -970,32 +920,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C3),D3)</f>
         <v>2429.8395443023137</v>
       </c>
-      <c r="I3">
-        <v>16371</v>
-      </c>
-      <c r="J3">
-        <v>15636</v>
-      </c>
-      <c r="K3">
-        <v>735</v>
-      </c>
-      <c r="L3">
-        <v>3</v>
-      </c>
-      <c r="N3">
-        <v>13243</v>
-      </c>
-      <c r="O3">
-        <v>13041</v>
-      </c>
-      <c r="P3">
-        <v>202</v>
-      </c>
-      <c r="Q3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>14559</v>
       </c>
@@ -1020,32 +946,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C4),D4)</f>
         <v>1402.2582615660237</v>
       </c>
-      <c r="I4">
-        <v>14575</v>
-      </c>
-      <c r="J4">
-        <v>13879</v>
-      </c>
-      <c r="K4">
-        <v>696</v>
-      </c>
-      <c r="L4">
-        <v>4</v>
-      </c>
-      <c r="N4">
-        <v>8503</v>
-      </c>
-      <c r="O4">
-        <v>8209</v>
-      </c>
-      <c r="P4">
-        <v>294</v>
-      </c>
-      <c r="Q4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>13853</v>
       </c>
@@ -1070,32 +972,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C5),D5)</f>
         <v>1198.6444224219497</v>
       </c>
-      <c r="I5">
-        <v>14760</v>
-      </c>
-      <c r="J5">
-        <v>13753</v>
-      </c>
-      <c r="K5">
-        <v>1007</v>
-      </c>
-      <c r="L5">
-        <v>5</v>
-      </c>
-      <c r="N5">
-        <v>13475</v>
-      </c>
-      <c r="O5">
-        <v>13725</v>
-      </c>
-      <c r="P5">
-        <v>-250</v>
-      </c>
-      <c r="Q5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>15301</v>
       </c>
@@ -1120,32 +998,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C6),D6)</f>
         <v>857.56987089756853</v>
       </c>
-      <c r="I6">
-        <v>14437</v>
-      </c>
-      <c r="J6">
-        <v>13850</v>
-      </c>
-      <c r="K6">
-        <v>587</v>
-      </c>
-      <c r="L6">
-        <v>6</v>
-      </c>
-      <c r="N6">
-        <v>13414</v>
-      </c>
-      <c r="O6">
-        <v>13845</v>
-      </c>
-      <c r="P6">
-        <v>-431</v>
-      </c>
-      <c r="Q6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>13952</v>
       </c>
@@ -1170,32 +1024,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C7),D7)</f>
         <v>823.10525393200135</v>
       </c>
-      <c r="I7">
-        <v>14057</v>
-      </c>
-      <c r="J7">
-        <v>13588</v>
-      </c>
-      <c r="K7">
-        <v>469</v>
-      </c>
-      <c r="L7">
-        <v>7</v>
-      </c>
-      <c r="N7">
-        <v>14443</v>
-      </c>
-      <c r="O7">
-        <v>15729</v>
-      </c>
-      <c r="P7">
-        <v>-1286</v>
-      </c>
-      <c r="Q7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>15565</v>
       </c>
@@ -1220,32 +1050,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C8),D8)</f>
         <v>714.40038962987967</v>
       </c>
-      <c r="I8">
-        <v>15320</v>
-      </c>
-      <c r="J8">
-        <v>14504</v>
-      </c>
-      <c r="K8">
-        <v>816</v>
-      </c>
-      <c r="L8">
-        <v>8</v>
-      </c>
-      <c r="N8">
-        <v>11021</v>
-      </c>
-      <c r="O8">
-        <v>10221</v>
-      </c>
-      <c r="P8">
-        <v>800</v>
-      </c>
-      <c r="Q8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11699</v>
       </c>
@@ -1270,32 +1076,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C9),D9)</f>
         <v>760.86371224384641</v>
       </c>
-      <c r="I9">
-        <v>12184</v>
-      </c>
-      <c r="J9">
-        <v>11743</v>
-      </c>
-      <c r="K9">
-        <v>441</v>
-      </c>
-      <c r="L9">
-        <v>9</v>
-      </c>
-      <c r="N9">
-        <v>13390</v>
-      </c>
-      <c r="O9">
-        <v>12249</v>
-      </c>
-      <c r="P9">
-        <v>1141</v>
-      </c>
-      <c r="Q9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12985</v>
       </c>
@@ -1320,32 +1102,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C10),D10)</f>
         <v>683.37124006880902</v>
       </c>
-      <c r="I10">
-        <v>12946</v>
-      </c>
-      <c r="J10">
-        <v>12149</v>
-      </c>
-      <c r="K10">
-        <v>797</v>
-      </c>
-      <c r="L10">
-        <v>10</v>
-      </c>
-      <c r="N10">
-        <v>15570</v>
-      </c>
-      <c r="O10">
-        <v>14110</v>
-      </c>
-      <c r="P10">
-        <v>1460</v>
-      </c>
-      <c r="Q10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>13246</v>
       </c>
@@ -1370,32 +1128,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C11),D11)</f>
         <v>607.04269532085038</v>
       </c>
-      <c r="I11">
-        <v>13116</v>
-      </c>
-      <c r="J11">
-        <v>12790</v>
-      </c>
-      <c r="K11">
-        <v>326</v>
-      </c>
-      <c r="L11">
-        <v>11</v>
-      </c>
-      <c r="N11">
-        <v>12764</v>
-      </c>
-      <c r="O11">
-        <v>13180</v>
-      </c>
-      <c r="P11">
-        <v>-416</v>
-      </c>
-      <c r="Q11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>16461</v>
       </c>
@@ -1420,32 +1154,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C12),D12)</f>
         <v>657.01007378880706</v>
       </c>
-      <c r="I12">
-        <v>17260</v>
-      </c>
-      <c r="J12">
-        <v>16103</v>
-      </c>
-      <c r="K12">
-        <v>1157</v>
-      </c>
-      <c r="L12">
-        <v>12</v>
-      </c>
-      <c r="N12">
-        <v>14799</v>
-      </c>
-      <c r="O12">
-        <v>15626</v>
-      </c>
-      <c r="P12">
-        <v>-827</v>
-      </c>
-      <c r="Q12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11146</v>
       </c>
@@ -1470,32 +1180,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C13),D13)</f>
         <v>689.73805882359159</v>
       </c>
-      <c r="I13">
-        <v>12162</v>
-      </c>
-      <c r="J13">
-        <v>11534</v>
-      </c>
-      <c r="K13">
-        <v>628</v>
-      </c>
-      <c r="L13">
-        <v>13</v>
-      </c>
-      <c r="N13">
-        <v>12046</v>
-      </c>
-      <c r="O13">
-        <v>12175</v>
-      </c>
-      <c r="P13">
-        <v>-129</v>
-      </c>
-      <c r="Q13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14946</v>
       </c>
@@ -1520,32 +1206,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C14),D14)</f>
         <v>639.85322927103471</v>
       </c>
-      <c r="I14">
-        <v>15350</v>
-      </c>
-      <c r="J14">
-        <v>15151</v>
-      </c>
-      <c r="K14">
-        <v>199</v>
-      </c>
-      <c r="L14">
-        <v>14</v>
-      </c>
-      <c r="N14">
-        <v>13760</v>
-      </c>
-      <c r="O14">
-        <v>12229</v>
-      </c>
-      <c r="P14">
-        <v>1531</v>
-      </c>
-      <c r="Q14">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10654</v>
       </c>
@@ -1570,32 +1232,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C15),D15)</f>
         <v>593.19984167143753</v>
       </c>
-      <c r="I15">
-        <v>10491</v>
-      </c>
-      <c r="J15">
-        <v>9495</v>
-      </c>
-      <c r="K15">
-        <v>996</v>
-      </c>
-      <c r="L15">
-        <v>15</v>
-      </c>
-      <c r="N15">
-        <v>14359</v>
-      </c>
-      <c r="O15">
-        <v>13986</v>
-      </c>
-      <c r="P15">
-        <v>373</v>
-      </c>
-      <c r="Q15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13645</v>
       </c>
@@ -1620,32 +1258,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C16),D16)</f>
         <v>560.91478266979721</v>
       </c>
-      <c r="I16">
-        <v>14597</v>
-      </c>
-      <c r="J16">
-        <v>14208</v>
-      </c>
-      <c r="K16">
-        <v>389</v>
-      </c>
-      <c r="L16">
-        <v>16</v>
-      </c>
-      <c r="N16">
-        <v>11558</v>
-      </c>
-      <c r="O16">
-        <v>13497</v>
-      </c>
-      <c r="P16">
-        <v>-1939</v>
-      </c>
-      <c r="Q16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15684</v>
       </c>
@@ -1670,32 +1284,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C17),D17)</f>
         <v>541.26853889099357</v>
       </c>
-      <c r="I17">
-        <v>17087</v>
-      </c>
-      <c r="J17">
-        <v>15827</v>
-      </c>
-      <c r="K17">
-        <v>1260</v>
-      </c>
-      <c r="L17">
-        <v>17</v>
-      </c>
-      <c r="N17">
-        <v>15282</v>
-      </c>
-      <c r="O17">
-        <v>14833</v>
-      </c>
-      <c r="P17">
-        <v>449</v>
-      </c>
-      <c r="Q17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16863</v>
       </c>
@@ -1720,32 +1310,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C18),D18)</f>
         <v>546.94707071977223</v>
       </c>
-      <c r="I18">
-        <v>16741</v>
-      </c>
-      <c r="J18">
-        <v>16433</v>
-      </c>
-      <c r="K18">
-        <v>308</v>
-      </c>
-      <c r="L18">
-        <v>18</v>
-      </c>
-      <c r="N18">
-        <v>18236</v>
-      </c>
-      <c r="O18">
-        <v>18191</v>
-      </c>
-      <c r="P18">
-        <v>45</v>
-      </c>
-      <c r="Q18">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13497</v>
       </c>
@@ -1770,32 +1336,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C19),D19)</f>
         <v>517.41712484027346</v>
       </c>
-      <c r="I19">
-        <v>12411</v>
-      </c>
-      <c r="J19">
-        <v>12474</v>
-      </c>
-      <c r="K19">
-        <v>-63</v>
-      </c>
-      <c r="L19">
-        <v>19</v>
-      </c>
-      <c r="N19">
-        <v>13149</v>
-      </c>
-      <c r="O19">
-        <v>13212</v>
-      </c>
-      <c r="P19">
-        <v>-63</v>
-      </c>
-      <c r="Q19">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14064</v>
       </c>
@@ -1820,32 +1362,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C20),D20)</f>
         <v>489.68249092070045</v>
       </c>
-      <c r="I20">
-        <v>15358</v>
-      </c>
-      <c r="J20">
-        <v>15047</v>
-      </c>
-      <c r="K20">
-        <v>311</v>
-      </c>
-      <c r="L20">
-        <v>20</v>
-      </c>
-      <c r="N20">
-        <v>12797</v>
-      </c>
-      <c r="O20">
-        <v>12014</v>
-      </c>
-      <c r="P20">
-        <v>783</v>
-      </c>
-      <c r="Q20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15393</v>
       </c>
@@ -1870,32 +1388,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C21),D21)</f>
         <v>507.88843109390626</v>
       </c>
-      <c r="I21">
-        <v>15394</v>
-      </c>
-      <c r="J21">
-        <v>16155</v>
-      </c>
-      <c r="K21">
-        <v>-761</v>
-      </c>
-      <c r="L21">
-        <v>21</v>
-      </c>
-      <c r="N21">
-        <v>10923</v>
-      </c>
-      <c r="O21">
-        <v>10223</v>
-      </c>
-      <c r="P21">
-        <v>700</v>
-      </c>
-      <c r="Q21">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>12750</v>
       </c>
@@ -1920,32 +1414,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C22),D22)</f>
         <v>503.36333097239827</v>
       </c>
-      <c r="I22">
-        <v>11759</v>
-      </c>
-      <c r="J22">
-        <v>11264</v>
-      </c>
-      <c r="K22">
-        <v>495</v>
-      </c>
-      <c r="L22">
-        <v>22</v>
-      </c>
-      <c r="N22">
-        <v>14488</v>
-      </c>
-      <c r="O22">
-        <v>13856</v>
-      </c>
-      <c r="P22">
-        <v>632</v>
-      </c>
-      <c r="Q22">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11739</v>
       </c>
@@ -1970,32 +1440,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C23),D23)</f>
         <v>483.49599906813836</v>
       </c>
-      <c r="I23">
-        <v>12682</v>
-      </c>
-      <c r="J23">
-        <v>11701</v>
-      </c>
-      <c r="K23">
-        <v>981</v>
-      </c>
-      <c r="L23">
-        <v>23</v>
-      </c>
-      <c r="N23">
-        <v>10061</v>
-      </c>
-      <c r="O23">
-        <v>9223</v>
-      </c>
-      <c r="P23">
-        <v>838</v>
-      </c>
-      <c r="Q23">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10925</v>
       </c>
@@ -2020,32 +1466,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C24),D24)</f>
         <v>462.39231748998901</v>
       </c>
-      <c r="I24">
-        <v>11571</v>
-      </c>
-      <c r="J24">
-        <v>11514</v>
-      </c>
-      <c r="K24">
-        <v>57</v>
-      </c>
-      <c r="L24">
-        <v>24</v>
-      </c>
-      <c r="N24">
-        <v>12955</v>
-      </c>
-      <c r="O24">
-        <v>12937</v>
-      </c>
-      <c r="P24">
-        <v>18</v>
-      </c>
-      <c r="Q24">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10441</v>
       </c>
@@ -2070,32 +1492,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C25),D25)</f>
         <v>445.95122457494665</v>
       </c>
-      <c r="I25">
-        <v>10494</v>
-      </c>
-      <c r="J25">
-        <v>9643</v>
-      </c>
-      <c r="K25">
-        <v>851</v>
-      </c>
-      <c r="L25">
-        <v>25</v>
-      </c>
-      <c r="N25">
-        <v>16425</v>
-      </c>
-      <c r="O25">
-        <v>17474</v>
-      </c>
-      <c r="P25">
-        <v>-1049</v>
-      </c>
-      <c r="Q25">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>15217</v>
       </c>
@@ -2120,32 +1518,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C26),D26)</f>
         <v>440.21678989262318</v>
       </c>
-      <c r="I26">
-        <v>15973</v>
-      </c>
-      <c r="J26">
-        <v>16305</v>
-      </c>
-      <c r="K26">
-        <v>-332</v>
-      </c>
-      <c r="L26">
-        <v>26</v>
-      </c>
-      <c r="N26">
-        <v>15199</v>
-      </c>
-      <c r="O26">
-        <v>12475</v>
-      </c>
-      <c r="P26">
-        <v>2724</v>
-      </c>
-      <c r="Q26">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>15758</v>
       </c>
@@ -2170,32 +1544,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C27),D27)</f>
         <v>443.51817595423432</v>
       </c>
-      <c r="I27">
-        <v>15083</v>
-      </c>
-      <c r="J27">
-        <v>15628</v>
-      </c>
-      <c r="K27">
-        <v>-545</v>
-      </c>
-      <c r="L27">
-        <v>27</v>
-      </c>
-      <c r="N27">
-        <v>18162</v>
-      </c>
-      <c r="O27">
-        <v>17018</v>
-      </c>
-      <c r="P27">
-        <v>1144</v>
-      </c>
-      <c r="Q27">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>12177</v>
       </c>
@@ -2220,32 +1570,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C28),D28)</f>
         <v>446.39014857911496</v>
       </c>
-      <c r="I28">
-        <v>11342</v>
-      </c>
-      <c r="J28">
-        <v>11231</v>
-      </c>
-      <c r="K28">
-        <v>111</v>
-      </c>
-      <c r="L28">
-        <v>28</v>
-      </c>
-      <c r="N28">
-        <v>7228</v>
-      </c>
-      <c r="O28">
-        <v>4910</v>
-      </c>
-      <c r="P28">
-        <v>2318</v>
-      </c>
-      <c r="Q28">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>12317</v>
       </c>
@@ -2270,32 +1596,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C29),D29)</f>
         <v>429.80352104859384</v>
       </c>
-      <c r="I29">
-        <v>12006</v>
-      </c>
-      <c r="J29">
-        <v>10493</v>
-      </c>
-      <c r="K29">
-        <v>1513</v>
-      </c>
-      <c r="L29">
-        <v>29</v>
-      </c>
-      <c r="N29">
-        <v>14023</v>
-      </c>
-      <c r="O29">
-        <v>13865</v>
-      </c>
-      <c r="P29">
-        <v>158</v>
-      </c>
-      <c r="Q29">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>11273</v>
       </c>
@@ -2320,32 +1622,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C30),D30)</f>
         <v>415.81635765056893</v>
       </c>
-      <c r="I30">
-        <v>11684</v>
-      </c>
-      <c r="J30">
-        <v>10917</v>
-      </c>
-      <c r="K30">
-        <v>767</v>
-      </c>
-      <c r="L30">
-        <v>30</v>
-      </c>
-      <c r="N30">
-        <v>11692</v>
-      </c>
-      <c r="O30">
-        <v>11281</v>
-      </c>
-      <c r="P30">
-        <v>411</v>
-      </c>
-      <c r="Q30">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>17682</v>
       </c>
@@ -2370,32 +1648,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C31),D31)</f>
         <v>401.40704801947084</v>
       </c>
-      <c r="I31">
-        <v>18322</v>
-      </c>
-      <c r="J31">
-        <v>16169</v>
-      </c>
-      <c r="K31">
-        <v>2153</v>
-      </c>
-      <c r="L31">
-        <v>31</v>
-      </c>
-      <c r="N31">
-        <v>8946</v>
-      </c>
-      <c r="O31">
-        <v>7965</v>
-      </c>
-      <c r="P31">
-        <v>981</v>
-      </c>
-      <c r="Q31">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>15658</v>
       </c>
@@ -2420,32 +1674,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C32),D32)</f>
         <v>390.14157350421709</v>
       </c>
-      <c r="I32">
-        <v>17440</v>
-      </c>
-      <c r="J32">
-        <v>16684</v>
-      </c>
-      <c r="K32">
-        <v>756</v>
-      </c>
-      <c r="L32">
-        <v>32</v>
-      </c>
-      <c r="N32">
-        <v>13232</v>
-      </c>
-      <c r="O32">
-        <v>13166</v>
-      </c>
-      <c r="P32">
-        <v>66</v>
-      </c>
-      <c r="Q32">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>15658</v>
       </c>
@@ -2470,32 +1700,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C33),D33)</f>
         <v>397.80690925923341</v>
       </c>
-      <c r="I33">
-        <v>14772</v>
-      </c>
-      <c r="J33">
-        <v>13304</v>
-      </c>
-      <c r="K33">
-        <v>1468</v>
-      </c>
-      <c r="L33">
-        <v>33</v>
-      </c>
-      <c r="N33">
-        <v>14535</v>
-      </c>
-      <c r="O33">
-        <v>15248</v>
-      </c>
-      <c r="P33">
-        <v>-713</v>
-      </c>
-      <c r="Q33">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>12013</v>
       </c>
@@ -2520,32 +1726,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C34),D34)</f>
         <v>393.0279906675492</v>
       </c>
-      <c r="I34">
-        <v>12907</v>
-      </c>
-      <c r="J34">
-        <v>12489</v>
-      </c>
-      <c r="K34">
-        <v>418</v>
-      </c>
-      <c r="L34">
-        <v>34</v>
-      </c>
-      <c r="N34">
-        <v>13714</v>
-      </c>
-      <c r="O34">
-        <v>12757</v>
-      </c>
-      <c r="P34">
-        <v>957</v>
-      </c>
-      <c r="Q34">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>14044</v>
       </c>
@@ -2570,32 +1752,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C35),D35)</f>
         <v>381.17039024318683</v>
       </c>
-      <c r="I35">
-        <v>14172</v>
-      </c>
-      <c r="J35">
-        <v>13146</v>
-      </c>
-      <c r="K35">
-        <v>1026</v>
-      </c>
-      <c r="L35">
-        <v>35</v>
-      </c>
-      <c r="N35">
-        <v>10416</v>
-      </c>
-      <c r="O35">
-        <v>11458</v>
-      </c>
-      <c r="P35">
-        <v>-1042</v>
-      </c>
-      <c r="Q35">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>12903</v>
       </c>
@@ -2620,32 +1778,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C36),D36)</f>
         <v>383.95573829166796</v>
       </c>
-      <c r="I36">
-        <v>14128</v>
-      </c>
-      <c r="J36">
-        <v>14673</v>
-      </c>
-      <c r="K36">
-        <v>-545</v>
-      </c>
-      <c r="L36">
-        <v>36</v>
-      </c>
-      <c r="N36">
-        <v>16334</v>
-      </c>
-      <c r="O36">
-        <v>14876</v>
-      </c>
-      <c r="P36">
-        <v>1458</v>
-      </c>
-      <c r="Q36">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>11482</v>
       </c>
@@ -2670,32 +1804,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C37),D37)</f>
         <v>377.990845801825</v>
       </c>
-      <c r="I37">
-        <v>11879</v>
-      </c>
-      <c r="J37">
-        <v>12244</v>
-      </c>
-      <c r="K37">
-        <v>-365</v>
-      </c>
-      <c r="L37">
-        <v>37</v>
-      </c>
-      <c r="N37">
-        <v>11326</v>
-      </c>
-      <c r="O37">
-        <v>10781</v>
-      </c>
-      <c r="P37">
-        <v>545</v>
-      </c>
-      <c r="Q37">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>17009</v>
       </c>
@@ -2720,32 +1830,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C38),D38)</f>
         <v>368.01264971620338</v>
       </c>
-      <c r="I38">
-        <v>17339</v>
-      </c>
-      <c r="J38">
-        <v>16726</v>
-      </c>
-      <c r="K38">
-        <v>613</v>
-      </c>
-      <c r="L38">
-        <v>38</v>
-      </c>
-      <c r="N38">
-        <v>12271</v>
-      </c>
-      <c r="O38">
-        <v>10244</v>
-      </c>
-      <c r="P38">
-        <v>2027</v>
-      </c>
-      <c r="Q38">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>17486</v>
       </c>
@@ -2770,32 +1856,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C39),D39)</f>
         <v>360.63089034567253</v>
       </c>
-      <c r="I39">
-        <v>16731</v>
-      </c>
-      <c r="J39">
-        <v>16762</v>
-      </c>
-      <c r="K39">
-        <v>-31</v>
-      </c>
-      <c r="L39">
-        <v>39</v>
-      </c>
-      <c r="N39">
-        <v>12722</v>
-      </c>
-      <c r="O39">
-        <v>10222</v>
-      </c>
-      <c r="P39">
-        <v>2500</v>
-      </c>
-      <c r="Q39">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>13974</v>
       </c>
@@ -2820,32 +1882,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C40),D40)</f>
         <v>359.12537003340185</v>
       </c>
-      <c r="I40">
-        <v>12225</v>
-      </c>
-      <c r="J40">
-        <v>11466</v>
-      </c>
-      <c r="K40">
-        <v>759</v>
-      </c>
-      <c r="L40">
-        <v>40</v>
-      </c>
-      <c r="N40">
-        <v>18360</v>
-      </c>
-      <c r="O40">
-        <v>17655</v>
-      </c>
-      <c r="P40">
-        <v>705</v>
-      </c>
-      <c r="Q40">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>14441</v>
       </c>
@@ -2870,32 +1908,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C41),D41)</f>
         <v>373.32256410694305</v>
       </c>
-      <c r="I41">
-        <v>14319</v>
-      </c>
-      <c r="J41">
-        <v>13988</v>
-      </c>
-      <c r="K41">
-        <v>331</v>
-      </c>
-      <c r="L41">
-        <v>41</v>
-      </c>
-      <c r="N41">
-        <v>15770</v>
-      </c>
-      <c r="O41">
-        <v>12031</v>
-      </c>
-      <c r="P41">
-        <v>3739</v>
-      </c>
-      <c r="Q41">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>14327</v>
       </c>
@@ -2920,32 +1934,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C42),D42)</f>
         <v>364.80771322783147</v>
       </c>
-      <c r="I42">
-        <v>16182</v>
-      </c>
-      <c r="J42">
-        <v>15909</v>
-      </c>
-      <c r="K42">
-        <v>273</v>
-      </c>
-      <c r="L42">
-        <v>42</v>
-      </c>
-      <c r="N42">
-        <v>13742</v>
-      </c>
-      <c r="O42">
-        <v>11737</v>
-      </c>
-      <c r="P42">
-        <v>2005</v>
-      </c>
-      <c r="Q42">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>18515</v>
       </c>
@@ -2970,32 +1960,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C43),D43)</f>
         <v>357.64402125010929</v>
       </c>
-      <c r="I43">
-        <v>17518</v>
-      </c>
-      <c r="J43">
-        <v>16056</v>
-      </c>
-      <c r="K43">
-        <v>1462</v>
-      </c>
-      <c r="L43">
-        <v>43</v>
-      </c>
-      <c r="N43">
-        <v>8472</v>
-      </c>
-      <c r="O43">
-        <v>9334</v>
-      </c>
-      <c r="P43">
-        <v>-862</v>
-      </c>
-      <c r="Q43">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>12532</v>
       </c>
@@ -3020,32 +1986,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C44),D44)</f>
         <v>352.64324202992651</v>
       </c>
-      <c r="I44">
-        <v>12016</v>
-      </c>
-      <c r="J44">
-        <v>12624</v>
-      </c>
-      <c r="K44">
-        <v>-608</v>
-      </c>
-      <c r="L44">
-        <v>44</v>
-      </c>
-      <c r="N44">
-        <v>13862</v>
-      </c>
-      <c r="O44">
-        <v>14061</v>
-      </c>
-      <c r="P44">
-        <v>-199</v>
-      </c>
-      <c r="Q44">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>11752</v>
       </c>
@@ -3070,32 +2012,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C45),D45)</f>
         <v>346.32590335711382</v>
       </c>
-      <c r="I45">
-        <v>11786</v>
-      </c>
-      <c r="J45">
-        <v>11836</v>
-      </c>
-      <c r="K45">
-        <v>-50</v>
-      </c>
-      <c r="L45">
-        <v>45</v>
-      </c>
-      <c r="N45">
-        <v>16617</v>
-      </c>
-      <c r="O45">
-        <v>15375</v>
-      </c>
-      <c r="P45">
-        <v>1242</v>
-      </c>
-      <c r="Q45">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>11959</v>
       </c>
@@ -3120,32 +2038,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C46),D46)</f>
         <v>338.61510468774333</v>
       </c>
-      <c r="I46">
-        <v>11030</v>
-      </c>
-      <c r="J46">
-        <v>10928</v>
-      </c>
-      <c r="K46">
-        <v>102</v>
-      </c>
-      <c r="L46">
-        <v>46</v>
-      </c>
-      <c r="N46">
-        <v>13440</v>
-      </c>
-      <c r="O46">
-        <v>12081</v>
-      </c>
-      <c r="P46">
-        <v>1359</v>
-      </c>
-      <c r="Q46">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>13147</v>
       </c>
@@ -3170,32 +2064,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C47),D47)</f>
         <v>331.90806646393361</v>
       </c>
-      <c r="I47">
-        <v>13470</v>
-      </c>
-      <c r="J47">
-        <v>13181</v>
-      </c>
-      <c r="K47">
-        <v>289</v>
-      </c>
-      <c r="L47">
-        <v>47</v>
-      </c>
-      <c r="N47">
-        <v>16182</v>
-      </c>
-      <c r="O47">
-        <v>16498</v>
-      </c>
-      <c r="P47">
-        <v>-316</v>
-      </c>
-      <c r="Q47">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>15060</v>
       </c>
@@ -3220,32 +2090,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C48),D48)</f>
         <v>327.71098186705279</v>
       </c>
-      <c r="I48">
-        <v>15526</v>
-      </c>
-      <c r="J48">
-        <v>14900</v>
-      </c>
-      <c r="K48">
-        <v>626</v>
-      </c>
-      <c r="L48">
-        <v>48</v>
-      </c>
-      <c r="N48">
-        <v>13207</v>
-      </c>
-      <c r="O48">
-        <v>10956</v>
-      </c>
-      <c r="P48">
-        <v>2251</v>
-      </c>
-      <c r="Q48">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>15461</v>
       </c>
@@ -3270,32 +2116,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C49),D49)</f>
         <v>320.94304625003213</v>
       </c>
-      <c r="I49">
-        <v>14631</v>
-      </c>
-      <c r="J49">
-        <v>15643</v>
-      </c>
-      <c r="K49">
-        <v>-1012</v>
-      </c>
-      <c r="L49">
-        <v>49</v>
-      </c>
-      <c r="N49">
-        <v>11301</v>
-      </c>
-      <c r="O49">
-        <v>11629</v>
-      </c>
-      <c r="P49">
-        <v>-328</v>
-      </c>
-      <c r="Q49">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>16416</v>
       </c>
@@ -3320,32 +2142,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C50),D50)</f>
         <v>315.86956153244677</v>
       </c>
-      <c r="I50">
-        <v>15626</v>
-      </c>
-      <c r="J50">
-        <v>16784</v>
-      </c>
-      <c r="K50">
-        <v>-1158</v>
-      </c>
-      <c r="L50">
-        <v>50</v>
-      </c>
-      <c r="N50">
-        <v>13405</v>
-      </c>
-      <c r="O50">
-        <v>14062</v>
-      </c>
-      <c r="P50">
-        <v>-657</v>
-      </c>
-      <c r="Q50">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>12233</v>
       </c>
@@ -3370,32 +2168,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C51),D51)</f>
         <v>309.49187700670188</v>
       </c>
-      <c r="I51">
-        <v>11822</v>
-      </c>
-      <c r="J51">
-        <v>11928</v>
-      </c>
-      <c r="K51">
-        <v>-106</v>
-      </c>
-      <c r="L51">
-        <v>51</v>
-      </c>
-      <c r="N51">
-        <v>15010</v>
-      </c>
-      <c r="O51">
-        <v>14395</v>
-      </c>
-      <c r="P51">
-        <v>615</v>
-      </c>
-      <c r="Q51">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>11476</v>
       </c>
@@ -3420,32 +2194,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C52),D52)</f>
         <v>308.77463869789415</v>
       </c>
-      <c r="I52">
-        <v>10698</v>
-      </c>
-      <c r="J52">
-        <v>10406</v>
-      </c>
-      <c r="K52">
-        <v>292</v>
-      </c>
-      <c r="L52">
-        <v>52</v>
-      </c>
-      <c r="N52">
-        <v>14102</v>
-      </c>
-      <c r="O52">
-        <v>13660</v>
-      </c>
-      <c r="P52">
-        <v>442</v>
-      </c>
-      <c r="Q52">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>11110</v>
       </c>
@@ -3470,32 +2220,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C53),D53)</f>
         <v>302.94645724694448</v>
       </c>
-      <c r="I53">
-        <v>10945</v>
-      </c>
-      <c r="J53">
-        <v>10358</v>
-      </c>
-      <c r="K53">
-        <v>587</v>
-      </c>
-      <c r="L53">
-        <v>53</v>
-      </c>
-      <c r="N53">
-        <v>11586</v>
-      </c>
-      <c r="O53">
-        <v>12051</v>
-      </c>
-      <c r="P53">
-        <v>-465</v>
-      </c>
-      <c r="Q53">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>11670</v>
       </c>
@@ -3520,32 +2246,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C54),D54)</f>
         <v>299.21847324041369</v>
       </c>
-      <c r="I54">
-        <v>11016</v>
-      </c>
-      <c r="J54">
-        <v>12655</v>
-      </c>
-      <c r="K54">
-        <v>-1639</v>
-      </c>
-      <c r="L54">
-        <v>54</v>
-      </c>
-      <c r="N54">
-        <v>11656</v>
-      </c>
-      <c r="O54">
-        <v>12739</v>
-      </c>
-      <c r="P54">
-        <v>-1083</v>
-      </c>
-      <c r="Q54">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>13967</v>
       </c>
@@ -3570,32 +2272,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C55),D55)</f>
         <v>294.25724612264077</v>
       </c>
-      <c r="I55">
-        <v>12546</v>
-      </c>
-      <c r="J55">
-        <v>11792</v>
-      </c>
-      <c r="K55">
-        <v>754</v>
-      </c>
-      <c r="L55">
-        <v>55</v>
-      </c>
-      <c r="N55">
-        <v>14092</v>
-      </c>
-      <c r="O55">
-        <v>13106</v>
-      </c>
-      <c r="P55">
-        <v>986</v>
-      </c>
-      <c r="Q55">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>11401</v>
       </c>
@@ -3620,32 +2298,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C56),D56)</f>
         <v>288.79996684635006</v>
       </c>
-      <c r="I56">
-        <v>10624</v>
-      </c>
-      <c r="J56">
-        <v>9700</v>
-      </c>
-      <c r="K56">
-        <v>924</v>
-      </c>
-      <c r="L56">
-        <v>56</v>
-      </c>
-      <c r="N56">
-        <v>14094</v>
-      </c>
-      <c r="O56">
-        <v>14005</v>
-      </c>
-      <c r="P56">
-        <v>89</v>
-      </c>
-      <c r="Q56">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>11379</v>
       </c>
@@ -3670,32 +2324,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C57),D57)</f>
         <v>283.73976008260973</v>
       </c>
-      <c r="I57">
-        <v>11721</v>
-      </c>
-      <c r="J57">
-        <v>10891</v>
-      </c>
-      <c r="K57">
-        <v>830</v>
-      </c>
-      <c r="L57">
-        <v>57</v>
-      </c>
-      <c r="N57">
-        <v>11652</v>
-      </c>
-      <c r="O57">
-        <v>11465</v>
-      </c>
-      <c r="P57">
-        <v>187</v>
-      </c>
-      <c r="Q57">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>14314</v>
       </c>
@@ -3720,32 +2350,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C58),D58)</f>
         <v>278.90637366598241</v>
       </c>
-      <c r="I58">
-        <v>13629</v>
-      </c>
-      <c r="J58">
-        <v>10823</v>
-      </c>
-      <c r="K58">
-        <v>2806</v>
-      </c>
-      <c r="L58">
-        <v>58</v>
-      </c>
-      <c r="N58">
-        <v>10509</v>
-      </c>
-      <c r="O58">
-        <v>8077</v>
-      </c>
-      <c r="P58">
-        <v>2432</v>
-      </c>
-      <c r="Q58">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>17326</v>
       </c>
@@ -3770,32 +2376,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C59),D59)</f>
         <v>279.6260243932478</v>
       </c>
-      <c r="I59">
-        <v>17313</v>
-      </c>
-      <c r="J59">
-        <v>17697</v>
-      </c>
-      <c r="K59">
-        <v>-384</v>
-      </c>
-      <c r="L59">
-        <v>59</v>
-      </c>
-      <c r="N59">
-        <v>13922</v>
-      </c>
-      <c r="O59">
-        <v>14198</v>
-      </c>
-      <c r="P59">
-        <v>-276</v>
-      </c>
-      <c r="Q59">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>16228</v>
       </c>
@@ -3820,32 +2402,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C60),D60)</f>
         <v>275.97052211614613</v>
       </c>
-      <c r="I60">
-        <v>16331</v>
-      </c>
-      <c r="J60">
-        <v>16679</v>
-      </c>
-      <c r="K60">
-        <v>-348</v>
-      </c>
-      <c r="L60">
-        <v>60</v>
-      </c>
-      <c r="N60">
-        <v>14297</v>
-      </c>
-      <c r="O60">
-        <v>13849</v>
-      </c>
-      <c r="P60">
-        <v>448</v>
-      </c>
-      <c r="Q60">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>14918</v>
       </c>
@@ -3870,32 +2428,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C61),D61)</f>
         <v>271.29589915868138</v>
       </c>
-      <c r="I61">
-        <v>14934</v>
-      </c>
-      <c r="J61">
-        <v>14827</v>
-      </c>
-      <c r="K61">
-        <v>107</v>
-      </c>
-      <c r="L61">
-        <v>61</v>
-      </c>
-      <c r="N61">
-        <v>12121</v>
-      </c>
-      <c r="O61">
-        <v>11781</v>
-      </c>
-      <c r="P61">
-        <v>340</v>
-      </c>
-      <c r="Q61">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>9477</v>
       </c>
@@ -3920,32 +2454,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C62),D62)</f>
         <v>266.74647085494553</v>
       </c>
-      <c r="I62">
-        <v>9561</v>
-      </c>
-      <c r="J62">
-        <v>8723</v>
-      </c>
-      <c r="K62">
-        <v>838</v>
-      </c>
-      <c r="L62">
-        <v>62</v>
-      </c>
-      <c r="N62">
-        <v>9796</v>
-      </c>
-      <c r="O62">
-        <v>8763</v>
-      </c>
-      <c r="P62">
-        <v>1033</v>
-      </c>
-      <c r="Q62">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>15008</v>
       </c>
@@ -3970,32 +2480,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C63),D63)</f>
         <v>265.93854212241268</v>
       </c>
-      <c r="I63">
-        <v>14395</v>
-      </c>
-      <c r="J63">
-        <v>12781</v>
-      </c>
-      <c r="K63">
-        <v>1614</v>
-      </c>
-      <c r="L63">
-        <v>63</v>
-      </c>
-      <c r="N63">
-        <v>14766</v>
-      </c>
-      <c r="O63">
-        <v>12494</v>
-      </c>
-      <c r="P63">
-        <v>2272</v>
-      </c>
-      <c r="Q63">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>15284</v>
       </c>
@@ -4020,32 +2506,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C64),D64)</f>
         <v>263.18568325754569</v>
       </c>
-      <c r="I64">
-        <v>14832</v>
-      </c>
-      <c r="J64">
-        <v>13544</v>
-      </c>
-      <c r="K64">
-        <v>1288</v>
-      </c>
-      <c r="L64">
-        <v>64</v>
-      </c>
-      <c r="N64">
-        <v>15066</v>
-      </c>
-      <c r="O64">
-        <v>15212</v>
-      </c>
-      <c r="P64">
-        <v>-146</v>
-      </c>
-      <c r="Q64">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>12353</v>
       </c>
@@ -4070,32 +2532,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C65),D65)</f>
         <v>258.97913472994389</v>
       </c>
-      <c r="I65">
-        <v>14101</v>
-      </c>
-      <c r="J65">
-        <v>13305</v>
-      </c>
-      <c r="K65">
-        <v>796</v>
-      </c>
-      <c r="L65">
-        <v>65</v>
-      </c>
-      <c r="N65">
-        <v>8933</v>
-      </c>
-      <c r="O65">
-        <v>9032</v>
-      </c>
-      <c r="P65">
-        <v>-99</v>
-      </c>
-      <c r="Q65">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>13766</v>
       </c>
@@ -4120,32 +2558,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C66),D66)</f>
         <v>256.10091111211301</v>
       </c>
-      <c r="I66">
-        <v>14636</v>
-      </c>
-      <c r="J66">
-        <v>13173</v>
-      </c>
-      <c r="K66">
-        <v>1463</v>
-      </c>
-      <c r="L66">
-        <v>66</v>
-      </c>
-      <c r="N66">
-        <v>13886</v>
-      </c>
-      <c r="O66">
-        <v>12913</v>
-      </c>
-      <c r="P66">
-        <v>973</v>
-      </c>
-      <c r="Q66">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>10663</v>
       </c>
@@ -4170,32 +2584,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C67),D67)</f>
         <v>254.13818553657296</v>
       </c>
-      <c r="I67">
-        <v>10990</v>
-      </c>
-      <c r="J67">
-        <v>11270</v>
-      </c>
-      <c r="K67">
-        <v>-280</v>
-      </c>
-      <c r="L67">
-        <v>67</v>
-      </c>
-      <c r="N67">
-        <v>17837</v>
-      </c>
-      <c r="O67">
-        <v>15659</v>
-      </c>
-      <c r="P67">
-        <v>2178</v>
-      </c>
-      <c r="Q67">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>15770</v>
       </c>
@@ -4220,32 +2610,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C68),D68)</f>
         <v>250.47128660238417</v>
       </c>
-      <c r="I68">
-        <v>14017</v>
-      </c>
-      <c r="J68">
-        <v>14407</v>
-      </c>
-      <c r="K68">
-        <v>-390</v>
-      </c>
-      <c r="L68">
-        <v>68</v>
-      </c>
-      <c r="N68">
-        <v>15011</v>
-      </c>
-      <c r="O68">
-        <v>10913</v>
-      </c>
-      <c r="P68">
-        <v>4098</v>
-      </c>
-      <c r="Q68">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>8676</v>
       </c>
@@ -4270,32 +2636,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C69),D69)</f>
         <v>246.92386171746085</v>
       </c>
-      <c r="I69">
-        <v>11636</v>
-      </c>
-      <c r="J69">
-        <v>10877</v>
-      </c>
-      <c r="K69">
-        <v>759</v>
-      </c>
-      <c r="L69">
-        <v>69</v>
-      </c>
-      <c r="N69">
-        <v>10798</v>
-      </c>
-      <c r="O69">
-        <v>11513</v>
-      </c>
-      <c r="P69">
-        <v>-715</v>
-      </c>
-      <c r="Q69">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>16001</v>
       </c>
@@ -4320,32 +2662,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C70),D70)</f>
         <v>243.32342144818563</v>
       </c>
-      <c r="I70">
-        <v>15621</v>
-      </c>
-      <c r="J70">
-        <v>14763</v>
-      </c>
-      <c r="K70">
-        <v>858</v>
-      </c>
-      <c r="L70">
-        <v>70</v>
-      </c>
-      <c r="N70">
-        <v>15691</v>
-      </c>
-      <c r="O70">
-        <v>15859</v>
-      </c>
-      <c r="P70">
-        <v>-168</v>
-      </c>
-      <c r="Q70">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>11290</v>
       </c>
@@ -4370,32 +2688,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C71),D71)</f>
         <v>241.17738202221921</v>
       </c>
-      <c r="I71">
-        <v>11434</v>
-      </c>
-      <c r="J71">
-        <v>12077</v>
-      </c>
-      <c r="K71">
-        <v>-643</v>
-      </c>
-      <c r="L71">
-        <v>71</v>
-      </c>
-      <c r="N71">
-        <v>16088</v>
-      </c>
-      <c r="O71">
-        <v>14487</v>
-      </c>
-      <c r="P71">
-        <v>1601</v>
-      </c>
-      <c r="Q71">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>10908</v>
       </c>
@@ -4420,32 +2714,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C72),D72)</f>
         <v>237.74649670590398</v>
       </c>
-      <c r="I72">
-        <v>10839</v>
-      </c>
-      <c r="J72">
-        <v>9903</v>
-      </c>
-      <c r="K72">
-        <v>936</v>
-      </c>
-      <c r="L72">
-        <v>72</v>
-      </c>
-      <c r="N72">
-        <v>12947</v>
-      </c>
-      <c r="O72">
-        <v>13129</v>
-      </c>
-      <c r="P72">
-        <v>-182</v>
-      </c>
-      <c r="Q72">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>11315</v>
       </c>
@@ -4470,32 +2740,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C73),D73)</f>
         <v>234.37748244439163</v>
       </c>
-      <c r="I73">
-        <v>12763</v>
-      </c>
-      <c r="J73">
-        <v>11415</v>
-      </c>
-      <c r="K73">
-        <v>1348</v>
-      </c>
-      <c r="L73">
-        <v>73</v>
-      </c>
-      <c r="N73">
-        <v>9462</v>
-      </c>
-      <c r="O73">
-        <v>8108</v>
-      </c>
-      <c r="P73">
-        <v>1354</v>
-      </c>
-      <c r="Q73">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>12974</v>
       </c>
@@ -4520,32 +2766,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C74),D74)</f>
         <v>231.30520212569266</v>
       </c>
-      <c r="I74">
-        <v>13207</v>
-      </c>
-      <c r="J74">
-        <v>13855</v>
-      </c>
-      <c r="K74">
-        <v>-648</v>
-      </c>
-      <c r="L74">
-        <v>74</v>
-      </c>
-      <c r="N74">
-        <v>13712</v>
-      </c>
-      <c r="O74">
-        <v>11241</v>
-      </c>
-      <c r="P74">
-        <v>2471</v>
-      </c>
-      <c r="Q74">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>13771</v>
       </c>
@@ -4570,32 +2792,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C75),D75)</f>
         <v>228.16374990809513</v>
       </c>
-      <c r="I75">
-        <v>12147</v>
-      </c>
-      <c r="J75">
-        <v>12008</v>
-      </c>
-      <c r="K75">
-        <v>139</v>
-      </c>
-      <c r="L75">
-        <v>75</v>
-      </c>
-      <c r="N75">
-        <v>13529</v>
-      </c>
-      <c r="O75">
-        <v>13146</v>
-      </c>
-      <c r="P75">
-        <v>383</v>
-      </c>
-      <c r="Q75">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>15347</v>
       </c>
@@ -4620,32 +2818,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C76),D76)</f>
         <v>225.14107513967576</v>
       </c>
-      <c r="I76">
-        <v>16002</v>
-      </c>
-      <c r="J76">
-        <v>15090</v>
-      </c>
-      <c r="K76">
-        <v>912</v>
-      </c>
-      <c r="L76">
-        <v>76</v>
-      </c>
-      <c r="N76">
-        <v>13646</v>
-      </c>
-      <c r="O76">
-        <v>15116</v>
-      </c>
-      <c r="P76">
-        <v>-1470</v>
-      </c>
-      <c r="Q76">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>11626</v>
       </c>
@@ -4670,32 +2844,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C77),D77)</f>
         <v>222.12293722726105</v>
       </c>
-      <c r="I77">
-        <v>11572</v>
-      </c>
-      <c r="J77">
-        <v>11500</v>
-      </c>
-      <c r="K77">
-        <v>72</v>
-      </c>
-      <c r="L77">
-        <v>77</v>
-      </c>
-      <c r="N77">
-        <v>15963</v>
-      </c>
-      <c r="O77">
-        <v>14593</v>
-      </c>
-      <c r="P77">
-        <v>1370</v>
-      </c>
-      <c r="Q77">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>12578</v>
       </c>
@@ -4720,32 +2870,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C78),D78)</f>
         <v>223.24046596297944</v>
       </c>
-      <c r="I78">
-        <v>11815</v>
-      </c>
-      <c r="J78">
-        <v>10996</v>
-      </c>
-      <c r="K78">
-        <v>819</v>
-      </c>
-      <c r="L78">
-        <v>78</v>
-      </c>
-      <c r="N78">
-        <v>14540</v>
-      </c>
-      <c r="O78">
-        <v>12623</v>
-      </c>
-      <c r="P78">
-        <v>1917</v>
-      </c>
-      <c r="Q78">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>11009</v>
       </c>
@@ -4770,32 +2896,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C79),D79)</f>
         <v>222.78519993843918</v>
       </c>
-      <c r="I79">
-        <v>12040</v>
-      </c>
-      <c r="J79">
-        <v>10319</v>
-      </c>
-      <c r="K79">
-        <v>1721</v>
-      </c>
-      <c r="L79">
-        <v>79</v>
-      </c>
-      <c r="N79">
-        <v>12058</v>
-      </c>
-      <c r="O79">
-        <v>13436</v>
-      </c>
-      <c r="P79">
-        <v>-1378</v>
-      </c>
-      <c r="Q79">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>17682</v>
       </c>
@@ -4820,32 +2922,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C80),D80)</f>
         <v>220.8976476968237</v>
       </c>
-      <c r="I80">
-        <v>16991</v>
-      </c>
-      <c r="J80">
-        <v>16642</v>
-      </c>
-      <c r="K80">
-        <v>349</v>
-      </c>
-      <c r="L80">
-        <v>80</v>
-      </c>
-      <c r="N80">
-        <v>11912</v>
-      </c>
-      <c r="O80">
-        <v>12101</v>
-      </c>
-      <c r="P80">
-        <v>-189</v>
-      </c>
-      <c r="Q80">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>11955</v>
       </c>
@@ -4870,32 +2948,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C81),D81)</f>
         <v>218.30578512993981</v>
       </c>
-      <c r="I81">
-        <v>12838</v>
-      </c>
-      <c r="J81">
-        <v>13295</v>
-      </c>
-      <c r="K81">
-        <v>-457</v>
-      </c>
-      <c r="L81">
-        <v>81</v>
-      </c>
-      <c r="N81">
-        <v>13499</v>
-      </c>
-      <c r="O81">
-        <v>11148</v>
-      </c>
-      <c r="P81">
-        <v>2351</v>
-      </c>
-      <c r="Q81">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>14256</v>
       </c>
@@ -4920,32 +2974,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C82),D82)</f>
         <v>215.56232416064017</v>
       </c>
-      <c r="I82">
-        <v>13334</v>
-      </c>
-      <c r="J82">
-        <v>12723</v>
-      </c>
-      <c r="K82">
-        <v>611</v>
-      </c>
-      <c r="L82">
-        <v>82</v>
-      </c>
-      <c r="N82">
-        <v>13040</v>
-      </c>
-      <c r="O82">
-        <v>12052</v>
-      </c>
-      <c r="P82">
-        <v>988</v>
-      </c>
-      <c r="Q82">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>15566</v>
       </c>
@@ -4970,32 +3000,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C83),D83)</f>
         <v>213.65777026914162</v>
       </c>
-      <c r="I83">
-        <v>13780</v>
-      </c>
-      <c r="J83">
-        <v>13127</v>
-      </c>
-      <c r="K83">
-        <v>653</v>
-      </c>
-      <c r="L83">
-        <v>83</v>
-      </c>
-      <c r="N83">
-        <v>12206</v>
-      </c>
-      <c r="O83">
-        <v>12352</v>
-      </c>
-      <c r="P83">
-        <v>-146</v>
-      </c>
-      <c r="Q83">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>12827</v>
       </c>
@@ -5020,32 +3026,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C84),D84)</f>
         <v>212.21221261310421</v>
       </c>
-      <c r="I84">
-        <v>13469</v>
-      </c>
-      <c r="J84">
-        <v>12654</v>
-      </c>
-      <c r="K84">
-        <v>815</v>
-      </c>
-      <c r="L84">
-        <v>84</v>
-      </c>
-      <c r="N84">
-        <v>14832</v>
-      </c>
-      <c r="O84">
-        <v>15376</v>
-      </c>
-      <c r="P84">
-        <v>-544</v>
-      </c>
-      <c r="Q84">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>17286</v>
       </c>
@@ -5070,32 +3052,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C85),D85)</f>
         <v>209.69890017232888</v>
       </c>
-      <c r="I85">
-        <v>16806</v>
-      </c>
-      <c r="J85">
-        <v>16002</v>
-      </c>
-      <c r="K85">
-        <v>804</v>
-      </c>
-      <c r="L85">
-        <v>85</v>
-      </c>
-      <c r="N85">
-        <v>16248</v>
-      </c>
-      <c r="O85">
-        <v>15459</v>
-      </c>
-      <c r="P85">
-        <v>789</v>
-      </c>
-      <c r="Q85">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>13539</v>
       </c>
@@ -5120,32 +3078,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C86),D86)</f>
         <v>207.98894018890041</v>
       </c>
-      <c r="I86">
-        <v>13042</v>
-      </c>
-      <c r="J86">
-        <v>13285</v>
-      </c>
-      <c r="K86">
-        <v>-243</v>
-      </c>
-      <c r="L86">
-        <v>86</v>
-      </c>
-      <c r="N86">
-        <v>13987</v>
-      </c>
-      <c r="O86">
-        <v>14073</v>
-      </c>
-      <c r="P86">
-        <v>-86</v>
-      </c>
-      <c r="Q86">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>16610</v>
       </c>
@@ -5170,32 +3104,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C87),D87)</f>
         <v>207.60739000409455</v>
       </c>
-      <c r="I87">
-        <v>16604</v>
-      </c>
-      <c r="J87">
-        <v>16455</v>
-      </c>
-      <c r="K87">
-        <v>149</v>
-      </c>
-      <c r="L87">
-        <v>87</v>
-      </c>
-      <c r="N87">
-        <v>14320</v>
-      </c>
-      <c r="O87">
-        <v>12628</v>
-      </c>
-      <c r="P87">
-        <v>1692</v>
-      </c>
-      <c r="Q87">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>13519</v>
       </c>
@@ -5220,32 +3130,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C88),D88)</f>
         <v>205.5613105382977</v>
       </c>
-      <c r="I88">
-        <v>14766</v>
-      </c>
-      <c r="J88">
-        <v>12610</v>
-      </c>
-      <c r="K88">
-        <v>2156</v>
-      </c>
-      <c r="L88">
-        <v>88</v>
-      </c>
-      <c r="N88">
-        <v>15827</v>
-      </c>
-      <c r="O88">
-        <v>15613</v>
-      </c>
-      <c r="P88">
-        <v>214</v>
-      </c>
-      <c r="Q88">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>12459</v>
       </c>
@@ -5270,32 +3156,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C89),D89)</f>
         <v>203.27190546726945</v>
       </c>
-      <c r="I89">
-        <v>11541</v>
-      </c>
-      <c r="J89">
-        <v>11708</v>
-      </c>
-      <c r="K89">
-        <v>-167</v>
-      </c>
-      <c r="L89">
-        <v>89</v>
-      </c>
-      <c r="N89">
-        <v>12888</v>
-      </c>
-      <c r="O89">
-        <v>12155</v>
-      </c>
-      <c r="P89">
-        <v>733</v>
-      </c>
-      <c r="Q89">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>17406</v>
       </c>
@@ -5320,32 +3182,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C90),D90)</f>
         <v>201.71674582901755</v>
       </c>
-      <c r="I90">
-        <v>17618</v>
-      </c>
-      <c r="J90">
-        <v>17837</v>
-      </c>
-      <c r="K90">
-        <v>-219</v>
-      </c>
-      <c r="L90">
-        <v>90</v>
-      </c>
-      <c r="N90">
-        <v>13842</v>
-      </c>
-      <c r="O90">
-        <v>12011</v>
-      </c>
-      <c r="P90">
-        <v>1831</v>
-      </c>
-      <c r="Q90">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>13501</v>
       </c>
@@ -5370,32 +3208,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C91),D91)</f>
         <v>199.67284540876122</v>
       </c>
-      <c r="I91">
-        <v>11866</v>
-      </c>
-      <c r="J91">
-        <v>10849</v>
-      </c>
-      <c r="K91">
-        <v>1017</v>
-      </c>
-      <c r="L91">
-        <v>91</v>
-      </c>
-      <c r="N91">
-        <v>16537</v>
-      </c>
-      <c r="O91">
-        <v>15806</v>
-      </c>
-      <c r="P91">
-        <v>731</v>
-      </c>
-      <c r="Q91">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>14531</v>
       </c>
@@ -5420,32 +3234,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C92),D92)</f>
         <v>197.92655423171757</v>
       </c>
-      <c r="I92">
-        <v>15100</v>
-      </c>
-      <c r="J92">
-        <v>13392</v>
-      </c>
-      <c r="K92">
-        <v>1708</v>
-      </c>
-      <c r="L92">
-        <v>92</v>
-      </c>
-      <c r="N92">
-        <v>12324</v>
-      </c>
-      <c r="O92">
-        <v>12169</v>
-      </c>
-      <c r="P92">
-        <v>155</v>
-      </c>
-      <c r="Q92">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>13382</v>
       </c>
@@ -5470,32 +3260,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C93),D93)</f>
         <v>197.59188211944411</v>
       </c>
-      <c r="I93">
-        <v>12554</v>
-      </c>
-      <c r="J93">
-        <v>12757</v>
-      </c>
-      <c r="K93">
-        <v>-203</v>
-      </c>
-      <c r="L93">
-        <v>93</v>
-      </c>
-      <c r="N93">
-        <v>16669</v>
-      </c>
-      <c r="O93">
-        <v>16456</v>
-      </c>
-      <c r="P93">
-        <v>213</v>
-      </c>
-      <c r="Q93">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>10131</v>
       </c>
@@ -5520,32 +3286,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C94),D94)</f>
         <v>196.05806334336532</v>
       </c>
-      <c r="I94">
-        <v>11345</v>
-      </c>
-      <c r="J94">
-        <v>11821</v>
-      </c>
-      <c r="K94">
-        <v>-476</v>
-      </c>
-      <c r="L94">
-        <v>94</v>
-      </c>
-      <c r="N94">
-        <v>9697</v>
-      </c>
-      <c r="O94">
-        <v>7104</v>
-      </c>
-      <c r="P94">
-        <v>2593</v>
-      </c>
-      <c r="Q94">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>10697</v>
       </c>
@@ -5570,32 +3312,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C95),D95)</f>
         <v>194.52430070988342</v>
       </c>
-      <c r="I95">
-        <v>11243</v>
-      </c>
-      <c r="J95">
-        <v>10012</v>
-      </c>
-      <c r="K95">
-        <v>1231</v>
-      </c>
-      <c r="L95">
-        <v>95</v>
-      </c>
-      <c r="N95">
-        <v>14194</v>
-      </c>
-      <c r="O95">
-        <v>10857</v>
-      </c>
-      <c r="P95">
-        <v>3337</v>
-      </c>
-      <c r="Q95">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>15333</v>
       </c>
@@ -5620,32 +3338,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C96),D96)</f>
         <v>194.83254844286279</v>
       </c>
-      <c r="I96">
-        <v>14550</v>
-      </c>
-      <c r="J96">
-        <v>15297</v>
-      </c>
-      <c r="K96">
-        <v>-747</v>
-      </c>
-      <c r="L96">
-        <v>96</v>
-      </c>
-      <c r="N96">
-        <v>15195</v>
-      </c>
-      <c r="O96">
-        <v>13193</v>
-      </c>
-      <c r="P96">
-        <v>2002</v>
-      </c>
-      <c r="Q96">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>14304</v>
       </c>
@@ -5670,32 +3364,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C97),D97)</f>
         <v>193.59281010505725</v>
       </c>
-      <c r="I97">
-        <v>14203</v>
-      </c>
-      <c r="J97">
-        <v>13936</v>
-      </c>
-      <c r="K97">
-        <v>267</v>
-      </c>
-      <c r="L97">
-        <v>97</v>
-      </c>
-      <c r="N97">
-        <v>15237</v>
-      </c>
-      <c r="O97">
-        <v>15121</v>
-      </c>
-      <c r="P97">
-        <v>116</v>
-      </c>
-      <c r="Q97">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>16221</v>
       </c>
@@ -5720,32 +3390,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C98),D98)</f>
         <v>191.84997841366621</v>
       </c>
-      <c r="I98">
-        <v>14467</v>
-      </c>
-      <c r="J98">
-        <v>15252</v>
-      </c>
-      <c r="K98">
-        <v>-785</v>
-      </c>
-      <c r="L98">
-        <v>98</v>
-      </c>
-      <c r="N98">
-        <v>13597</v>
-      </c>
-      <c r="O98">
-        <v>12914</v>
-      </c>
-      <c r="P98">
-        <v>683</v>
-      </c>
-      <c r="Q98">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>11918</v>
       </c>
@@ -5770,32 +3416,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C99),D99)</f>
         <v>192.68604527731495</v>
       </c>
-      <c r="I99">
-        <v>11096</v>
-      </c>
-      <c r="J99">
-        <v>11990</v>
-      </c>
-      <c r="K99">
-        <v>-894</v>
-      </c>
-      <c r="L99">
-        <v>99</v>
-      </c>
-      <c r="N99">
-        <v>6948</v>
-      </c>
-      <c r="O99">
-        <v>6858</v>
-      </c>
-      <c r="P99">
-        <v>90</v>
-      </c>
-      <c r="Q99">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>14283</v>
       </c>
@@ -5820,32 +3442,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C100),D100)</f>
         <v>191.54296368444264</v>
       </c>
-      <c r="I100">
-        <v>13218</v>
-      </c>
-      <c r="J100">
-        <v>11570</v>
-      </c>
-      <c r="K100">
-        <v>1648</v>
-      </c>
-      <c r="L100">
-        <v>100</v>
-      </c>
-      <c r="N100">
-        <v>11852</v>
-      </c>
-      <c r="O100">
-        <v>10366</v>
-      </c>
-      <c r="P100">
-        <v>1486</v>
-      </c>
-      <c r="Q100">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>10976</v>
       </c>
@@ -5870,32 +3468,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C101),D101)</f>
         <v>189.64494609606786</v>
       </c>
-      <c r="I101">
-        <v>10845</v>
-      </c>
-      <c r="J101">
-        <v>10315</v>
-      </c>
-      <c r="K101">
-        <v>530</v>
-      </c>
-      <c r="L101">
-        <v>101</v>
-      </c>
-      <c r="N101">
-        <v>16686</v>
-      </c>
-      <c r="O101">
-        <v>16416</v>
-      </c>
-      <c r="P101">
-        <v>270</v>
-      </c>
-      <c r="Q101">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>16630</v>
       </c>
@@ -5920,32 +3494,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C102),D102)</f>
         <v>190.52323090144486</v>
       </c>
-      <c r="I102">
-        <v>16281</v>
-      </c>
-      <c r="J102">
-        <v>16611</v>
-      </c>
-      <c r="K102">
-        <v>-330</v>
-      </c>
-      <c r="L102">
-        <v>102</v>
-      </c>
-      <c r="N102">
-        <v>10336</v>
-      </c>
-      <c r="O102">
-        <v>10329</v>
-      </c>
-      <c r="P102">
-        <v>7</v>
-      </c>
-      <c r="Q102">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>12912</v>
       </c>
@@ -5970,32 +3520,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C103),D103)</f>
         <v>191.05180336554338</v>
       </c>
-      <c r="I103">
-        <v>14842</v>
-      </c>
-      <c r="J103">
-        <v>15376</v>
-      </c>
-      <c r="K103">
-        <v>-534</v>
-      </c>
-      <c r="L103">
-        <v>103</v>
-      </c>
-      <c r="N103">
-        <v>17319</v>
-      </c>
-      <c r="O103">
-        <v>18432</v>
-      </c>
-      <c r="P103">
-        <v>-1113</v>
-      </c>
-      <c r="Q103">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>11692</v>
       </c>
@@ -6020,32 +3546,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C104),D104)</f>
         <v>189.76703804193343</v>
       </c>
-      <c r="I104">
-        <v>12095</v>
-      </c>
-      <c r="J104">
-        <v>10339</v>
-      </c>
-      <c r="K104">
-        <v>1756</v>
-      </c>
-      <c r="L104">
-        <v>104</v>
-      </c>
-      <c r="N104">
-        <v>13370</v>
-      </c>
-      <c r="O104">
-        <v>12396</v>
-      </c>
-      <c r="P104">
-        <v>974</v>
-      </c>
-      <c r="Q104">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>12368</v>
       </c>
@@ -6070,32 +3572,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C105),D105)</f>
         <v>188.08272692608267</v>
       </c>
-      <c r="I105">
-        <v>12230</v>
-      </c>
-      <c r="J105">
-        <v>12882</v>
-      </c>
-      <c r="K105">
-        <v>-652</v>
-      </c>
-      <c r="L105">
-        <v>105</v>
-      </c>
-      <c r="N105">
-        <v>14862</v>
-      </c>
-      <c r="O105">
-        <v>14333</v>
-      </c>
-      <c r="P105">
-        <v>529</v>
-      </c>
-      <c r="Q105">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>19889</v>
       </c>
@@ -6120,32 +3598,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C106),D106)</f>
         <v>186.46798513504427</v>
       </c>
-      <c r="I106">
-        <v>19709</v>
-      </c>
-      <c r="J106">
-        <v>19320</v>
-      </c>
-      <c r="K106">
-        <v>389</v>
-      </c>
-      <c r="L106">
-        <v>106</v>
-      </c>
-      <c r="N106">
-        <v>13357</v>
-      </c>
-      <c r="O106">
-        <v>11339</v>
-      </c>
-      <c r="P106">
-        <v>2018</v>
-      </c>
-      <c r="Q106">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>8937</v>
       </c>
@@ -6170,32 +3624,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C107),D107)</f>
         <v>185.96500033124801</v>
       </c>
-      <c r="I107">
-        <v>10309</v>
-      </c>
-      <c r="J107">
-        <v>9222</v>
-      </c>
-      <c r="K107">
-        <v>1087</v>
-      </c>
-      <c r="L107">
-        <v>107</v>
-      </c>
-      <c r="N107">
-        <v>14348</v>
-      </c>
-      <c r="O107">
-        <v>12769</v>
-      </c>
-      <c r="P107">
-        <v>1579</v>
-      </c>
-      <c r="Q107">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>10970</v>
       </c>
@@ -6220,32 +3650,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C108),D108)</f>
         <v>187.44682214683326</v>
       </c>
-      <c r="I108">
-        <v>10419</v>
-      </c>
-      <c r="J108">
-        <v>10011</v>
-      </c>
-      <c r="K108">
-        <v>408</v>
-      </c>
-      <c r="L108">
-        <v>108</v>
-      </c>
-      <c r="N108">
-        <v>9154</v>
-      </c>
-      <c r="O108">
-        <v>7185</v>
-      </c>
-      <c r="P108">
-        <v>1969</v>
-      </c>
-      <c r="Q108">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>12132</v>
       </c>
@@ -6270,32 +3676,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C109),D109)</f>
         <v>187.45202300848686</v>
       </c>
-      <c r="I109">
-        <v>11586</v>
-      </c>
-      <c r="J109">
-        <v>12065</v>
-      </c>
-      <c r="K109">
-        <v>-479</v>
-      </c>
-      <c r="L109">
-        <v>109</v>
-      </c>
-      <c r="N109">
-        <v>13424</v>
-      </c>
-      <c r="O109">
-        <v>12956</v>
-      </c>
-      <c r="P109">
-        <v>468</v>
-      </c>
-      <c r="Q109">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>10626</v>
       </c>
@@ -6320,32 +3702,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C110),D110)</f>
         <v>187.9035624645731</v>
       </c>
-      <c r="I110">
-        <v>8829</v>
-      </c>
-      <c r="J110">
-        <v>8965</v>
-      </c>
-      <c r="K110">
-        <v>-136</v>
-      </c>
-      <c r="L110">
-        <v>110</v>
-      </c>
-      <c r="N110">
-        <v>12864</v>
-      </c>
-      <c r="O110">
-        <v>13587</v>
-      </c>
-      <c r="P110">
-        <v>-723</v>
-      </c>
-      <c r="Q110">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>16973</v>
       </c>
@@ -6370,32 +3728,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C111),D111)</f>
         <v>186.39178517541512</v>
       </c>
-      <c r="I111">
-        <v>17789</v>
-      </c>
-      <c r="J111">
-        <v>16518</v>
-      </c>
-      <c r="K111">
-        <v>1271</v>
-      </c>
-      <c r="L111">
-        <v>111</v>
-      </c>
-      <c r="N111">
-        <v>9825</v>
-      </c>
-      <c r="O111">
-        <v>8885</v>
-      </c>
-      <c r="P111">
-        <v>940</v>
-      </c>
-      <c r="Q111">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>14422</v>
       </c>
@@ -6420,32 +3754,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C112),D112)</f>
         <v>185.66341569496655</v>
       </c>
-      <c r="I112">
-        <v>13148</v>
-      </c>
-      <c r="J112">
-        <v>11633</v>
-      </c>
-      <c r="K112">
-        <v>1515</v>
-      </c>
-      <c r="L112">
-        <v>112</v>
-      </c>
-      <c r="N112">
-        <v>11757</v>
-      </c>
-      <c r="O112">
-        <v>10623</v>
-      </c>
-      <c r="P112">
-        <v>1134</v>
-      </c>
-      <c r="Q112">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>15882</v>
       </c>
@@ -6470,32 +3780,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C113),D113)</f>
         <v>184.64934640203276</v>
       </c>
-      <c r="I113">
-        <v>16178</v>
-      </c>
-      <c r="J113">
-        <v>14684</v>
-      </c>
-      <c r="K113">
-        <v>1494</v>
-      </c>
-      <c r="L113">
-        <v>113</v>
-      </c>
-      <c r="N113">
-        <v>13835</v>
-      </c>
-      <c r="O113">
-        <v>13668</v>
-      </c>
-      <c r="P113">
-        <v>167</v>
-      </c>
-      <c r="Q113">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>18907</v>
       </c>
@@ -6520,32 +3806,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C114),D114)</f>
         <v>183.12672450017399</v>
       </c>
-      <c r="I114">
-        <v>18060</v>
-      </c>
-      <c r="J114">
-        <v>17931</v>
-      </c>
-      <c r="K114">
-        <v>129</v>
-      </c>
-      <c r="L114">
-        <v>114</v>
-      </c>
-      <c r="N114">
-        <v>10284</v>
-      </c>
-      <c r="O114">
-        <v>8713</v>
-      </c>
-      <c r="P114">
-        <v>1571</v>
-      </c>
-      <c r="Q114">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>17530</v>
       </c>
@@ -6570,32 +3832,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C115),D115)</f>
         <v>181.96903533952758</v>
       </c>
-      <c r="I115">
-        <v>17397</v>
-      </c>
-      <c r="J115">
-        <v>17680</v>
-      </c>
-      <c r="K115">
-        <v>-283</v>
-      </c>
-      <c r="L115">
-        <v>115</v>
-      </c>
-      <c r="N115">
-        <v>14757</v>
-      </c>
-      <c r="O115">
-        <v>14995</v>
-      </c>
-      <c r="P115">
-        <v>-238</v>
-      </c>
-      <c r="Q115">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>15584</v>
       </c>
@@ -6620,32 +3858,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C116),D116)</f>
         <v>181.40718221436885</v>
       </c>
-      <c r="I116">
-        <v>15924</v>
-      </c>
-      <c r="J116">
-        <v>15852</v>
-      </c>
-      <c r="K116">
-        <v>72</v>
-      </c>
-      <c r="L116">
-        <v>116</v>
-      </c>
-      <c r="N116">
-        <v>16030</v>
-      </c>
-      <c r="O116">
-        <v>14739</v>
-      </c>
-      <c r="P116">
-        <v>1291</v>
-      </c>
-      <c r="Q116">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>13349</v>
       </c>
@@ -6670,32 +3884,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C117),D117)</f>
         <v>180.97074477513155</v>
       </c>
-      <c r="I117">
-        <v>12660</v>
-      </c>
-      <c r="J117">
-        <v>12260</v>
-      </c>
-      <c r="K117">
-        <v>400</v>
-      </c>
-      <c r="L117">
-        <v>117</v>
-      </c>
-      <c r="N117">
-        <v>14438</v>
-      </c>
-      <c r="O117">
-        <v>12865</v>
-      </c>
-      <c r="P117">
-        <v>1573</v>
-      </c>
-      <c r="Q117">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>15383</v>
       </c>
@@ -6720,32 +3910,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C118),D118)</f>
         <v>179.9609535222227</v>
       </c>
-      <c r="I118">
-        <v>17334</v>
-      </c>
-      <c r="J118">
-        <v>16984</v>
-      </c>
-      <c r="K118">
-        <v>350</v>
-      </c>
-      <c r="L118">
-        <v>118</v>
-      </c>
-      <c r="N118">
-        <v>14122</v>
-      </c>
-      <c r="O118">
-        <v>14335</v>
-      </c>
-      <c r="P118">
-        <v>-213</v>
-      </c>
-      <c r="Q118">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>10746</v>
       </c>
@@ -6770,32 +3936,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C119),D119)</f>
         <v>178.97132091892658</v>
       </c>
-      <c r="I119">
-        <v>9372</v>
-      </c>
-      <c r="J119">
-        <v>9268</v>
-      </c>
-      <c r="K119">
-        <v>104</v>
-      </c>
-      <c r="L119">
-        <v>119</v>
-      </c>
-      <c r="N119">
-        <v>11015</v>
-      </c>
-      <c r="O119">
-        <v>10657</v>
-      </c>
-      <c r="P119">
-        <v>358</v>
-      </c>
-      <c r="Q119">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>12842</v>
       </c>
@@ -6820,32 +3962,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C120),D120)</f>
         <v>177.46262951265754</v>
       </c>
-      <c r="I120">
-        <v>12864</v>
-      </c>
-      <c r="J120">
-        <v>12380</v>
-      </c>
-      <c r="K120">
-        <v>484</v>
-      </c>
-      <c r="L120">
-        <v>120</v>
-      </c>
-      <c r="N120">
-        <v>10622</v>
-      </c>
-      <c r="O120">
-        <v>10657</v>
-      </c>
-      <c r="P120">
-        <v>-35</v>
-      </c>
-      <c r="Q120">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>10963</v>
       </c>
@@ -6870,32 +3988,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C121),D121)</f>
         <v>176.51385535666697</v>
       </c>
-      <c r="I121">
-        <v>7749</v>
-      </c>
-      <c r="J121">
-        <v>7779</v>
-      </c>
-      <c r="K121">
-        <v>-30</v>
-      </c>
-      <c r="L121">
-        <v>121</v>
-      </c>
-      <c r="N121">
-        <v>12409</v>
-      </c>
-      <c r="O121">
-        <v>11507</v>
-      </c>
-      <c r="P121">
-        <v>902</v>
-      </c>
-      <c r="Q121">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>8345</v>
       </c>
@@ -6920,32 +4014,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C122),D122)</f>
         <v>175.2165154818039</v>
       </c>
-      <c r="I122">
-        <v>9136</v>
-      </c>
-      <c r="J122">
-        <v>8436</v>
-      </c>
-      <c r="K122">
-        <v>700</v>
-      </c>
-      <c r="L122">
-        <v>122</v>
-      </c>
-      <c r="N122">
-        <v>14030</v>
-      </c>
-      <c r="O122">
-        <v>13780</v>
-      </c>
-      <c r="P122">
-        <v>250</v>
-      </c>
-      <c r="Q122">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>14968</v>
       </c>
@@ -6970,32 +4040,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C123),D123)</f>
         <v>173.80504393203316</v>
       </c>
-      <c r="I123">
-        <v>15258</v>
-      </c>
-      <c r="J123">
-        <v>14750</v>
-      </c>
-      <c r="K123">
-        <v>508</v>
-      </c>
-      <c r="L123">
-        <v>123</v>
-      </c>
-      <c r="N123">
-        <v>14328</v>
-      </c>
-      <c r="O123">
-        <v>14774</v>
-      </c>
-      <c r="P123">
-        <v>-446</v>
-      </c>
-      <c r="Q123">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>13513</v>
       </c>
@@ -7020,32 +4066,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C124),D124)</f>
         <v>174.63957062948128</v>
       </c>
-      <c r="I124">
-        <v>14334</v>
-      </c>
-      <c r="J124">
-        <v>14713</v>
-      </c>
-      <c r="K124">
-        <v>-379</v>
-      </c>
-      <c r="L124">
-        <v>124</v>
-      </c>
-      <c r="N124">
-        <v>11406</v>
-      </c>
-      <c r="O124">
-        <v>13628</v>
-      </c>
-      <c r="P124">
-        <v>-2222</v>
-      </c>
-      <c r="Q124">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>3530</v>
       </c>
@@ -7070,32 +4092,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C125),D125)</f>
         <v>182.68324796881191</v>
       </c>
-      <c r="I125">
-        <v>6104</v>
-      </c>
-      <c r="J125">
-        <v>4258</v>
-      </c>
-      <c r="K125">
-        <v>1846</v>
-      </c>
-      <c r="L125">
-        <v>125</v>
-      </c>
-      <c r="N125">
-        <v>14257</v>
-      </c>
-      <c r="O125">
-        <v>13884</v>
-      </c>
-      <c r="P125">
-        <v>373</v>
-      </c>
-      <c r="Q125">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>11009</v>
       </c>
@@ -7120,32 +4118,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C126),D126)</f>
         <v>181.47821307085312</v>
       </c>
-      <c r="I126">
-        <v>11279</v>
-      </c>
-      <c r="J126">
-        <v>11066</v>
-      </c>
-      <c r="K126">
-        <v>213</v>
-      </c>
-      <c r="L126">
-        <v>126</v>
-      </c>
-      <c r="N126">
-        <v>13785</v>
-      </c>
-      <c r="O126">
-        <v>11112</v>
-      </c>
-      <c r="P126">
-        <v>2673</v>
-      </c>
-      <c r="Q126">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>17535</v>
       </c>
@@ -7170,32 +4144,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C127),D127)</f>
         <v>180.22448623211801</v>
       </c>
-      <c r="I127">
-        <v>17709</v>
-      </c>
-      <c r="J127">
-        <v>17146</v>
-      </c>
-      <c r="K127">
-        <v>563</v>
-      </c>
-      <c r="L127">
-        <v>127</v>
-      </c>
-      <c r="N127">
-        <v>14104</v>
-      </c>
-      <c r="O127">
-        <v>14041</v>
-      </c>
-      <c r="P127">
-        <v>63</v>
-      </c>
-      <c r="Q127">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>13083</v>
       </c>
@@ -7220,32 +4170,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C128),D128)</f>
         <v>178.95603782723035</v>
       </c>
-      <c r="I128">
-        <v>13442</v>
-      </c>
-      <c r="J128">
-        <v>12598</v>
-      </c>
-      <c r="K128">
-        <v>844</v>
-      </c>
-      <c r="L128">
-        <v>128</v>
-      </c>
-      <c r="N128">
-        <v>15931</v>
-      </c>
-      <c r="O128">
-        <v>14627</v>
-      </c>
-      <c r="P128">
-        <v>1304</v>
-      </c>
-      <c r="Q128">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>13035</v>
       </c>
@@ -7270,32 +4196,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C129),D129)</f>
         <v>177.55806429856349</v>
       </c>
-      <c r="I129">
-        <v>13401</v>
-      </c>
-      <c r="J129">
-        <v>13243</v>
-      </c>
-      <c r="K129">
-        <v>158</v>
-      </c>
-      <c r="L129">
-        <v>129</v>
-      </c>
-      <c r="N129">
-        <v>10917</v>
-      </c>
-      <c r="O129">
-        <v>10648</v>
-      </c>
-      <c r="P129">
-        <v>269</v>
-      </c>
-      <c r="Q129">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>13803</v>
       </c>
@@ -7320,32 +4222,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C130),D130)</f>
         <v>181.99542833910863</v>
       </c>
-      <c r="I130">
-        <v>14104</v>
-      </c>
-      <c r="J130">
-        <v>13951</v>
-      </c>
-      <c r="K130">
-        <v>153</v>
-      </c>
-      <c r="L130">
-        <v>130</v>
-      </c>
-      <c r="N130">
-        <v>11573</v>
-      </c>
-      <c r="O130">
-        <v>12073</v>
-      </c>
-      <c r="P130">
-        <v>-500</v>
-      </c>
-      <c r="Q130">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>12185</v>
       </c>
@@ -7370,32 +4248,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C131),D131)</f>
         <v>180.84943333654698</v>
       </c>
-      <c r="I131">
-        <v>12511</v>
-      </c>
-      <c r="J131">
-        <v>11343</v>
-      </c>
-      <c r="K131">
-        <v>1168</v>
-      </c>
-      <c r="L131">
-        <v>131</v>
-      </c>
-      <c r="N131">
-        <v>15690</v>
-      </c>
-      <c r="O131">
-        <v>14722</v>
-      </c>
-      <c r="P131">
-        <v>968</v>
-      </c>
-      <c r="Q131">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>16040</v>
       </c>
@@ -7420,32 +4274,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C132),D132)</f>
         <v>179.57834552144186</v>
       </c>
-      <c r="I132">
-        <v>16485</v>
-      </c>
-      <c r="J132">
-        <v>16307</v>
-      </c>
-      <c r="K132">
-        <v>178</v>
-      </c>
-      <c r="L132">
-        <v>132</v>
-      </c>
-      <c r="N132">
-        <v>8745</v>
-      </c>
-      <c r="O132">
-        <v>9249</v>
-      </c>
-      <c r="P132">
-        <v>-504</v>
-      </c>
-      <c r="Q132">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>13396</v>
       </c>
@@ -7470,32 +4300,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C133),D133)</f>
         <v>178.67756750444545</v>
       </c>
-      <c r="I133">
-        <v>13683</v>
-      </c>
-      <c r="J133">
-        <v>12529</v>
-      </c>
-      <c r="K133">
-        <v>1154</v>
-      </c>
-      <c r="L133">
-        <v>133</v>
-      </c>
-      <c r="N133">
-        <v>11377</v>
-      </c>
-      <c r="O133">
-        <v>11124</v>
-      </c>
-      <c r="P133">
-        <v>253</v>
-      </c>
-      <c r="Q133">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>13113</v>
       </c>
@@ -7520,32 +4326,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C134),D134)</f>
         <v>177.55859402078866</v>
       </c>
-      <c r="I134">
-        <v>13344</v>
-      </c>
-      <c r="J134">
-        <v>13829</v>
-      </c>
-      <c r="K134">
-        <v>-485</v>
-      </c>
-      <c r="L134">
-        <v>134</v>
-      </c>
-      <c r="N134">
-        <v>17731</v>
-      </c>
-      <c r="O134">
-        <v>16849</v>
-      </c>
-      <c r="P134">
-        <v>882</v>
-      </c>
-      <c r="Q134">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>15196</v>
       </c>
@@ -7570,32 +4352,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C135),D135)</f>
         <v>176.74789901347907</v>
       </c>
-      <c r="I135">
-        <v>14390</v>
-      </c>
-      <c r="J135">
-        <v>14448</v>
-      </c>
-      <c r="K135">
-        <v>-58</v>
-      </c>
-      <c r="L135">
-        <v>135</v>
-      </c>
-      <c r="N135">
-        <v>13597</v>
-      </c>
-      <c r="O135">
-        <v>13192</v>
-      </c>
-      <c r="P135">
-        <v>405</v>
-      </c>
-      <c r="Q135">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>9394</v>
       </c>
@@ -7620,32 +4378,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C136),D136)</f>
         <v>175.42924410419525</v>
       </c>
-      <c r="I136">
-        <v>11114</v>
-      </c>
-      <c r="J136">
-        <v>11025</v>
-      </c>
-      <c r="K136">
-        <v>89</v>
-      </c>
-      <c r="L136">
-        <v>136</v>
-      </c>
-      <c r="N136">
-        <v>11648</v>
-      </c>
-      <c r="O136">
-        <v>12370</v>
-      </c>
-      <c r="P136">
-        <v>-722</v>
-      </c>
-      <c r="Q136">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>10668</v>
       </c>
@@ -7670,32 +4404,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C137),D137)</f>
         <v>174.24703333697073</v>
       </c>
-      <c r="I137">
-        <v>12117</v>
-      </c>
-      <c r="J137">
-        <v>11623</v>
-      </c>
-      <c r="K137">
-        <v>494</v>
-      </c>
-      <c r="L137">
-        <v>137</v>
-      </c>
-      <c r="N137">
-        <v>12242</v>
-      </c>
-      <c r="O137">
-        <v>12425</v>
-      </c>
-      <c r="P137">
-        <v>-183</v>
-      </c>
-      <c r="Q137">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>12950</v>
       </c>
@@ -7720,32 +4430,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C138),D138)</f>
         <v>173.36139019590186</v>
       </c>
-      <c r="I138">
-        <v>12734</v>
-      </c>
-      <c r="J138">
-        <v>12716</v>
-      </c>
-      <c r="K138">
-        <v>18</v>
-      </c>
-      <c r="L138">
-        <v>138</v>
-      </c>
-      <c r="N138">
-        <v>11692</v>
-      </c>
-      <c r="O138">
-        <v>11199</v>
-      </c>
-      <c r="P138">
-        <v>493</v>
-      </c>
-      <c r="Q138">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>12343</v>
       </c>
@@ -7770,32 +4456,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C139),D139)</f>
         <v>172.16849153484543</v>
       </c>
-      <c r="I139">
-        <v>13845</v>
-      </c>
-      <c r="J139">
-        <v>13221</v>
-      </c>
-      <c r="K139">
-        <v>624</v>
-      </c>
-      <c r="L139">
-        <v>139</v>
-      </c>
-      <c r="N139">
-        <v>4678</v>
-      </c>
-      <c r="O139">
-        <v>6404</v>
-      </c>
-      <c r="P139">
-        <v>-1726</v>
-      </c>
-      <c r="Q139">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>14981</v>
       </c>
@@ -7820,32 +4482,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C140),D140)</f>
         <v>171.00505792746512</v>
       </c>
-      <c r="I140">
-        <v>16065</v>
-      </c>
-      <c r="J140">
-        <v>16001</v>
-      </c>
-      <c r="K140">
-        <v>64</v>
-      </c>
-      <c r="L140">
-        <v>140</v>
-      </c>
-      <c r="N140">
-        <v>13699</v>
-      </c>
-      <c r="O140">
-        <v>13172</v>
-      </c>
-      <c r="P140">
-        <v>527</v>
-      </c>
-      <c r="Q140">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>15548</v>
       </c>
@@ -7870,32 +4508,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C141),D141)</f>
         <v>170.11752046149644</v>
       </c>
-      <c r="I141">
-        <v>15630</v>
-      </c>
-      <c r="J141">
-        <v>15072</v>
-      </c>
-      <c r="K141">
-        <v>558</v>
-      </c>
-      <c r="L141">
-        <v>141</v>
-      </c>
-      <c r="N141">
-        <v>16929</v>
-      </c>
-      <c r="O141">
-        <v>15258</v>
-      </c>
-      <c r="P141">
-        <v>1671</v>
-      </c>
-      <c r="Q141">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>13054</v>
       </c>
@@ -7920,32 +4534,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C142),D142)</f>
         <v>169.15811679167624</v>
       </c>
-      <c r="I142">
-        <v>11578</v>
-      </c>
-      <c r="J142">
-        <v>12078</v>
-      </c>
-      <c r="K142">
-        <v>-500</v>
-      </c>
-      <c r="L142">
-        <v>142</v>
-      </c>
-      <c r="N142">
-        <v>13137</v>
-      </c>
-      <c r="O142">
-        <v>12864</v>
-      </c>
-      <c r="P142">
-        <v>273</v>
-      </c>
-      <c r="Q142">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>13638</v>
       </c>
@@ -7970,32 +4560,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C143),D143)</f>
         <v>168.23404508896124</v>
       </c>
-      <c r="I143">
-        <v>14529</v>
-      </c>
-      <c r="J143">
-        <v>13554</v>
-      </c>
-      <c r="K143">
-        <v>975</v>
-      </c>
-      <c r="L143">
-        <v>143</v>
-      </c>
-      <c r="N143">
-        <v>11320</v>
-      </c>
-      <c r="O143">
-        <v>10907</v>
-      </c>
-      <c r="P143">
-        <v>413</v>
-      </c>
-      <c r="Q143">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>14999</v>
       </c>
@@ -8020,32 +4586,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C144),D144)</f>
         <v>167.18337331606241</v>
       </c>
-      <c r="I144">
-        <v>14865</v>
-      </c>
-      <c r="J144">
-        <v>15064</v>
-      </c>
-      <c r="K144">
-        <v>-199</v>
-      </c>
-      <c r="L144">
-        <v>144</v>
-      </c>
-      <c r="N144">
-        <v>13259</v>
-      </c>
-      <c r="O144">
-        <v>13344</v>
-      </c>
-      <c r="P144">
-        <v>-85</v>
-      </c>
-      <c r="Q144">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>17091</v>
       </c>
@@ -8070,32 +4612,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C145),D145)</f>
         <v>166.06630750685258</v>
       </c>
-      <c r="I145">
-        <v>15542</v>
-      </c>
-      <c r="J145">
-        <v>16321</v>
-      </c>
-      <c r="K145">
-        <v>-779</v>
-      </c>
-      <c r="L145">
-        <v>145</v>
-      </c>
-      <c r="N145">
-        <v>13213</v>
-      </c>
-      <c r="O145">
-        <v>12965</v>
-      </c>
-      <c r="P145">
-        <v>248</v>
-      </c>
-      <c r="Q145">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>16116</v>
       </c>
@@ -8120,32 +4638,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C146),D146)</f>
         <v>164.92983797220361</v>
       </c>
-      <c r="I146">
-        <v>16338</v>
-      </c>
-      <c r="J146">
-        <v>16643</v>
-      </c>
-      <c r="K146">
-        <v>-305</v>
-      </c>
-      <c r="L146">
-        <v>146</v>
-      </c>
-      <c r="N146">
-        <v>15536</v>
-      </c>
-      <c r="O146">
-        <v>15122</v>
-      </c>
-      <c r="P146">
-        <v>414</v>
-      </c>
-      <c r="Q146">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>6692</v>
       </c>
@@ -8170,32 +4664,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C147),D147)</f>
         <v>164.32832807565021</v>
       </c>
-      <c r="I147">
-        <v>6951</v>
-      </c>
-      <c r="J147">
-        <v>6181</v>
-      </c>
-      <c r="K147">
-        <v>770</v>
-      </c>
-      <c r="L147">
-        <v>147</v>
-      </c>
-      <c r="N147">
-        <v>16894</v>
-      </c>
-      <c r="O147">
-        <v>17287</v>
-      </c>
-      <c r="P147">
-        <v>-393</v>
-      </c>
-      <c r="Q147">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>11274</v>
       </c>
@@ -8220,32 +4690,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C148),D148)</f>
         <v>163.29834334856997</v>
       </c>
-      <c r="I148">
-        <v>11264</v>
-      </c>
-      <c r="J148">
-        <v>10250</v>
-      </c>
-      <c r="K148">
-        <v>1014</v>
-      </c>
-      <c r="L148">
-        <v>148</v>
-      </c>
-      <c r="N148">
-        <v>15106</v>
-      </c>
-      <c r="O148">
-        <v>12754</v>
-      </c>
-      <c r="P148">
-        <v>2352</v>
-      </c>
-      <c r="Q148">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>11402</v>
       </c>
@@ -8270,32 +4716,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C149),D149)</f>
         <v>162.20469670032659</v>
       </c>
-      <c r="I149">
-        <v>12838</v>
-      </c>
-      <c r="J149">
-        <v>11796</v>
-      </c>
-      <c r="K149">
-        <v>1042</v>
-      </c>
-      <c r="L149">
-        <v>149</v>
-      </c>
-      <c r="N149">
-        <v>14103</v>
-      </c>
-      <c r="O149">
-        <v>12693</v>
-      </c>
-      <c r="P149">
-        <v>1410</v>
-      </c>
-      <c r="Q149">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>17617</v>
       </c>
@@ -8320,32 +4742,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C150),D150)</f>
         <v>161.17350702223155</v>
       </c>
-      <c r="I150">
-        <v>16826</v>
-      </c>
-      <c r="J150">
-        <v>17222</v>
-      </c>
-      <c r="K150">
-        <v>-396</v>
-      </c>
-      <c r="L150">
-        <v>150</v>
-      </c>
-      <c r="N150">
-        <v>13988</v>
-      </c>
-      <c r="O150">
-        <v>13859</v>
-      </c>
-      <c r="P150">
-        <v>129</v>
-      </c>
-      <c r="Q150">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>12377</v>
       </c>
@@ -8370,32 +4768,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C151),D151)</f>
         <v>160.10236553974499</v>
       </c>
-      <c r="I151">
-        <v>12554</v>
-      </c>
-      <c r="J151">
-        <v>12245</v>
-      </c>
-      <c r="K151">
-        <v>309</v>
-      </c>
-      <c r="L151">
-        <v>151</v>
-      </c>
-      <c r="N151">
-        <v>11679</v>
-      </c>
-      <c r="O151">
-        <v>12374</v>
-      </c>
-      <c r="P151">
-        <v>-695</v>
-      </c>
-      <c r="Q151">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>13030</v>
       </c>
@@ -8420,32 +4794,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C152),D152)</f>
         <v>160.77610887725461</v>
       </c>
-      <c r="I152">
-        <v>11586</v>
-      </c>
-      <c r="J152">
-        <v>11167</v>
-      </c>
-      <c r="K152">
-        <v>419</v>
-      </c>
-      <c r="L152">
-        <v>152</v>
-      </c>
-      <c r="N152">
-        <v>4933</v>
-      </c>
-      <c r="O152">
-        <v>5152</v>
-      </c>
-      <c r="P152">
-        <v>-219</v>
-      </c>
-      <c r="Q152">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>10937</v>
       </c>
@@ -8470,32 +4820,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C153),D153)</f>
         <v>160.55361473967847</v>
       </c>
-      <c r="I153">
-        <v>10586</v>
-      </c>
-      <c r="J153">
-        <v>8867</v>
-      </c>
-      <c r="K153">
-        <v>1719</v>
-      </c>
-      <c r="L153">
-        <v>153</v>
-      </c>
-      <c r="N153">
-        <v>12498</v>
-      </c>
-      <c r="O153">
-        <v>10641</v>
-      </c>
-      <c r="P153">
-        <v>1857</v>
-      </c>
-      <c r="Q153">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>11180</v>
       </c>
@@ -8520,32 +4846,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C154),D154)</f>
         <v>159.71756909366027</v>
       </c>
-      <c r="I154">
-        <v>10929</v>
-      </c>
-      <c r="J154">
-        <v>10949</v>
-      </c>
-      <c r="K154">
-        <v>-20</v>
-      </c>
-      <c r="L154">
-        <v>154</v>
-      </c>
-      <c r="N154">
-        <v>8792</v>
-      </c>
-      <c r="O154">
-        <v>9588</v>
-      </c>
-      <c r="P154">
-        <v>-796</v>
-      </c>
-      <c r="Q154">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>13976</v>
       </c>
@@ -8570,32 +4872,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C155),D155)</f>
         <v>158.71200158537258</v>
       </c>
-      <c r="I155">
-        <v>13349</v>
-      </c>
-      <c r="J155">
-        <v>13140</v>
-      </c>
-      <c r="K155">
-        <v>209</v>
-      </c>
-      <c r="L155">
-        <v>155</v>
-      </c>
-      <c r="N155">
-        <v>15928</v>
-      </c>
-      <c r="O155">
-        <v>15034</v>
-      </c>
-      <c r="P155">
-        <v>894</v>
-      </c>
-      <c r="Q155">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>12753</v>
       </c>
@@ -8620,32 +4898,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C156),D156)</f>
         <v>157.99681560643538</v>
       </c>
-      <c r="I156">
-        <v>11029</v>
-      </c>
-      <c r="J156">
-        <v>10569</v>
-      </c>
-      <c r="K156">
-        <v>460</v>
-      </c>
-      <c r="L156">
-        <v>156</v>
-      </c>
-      <c r="N156">
-        <v>14430</v>
-      </c>
-      <c r="O156">
-        <v>14146</v>
-      </c>
-      <c r="P156">
-        <v>284</v>
-      </c>
-      <c r="Q156">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>13530</v>
       </c>
@@ -8670,32 +4924,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C157),D157)</f>
         <v>157.03351314964547</v>
       </c>
-      <c r="I157">
-        <v>12644</v>
-      </c>
-      <c r="J157">
-        <v>12740</v>
-      </c>
-      <c r="K157">
-        <v>-96</v>
-      </c>
-      <c r="L157">
-        <v>157</v>
-      </c>
-      <c r="N157">
-        <v>13519</v>
-      </c>
-      <c r="O157">
-        <v>12872</v>
-      </c>
-      <c r="P157">
-        <v>647</v>
-      </c>
-      <c r="Q157">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>16951</v>
       </c>
@@ -8720,32 +4950,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C158),D158)</f>
         <v>156.21526249696296</v>
       </c>
-      <c r="I158">
-        <v>18029</v>
-      </c>
-      <c r="J158">
-        <v>16532</v>
-      </c>
-      <c r="K158">
-        <v>1497</v>
-      </c>
-      <c r="L158">
-        <v>158</v>
-      </c>
-      <c r="N158">
-        <v>8000</v>
-      </c>
-      <c r="O158">
-        <v>10385</v>
-      </c>
-      <c r="P158">
-        <v>-2385</v>
-      </c>
-      <c r="Q158">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>11461</v>
       </c>
@@ -8770,32 +4976,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C159),D159)</f>
         <v>156.29669978004281</v>
       </c>
-      <c r="I159">
-        <v>12404</v>
-      </c>
-      <c r="J159">
-        <v>12426</v>
-      </c>
-      <c r="K159">
-        <v>-22</v>
-      </c>
-      <c r="L159">
-        <v>159</v>
-      </c>
-      <c r="N159">
-        <v>16678</v>
-      </c>
-      <c r="O159">
-        <v>15462</v>
-      </c>
-      <c r="P159">
-        <v>1216</v>
-      </c>
-      <c r="Q159">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>15204</v>
       </c>
@@ -8820,32 +5002,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C160),D160)</f>
         <v>155.65124849321336</v>
       </c>
-      <c r="I160">
-        <v>13836</v>
-      </c>
-      <c r="J160">
-        <v>12969</v>
-      </c>
-      <c r="K160">
-        <v>867</v>
-      </c>
-      <c r="L160">
-        <v>160</v>
-      </c>
-      <c r="N160">
-        <v>12005</v>
-      </c>
-      <c r="O160">
-        <v>11922</v>
-      </c>
-      <c r="P160">
-        <v>83</v>
-      </c>
-      <c r="Q160">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>15373</v>
       </c>
@@ -8870,32 +5028,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C161),D161)</f>
         <v>154.78072438185799</v>
       </c>
-      <c r="I161">
-        <v>15650</v>
-      </c>
-      <c r="J161">
-        <v>15282</v>
-      </c>
-      <c r="K161">
-        <v>368</v>
-      </c>
-      <c r="L161">
-        <v>161</v>
-      </c>
-      <c r="N161">
-        <v>16556</v>
-      </c>
-      <c r="O161">
-        <v>17045</v>
-      </c>
-      <c r="P161">
-        <v>-489</v>
-      </c>
-      <c r="Q161">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>15225</v>
       </c>
@@ -8920,32 +5054,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C162),D162)</f>
         <v>153.99090196220641</v>
       </c>
-      <c r="I162">
-        <v>14235</v>
-      </c>
-      <c r="J162">
-        <v>13739</v>
-      </c>
-      <c r="K162">
-        <v>496</v>
-      </c>
-      <c r="L162">
-        <v>162</v>
-      </c>
-      <c r="N162">
-        <v>15054</v>
-      </c>
-      <c r="O162">
-        <v>14553</v>
-      </c>
-      <c r="P162">
-        <v>501</v>
-      </c>
-      <c r="Q162">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>14321</v>
       </c>
@@ -8970,32 +5080,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C163),D163)</f>
         <v>153.07723512234847</v>
       </c>
-      <c r="I163">
-        <v>13926</v>
-      </c>
-      <c r="J163">
-        <v>13623</v>
-      </c>
-      <c r="K163">
-        <v>303</v>
-      </c>
-      <c r="L163">
-        <v>163</v>
-      </c>
-      <c r="N163">
-        <v>12841</v>
-      </c>
-      <c r="O163">
-        <v>13273</v>
-      </c>
-      <c r="P163">
-        <v>-432</v>
-      </c>
-      <c r="Q163">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>15332</v>
       </c>
@@ -9020,32 +5106,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C164),D164)</f>
         <v>152.32626093489407</v>
       </c>
-      <c r="I164">
-        <v>15502</v>
-      </c>
-      <c r="J164">
-        <v>16931</v>
-      </c>
-      <c r="K164">
-        <v>-1429</v>
-      </c>
-      <c r="L164">
-        <v>164</v>
-      </c>
-      <c r="N164">
-        <v>14788</v>
-      </c>
-      <c r="O164">
-        <v>14081</v>
-      </c>
-      <c r="P164">
-        <v>707</v>
-      </c>
-      <c r="Q164">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>11999</v>
       </c>
@@ -9070,32 +5132,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C165),D165)</f>
         <v>152.35337794650218</v>
       </c>
-      <c r="I165">
-        <v>11149</v>
-      </c>
-      <c r="J165">
-        <v>11740</v>
-      </c>
-      <c r="K165">
-        <v>-591</v>
-      </c>
-      <c r="L165">
-        <v>165</v>
-      </c>
-      <c r="N165">
-        <v>12628</v>
-      </c>
-      <c r="O165">
-        <v>12140</v>
-      </c>
-      <c r="P165">
-        <v>488</v>
-      </c>
-      <c r="Q165">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>14759</v>
       </c>
@@ -9120,32 +5158,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C166),D166)</f>
         <v>152.32876791121618</v>
       </c>
-      <c r="I166">
-        <v>15268</v>
-      </c>
-      <c r="J166">
-        <v>13905</v>
-      </c>
-      <c r="K166">
-        <v>1363</v>
-      </c>
-      <c r="L166">
-        <v>166</v>
-      </c>
-      <c r="N166">
-        <v>14895</v>
-      </c>
-      <c r="O166">
-        <v>13333</v>
-      </c>
-      <c r="P166">
-        <v>1562</v>
-      </c>
-      <c r="Q166">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>12996</v>
       </c>
@@ -9170,32 +5184,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C167),D167)</f>
         <v>151.40345105562841</v>
       </c>
-      <c r="I167">
-        <v>11277</v>
-      </c>
-      <c r="J167">
-        <v>11202</v>
-      </c>
-      <c r="K167">
-        <v>75</v>
-      </c>
-      <c r="L167">
-        <v>167</v>
-      </c>
-      <c r="N167">
-        <v>9902</v>
-      </c>
-      <c r="O167">
-        <v>9137</v>
-      </c>
-      <c r="P167">
-        <v>765</v>
-      </c>
-      <c r="Q167">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>17416</v>
       </c>
@@ -9220,32 +5210,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C168),D168)</f>
         <v>150.53138197919105</v>
       </c>
-      <c r="I168">
-        <v>18010</v>
-      </c>
-      <c r="J168">
-        <v>17486</v>
-      </c>
-      <c r="K168">
-        <v>524</v>
-      </c>
-      <c r="L168">
-        <v>168</v>
-      </c>
-      <c r="N168">
-        <v>10281</v>
-      </c>
-      <c r="O168">
-        <v>8535</v>
-      </c>
-      <c r="P168">
-        <v>1746</v>
-      </c>
-      <c r="Q168">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>17564</v>
       </c>
@@ -9270,32 +5236,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C169),D169)</f>
         <v>149.66927414860098</v>
       </c>
-      <c r="I169">
-        <v>18123</v>
-      </c>
-      <c r="J169">
-        <v>18311</v>
-      </c>
-      <c r="K169">
-        <v>-188</v>
-      </c>
-      <c r="L169">
-        <v>169</v>
-      </c>
-      <c r="N169">
-        <v>9193</v>
-      </c>
-      <c r="O169">
-        <v>8244</v>
-      </c>
-      <c r="P169">
-        <v>949</v>
-      </c>
-      <c r="Q169">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>11202</v>
       </c>
@@ -9320,32 +5262,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C170),D170)</f>
         <v>148.77752706481147</v>
       </c>
-      <c r="I170">
-        <v>10736</v>
-      </c>
-      <c r="J170">
-        <v>10868</v>
-      </c>
-      <c r="K170">
-        <v>-132</v>
-      </c>
-      <c r="L170">
-        <v>170</v>
-      </c>
-      <c r="N170">
-        <v>15317</v>
-      </c>
-      <c r="O170">
-        <v>13999</v>
-      </c>
-      <c r="P170">
-        <v>1318</v>
-      </c>
-      <c r="Q170">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>15321</v>
       </c>
@@ -9370,32 +5288,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C171),D171)</f>
         <v>148.06338035475767</v>
       </c>
-      <c r="I171">
-        <v>16032</v>
-      </c>
-      <c r="J171">
-        <v>15542</v>
-      </c>
-      <c r="K171">
-        <v>490</v>
-      </c>
-      <c r="L171">
-        <v>171</v>
-      </c>
-      <c r="N171">
-        <v>17117</v>
-      </c>
-      <c r="O171">
-        <v>14541</v>
-      </c>
-      <c r="P171">
-        <v>2576</v>
-      </c>
-      <c r="Q171">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>13104</v>
       </c>
@@ -9420,32 +5314,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C172),D172)</f>
         <v>147.84921635459656</v>
       </c>
-      <c r="I172">
-        <v>12920</v>
-      </c>
-      <c r="J172">
-        <v>12831</v>
-      </c>
-      <c r="K172">
-        <v>89</v>
-      </c>
-      <c r="L172">
-        <v>172</v>
-      </c>
-      <c r="N172">
-        <v>13915</v>
-      </c>
-      <c r="O172">
-        <v>13605</v>
-      </c>
-      <c r="P172">
-        <v>310</v>
-      </c>
-      <c r="Q172">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>10901</v>
       </c>
@@ -9470,32 +5340,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C173),D173)</f>
         <v>147.78309491335833</v>
       </c>
-      <c r="I173">
-        <v>11678</v>
-      </c>
-      <c r="J173">
-        <v>11365</v>
-      </c>
-      <c r="K173">
-        <v>313</v>
-      </c>
-      <c r="L173">
-        <v>173</v>
-      </c>
-      <c r="N173">
-        <v>12919</v>
-      </c>
-      <c r="O173">
-        <v>12385</v>
-      </c>
-      <c r="P173">
-        <v>534</v>
-      </c>
-      <c r="Q173">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>14302</v>
       </c>
@@ -9520,32 +5366,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C174),D174)</f>
         <v>146.92281522396243</v>
       </c>
-      <c r="I174">
-        <v>15233</v>
-      </c>
-      <c r="J174">
-        <v>14004</v>
-      </c>
-      <c r="K174">
-        <v>1229</v>
-      </c>
-      <c r="L174">
-        <v>174</v>
-      </c>
-      <c r="N174">
-        <v>16671</v>
-      </c>
-      <c r="O174">
-        <v>16588</v>
-      </c>
-      <c r="P174">
-        <v>83</v>
-      </c>
-      <c r="Q174">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>16082</v>
       </c>
@@ -9570,32 +5392,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C175),D175)</f>
         <v>146.11862651504393</v>
       </c>
-      <c r="I175">
-        <v>16073</v>
-      </c>
-      <c r="J175">
-        <v>16030</v>
-      </c>
-      <c r="K175">
-        <v>43</v>
-      </c>
-      <c r="L175">
-        <v>175</v>
-      </c>
-      <c r="N175">
-        <v>15917</v>
-      </c>
-      <c r="O175">
-        <v>14594</v>
-      </c>
-      <c r="P175">
-        <v>1323</v>
-      </c>
-      <c r="Q175">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>15057</v>
       </c>
@@ -9620,32 +5418,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C176),D176)</f>
         <v>145.73112588523651</v>
       </c>
-      <c r="I176">
-        <v>14997</v>
-      </c>
-      <c r="J176">
-        <v>15888</v>
-      </c>
-      <c r="K176">
-        <v>-891</v>
-      </c>
-      <c r="L176">
-        <v>176</v>
-      </c>
-      <c r="N176">
-        <v>15336</v>
-      </c>
-      <c r="O176">
-        <v>15039</v>
-      </c>
-      <c r="P176">
-        <v>297</v>
-      </c>
-      <c r="Q176">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>16327</v>
       </c>
@@ -9670,32 +5444,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C177),D177)</f>
         <v>144.89643313408064</v>
       </c>
-      <c r="I177">
-        <v>15880</v>
-      </c>
-      <c r="J177">
-        <v>16051</v>
-      </c>
-      <c r="K177">
-        <v>-171</v>
-      </c>
-      <c r="L177">
-        <v>177</v>
-      </c>
-      <c r="N177">
-        <v>13905</v>
-      </c>
-      <c r="O177">
-        <v>11636</v>
-      </c>
-      <c r="P177">
-        <v>2269</v>
-      </c>
-      <c r="Q177">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>14815</v>
       </c>
@@ -9720,32 +5470,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C178),D178)</f>
         <v>144.57541605686967</v>
       </c>
-      <c r="I178">
-        <v>15098</v>
-      </c>
-      <c r="J178">
-        <v>14700</v>
-      </c>
-      <c r="K178">
-        <v>398</v>
-      </c>
-      <c r="L178">
-        <v>178</v>
-      </c>
-      <c r="N178">
-        <v>6519</v>
-      </c>
-      <c r="O178">
-        <v>6890</v>
-      </c>
-      <c r="P178">
-        <v>-371</v>
-      </c>
-      <c r="Q178">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>10234</v>
       </c>
@@ -9770,32 +5496,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C179),D179)</f>
         <v>143.75696704337378</v>
       </c>
-      <c r="I179">
-        <v>10894</v>
-      </c>
-      <c r="J179">
-        <v>10004</v>
-      </c>
-      <c r="K179">
-        <v>890</v>
-      </c>
-      <c r="L179">
-        <v>179</v>
-      </c>
-      <c r="N179">
-        <v>15816</v>
-      </c>
-      <c r="O179">
-        <v>15695</v>
-      </c>
-      <c r="P179">
-        <v>121</v>
-      </c>
-      <c r="Q179">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>16434</v>
       </c>
@@ -9820,32 +5522,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C180),D180)</f>
         <v>142.95298758102578</v>
       </c>
-      <c r="I180">
-        <v>15378</v>
-      </c>
-      <c r="J180">
-        <v>16160</v>
-      </c>
-      <c r="K180">
-        <v>-782</v>
-      </c>
-      <c r="L180">
-        <v>180</v>
-      </c>
-      <c r="N180">
-        <v>14914</v>
-      </c>
-      <c r="O180">
-        <v>14643</v>
-      </c>
-      <c r="P180">
-        <v>271</v>
-      </c>
-      <c r="Q180">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>12199</v>
       </c>
@@ -9870,32 +5548,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C181),D181)</f>
         <v>143.85120696462371</v>
       </c>
-      <c r="I181">
-        <v>12173</v>
-      </c>
-      <c r="J181">
-        <v>12000</v>
-      </c>
-      <c r="K181">
-        <v>173</v>
-      </c>
-      <c r="L181">
-        <v>181</v>
-      </c>
-      <c r="N181">
-        <v>11799</v>
-      </c>
-      <c r="O181">
-        <v>11424</v>
-      </c>
-      <c r="P181">
-        <v>375</v>
-      </c>
-      <c r="Q181">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>12398</v>
       </c>
@@ -9920,32 +5574,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C182),D182)</f>
         <v>143.35942092103684</v>
       </c>
-      <c r="I182">
-        <v>13514</v>
-      </c>
-      <c r="J182">
-        <v>12693</v>
-      </c>
-      <c r="K182">
-        <v>821</v>
-      </c>
-      <c r="L182">
-        <v>182</v>
-      </c>
-      <c r="N182">
-        <v>14721</v>
-      </c>
-      <c r="O182">
-        <v>14623</v>
-      </c>
-      <c r="P182">
-        <v>98</v>
-      </c>
-      <c r="Q182">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>11772</v>
       </c>
@@ -9970,32 +5600,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C183),D183)</f>
         <v>144.49700155720743</v>
       </c>
-      <c r="I183">
-        <v>13679</v>
-      </c>
-      <c r="J183">
-        <v>12429</v>
-      </c>
-      <c r="K183">
-        <v>1250</v>
-      </c>
-      <c r="L183">
-        <v>183</v>
-      </c>
-      <c r="N183">
-        <v>10027</v>
-      </c>
-      <c r="O183">
-        <v>9378</v>
-      </c>
-      <c r="P183">
-        <v>649</v>
-      </c>
-      <c r="Q183">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>14009</v>
       </c>
@@ -10020,32 +5626,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C184),D184)</f>
         <v>145.75684134837857</v>
       </c>
-      <c r="I184">
-        <v>14705</v>
-      </c>
-      <c r="J184">
-        <v>14115</v>
-      </c>
-      <c r="K184">
-        <v>590</v>
-      </c>
-      <c r="L184">
-        <v>184</v>
-      </c>
-      <c r="N184">
-        <v>14091</v>
-      </c>
-      <c r="O184">
-        <v>11439</v>
-      </c>
-      <c r="P184">
-        <v>2652</v>
-      </c>
-      <c r="Q184">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>16318</v>
       </c>
@@ -10070,32 +5652,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C185),D185)</f>
         <v>144.99368839745895</v>
       </c>
-      <c r="I185">
-        <v>17340</v>
-      </c>
-      <c r="J185">
-        <v>16153</v>
-      </c>
-      <c r="K185">
-        <v>1187</v>
-      </c>
-      <c r="L185">
-        <v>185</v>
-      </c>
-      <c r="N185">
-        <v>7598</v>
-      </c>
-      <c r="O185">
-        <v>7663</v>
-      </c>
-      <c r="P185">
-        <v>-65</v>
-      </c>
-      <c r="Q185">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>11399</v>
       </c>
@@ -10120,32 +5678,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C186),D186)</f>
         <v>144.47198173214423</v>
       </c>
-      <c r="I186">
-        <v>10773</v>
-      </c>
-      <c r="J186">
-        <v>10429</v>
-      </c>
-      <c r="K186">
-        <v>344</v>
-      </c>
-      <c r="L186">
-        <v>186</v>
-      </c>
-      <c r="N186">
-        <v>15372</v>
-      </c>
-      <c r="O186">
-        <v>14719</v>
-      </c>
-      <c r="P186">
-        <v>653</v>
-      </c>
-      <c r="Q186">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>8861</v>
       </c>
@@ -10170,32 +5704,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C187),D187)</f>
         <v>143.70554324200185</v>
       </c>
-      <c r="I187">
-        <v>9910</v>
-      </c>
-      <c r="J187">
-        <v>9466</v>
-      </c>
-      <c r="K187">
-        <v>444</v>
-      </c>
-      <c r="L187">
-        <v>187</v>
-      </c>
-      <c r="N187">
-        <v>13803</v>
-      </c>
-      <c r="O187">
-        <v>13989</v>
-      </c>
-      <c r="P187">
-        <v>-186</v>
-      </c>
-      <c r="Q187">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>8649</v>
       </c>
@@ -10220,32 +5730,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C188),D188)</f>
         <v>142.93159595626341</v>
       </c>
-      <c r="I188">
-        <v>10755</v>
-      </c>
-      <c r="J188">
-        <v>10085</v>
-      </c>
-      <c r="K188">
-        <v>670</v>
-      </c>
-      <c r="L188">
-        <v>188</v>
-      </c>
-      <c r="N188">
-        <v>12930</v>
-      </c>
-      <c r="O188">
-        <v>11262</v>
-      </c>
-      <c r="P188">
-        <v>1668</v>
-      </c>
-      <c r="Q188">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>14892</v>
       </c>
@@ -10270,32 +5756,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C189),D189)</f>
         <v>142.50372375951957</v>
       </c>
-      <c r="I189">
-        <v>14956</v>
-      </c>
-      <c r="J189">
-        <v>16205</v>
-      </c>
-      <c r="K189">
-        <v>-1249</v>
-      </c>
-      <c r="L189">
-        <v>189</v>
-      </c>
-      <c r="N189">
-        <v>10027</v>
-      </c>
-      <c r="O189">
-        <v>8615</v>
-      </c>
-      <c r="P189">
-        <v>1412</v>
-      </c>
-      <c r="Q189">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>12612</v>
       </c>
@@ -10320,32 +5782,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C190),D190)</f>
         <v>142.04592400772458</v>
       </c>
-      <c r="I190">
-        <v>12841</v>
-      </c>
-      <c r="J190">
-        <v>12415</v>
-      </c>
-      <c r="K190">
-        <v>426</v>
-      </c>
-      <c r="L190">
-        <v>190</v>
-      </c>
-      <c r="N190">
-        <v>15526</v>
-      </c>
-      <c r="O190">
-        <v>16055</v>
-      </c>
-      <c r="P190">
-        <v>-529</v>
-      </c>
-      <c r="Q190">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>9651</v>
       </c>
@@ -10370,32 +5808,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C191),D191)</f>
         <v>141.58744863799683</v>
       </c>
-      <c r="I191">
-        <v>10245</v>
-      </c>
-      <c r="J191">
-        <v>8747</v>
-      </c>
-      <c r="K191">
-        <v>1498</v>
-      </c>
-      <c r="L191">
-        <v>191</v>
-      </c>
-      <c r="N191">
-        <v>17500</v>
-      </c>
-      <c r="O191">
-        <v>17373</v>
-      </c>
-      <c r="P191">
-        <v>127</v>
-      </c>
-      <c r="Q191">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>15892</v>
       </c>
@@ -10420,32 +5834,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C192),D192)</f>
         <v>140.96688762759257</v>
       </c>
-      <c r="I192">
-        <v>17490</v>
-      </c>
-      <c r="J192">
-        <v>16646</v>
-      </c>
-      <c r="K192">
-        <v>844</v>
-      </c>
-      <c r="L192">
-        <v>192</v>
-      </c>
-      <c r="N192">
-        <v>9941</v>
-      </c>
-      <c r="O192">
-        <v>9795</v>
-      </c>
-      <c r="P192">
-        <v>146</v>
-      </c>
-      <c r="Q192">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>16757</v>
       </c>
@@ -10470,32 +5860,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C193),D193)</f>
         <v>140.24257391126548</v>
       </c>
-      <c r="I193">
-        <v>15513</v>
-      </c>
-      <c r="J193">
-        <v>16336</v>
-      </c>
-      <c r="K193">
-        <v>-823</v>
-      </c>
-      <c r="L193">
-        <v>193</v>
-      </c>
-      <c r="N193">
-        <v>9744</v>
-      </c>
-      <c r="O193">
-        <v>9770</v>
-      </c>
-      <c r="P193">
-        <v>-26</v>
-      </c>
-      <c r="Q193">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>14368</v>
       </c>
@@ -10520,32 +5886,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C194),D194)</f>
         <v>140.11798481567979</v>
       </c>
-      <c r="I194">
-        <v>14048</v>
-      </c>
-      <c r="J194">
-        <v>14658</v>
-      </c>
-      <c r="K194">
-        <v>-610</v>
-      </c>
-      <c r="L194">
-        <v>194</v>
-      </c>
-      <c r="N194">
-        <v>14405</v>
-      </c>
-      <c r="O194">
-        <v>14071</v>
-      </c>
-      <c r="P194">
-        <v>334</v>
-      </c>
-      <c r="Q194">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>17153</v>
       </c>
@@ -10570,32 +5912,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C195),D195)</f>
         <v>139.53068077541707</v>
       </c>
-      <c r="I195">
-        <v>17010</v>
-      </c>
-      <c r="J195">
-        <v>15892</v>
-      </c>
-      <c r="K195">
-        <v>1118</v>
-      </c>
-      <c r="L195">
-        <v>195</v>
-      </c>
-      <c r="N195">
-        <v>13990</v>
-      </c>
-      <c r="O195">
-        <v>14268</v>
-      </c>
-      <c r="P195">
-        <v>-278</v>
-      </c>
-      <c r="Q195">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>12907</v>
       </c>
@@ -10620,32 +5938,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C196),D196)</f>
         <v>139.03923298832419</v>
       </c>
-      <c r="I196">
-        <v>12608</v>
-      </c>
-      <c r="J196">
-        <v>12694</v>
-      </c>
-      <c r="K196">
-        <v>-86</v>
-      </c>
-      <c r="L196">
-        <v>196</v>
-      </c>
-      <c r="N196">
-        <v>13784</v>
-      </c>
-      <c r="O196">
-        <v>12578</v>
-      </c>
-      <c r="P196">
-        <v>1206</v>
-      </c>
-      <c r="Q196">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>17722</v>
       </c>
@@ -10670,32 +5964,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C197),D197)</f>
         <v>138.34879182825878</v>
       </c>
-      <c r="I197">
-        <v>17591</v>
-      </c>
-      <c r="J197">
-        <v>18150</v>
-      </c>
-      <c r="K197">
-        <v>-559</v>
-      </c>
-      <c r="L197">
-        <v>197</v>
-      </c>
-      <c r="N197">
-        <v>14043</v>
-      </c>
-      <c r="O197">
-        <v>15288</v>
-      </c>
-      <c r="P197">
-        <v>-1245</v>
-      </c>
-      <c r="Q197">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>17052</v>
       </c>
@@ -10720,32 +5990,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C198),D198)</f>
         <v>138.15545898677178</v>
       </c>
-      <c r="I198">
-        <v>15515</v>
-      </c>
-      <c r="J198">
-        <v>16702</v>
-      </c>
-      <c r="K198">
-        <v>-1187</v>
-      </c>
-      <c r="L198">
-        <v>198</v>
-      </c>
-      <c r="N198">
-        <v>13411</v>
-      </c>
-      <c r="O198">
-        <v>12471</v>
-      </c>
-      <c r="P198">
-        <v>940</v>
-      </c>
-      <c r="Q198">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>16287</v>
       </c>
@@ -10770,32 +6016,8 @@
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C199),D199)</f>
         <v>137.47553216563176</v>
       </c>
-      <c r="I199">
-        <v>16272</v>
-      </c>
-      <c r="J199">
-        <v>15957</v>
-      </c>
-      <c r="K199">
-        <v>315</v>
-      </c>
-      <c r="L199">
-        <v>199</v>
-      </c>
-      <c r="N199">
-        <v>13267</v>
-      </c>
-      <c r="O199">
-        <v>10681</v>
-      </c>
-      <c r="P199">
-        <v>2586</v>
-      </c>
-      <c r="Q199">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>14576</v>
       </c>
@@ -10819,58 +6041,6 @@
       <c r="G200">
         <f>_xlfn.CONFIDENCE.T(0.01,_xlfn.STDEV.S(C$1:C200),D200)</f>
         <v>138.09260186760443</v>
-      </c>
-      <c r="I200">
-        <v>14946</v>
-      </c>
-      <c r="J200">
-        <v>13997</v>
-      </c>
-      <c r="K200">
-        <v>949</v>
-      </c>
-      <c r="L200">
-        <v>200</v>
-      </c>
-      <c r="N200">
-        <v>17136</v>
-      </c>
-      <c r="O200">
-        <v>17546</v>
-      </c>
-      <c r="P200">
-        <v>-410</v>
-      </c>
-      <c r="Q200">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C202">
-        <f>_xlfn.STDEV.S(C1:C200)</f>
-        <v>750.90517464359823</v>
-      </c>
-      <c r="K202">
-        <f>_xlfn.STDEV.S(K1:K200)</f>
-        <v>736.85344001388876</v>
-      </c>
-      <c r="P202">
-        <f>_xlfn.STDEV.S(P1:P200)</f>
-        <v>1072.7532135870331</v>
-      </c>
-    </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C203">
-        <f>AVERAGE(C1:C200)</f>
-        <v>511.54</v>
-      </c>
-      <c r="K203">
-        <f>AVERAGE(K1:K200)</f>
-        <v>382.23</v>
-      </c>
-      <c r="P203">
-        <f>AVERAGE(P1:P200)</f>
-        <v>566.505</v>
       </c>
     </row>
   </sheetData>
